--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -136,6 +136,15 @@
     <t>2023-06-03</t>
   </si>
   <si>
+    <t>2023-08-12</t>
+  </si>
+  <si>
+    <t>2023-08-13</t>
+  </si>
+  <si>
+    <t>2023-08-14</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
@@ -265,6 +274,30 @@
     <t>Lorient</t>
   </si>
   <si>
+    <t>Marseille</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
@@ -335,6 +368,24 @@
   </si>
   <si>
     <t>Athletic Club</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -713,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U48"/>
+  <dimension ref="A1:U57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -789,13 +840,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="F2">
         <v>1.72</v>
@@ -810,7 +861,7 @@
         <v>0.2</v>
       </c>
       <c r="J2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K2">
         <v>0.8</v>
@@ -819,7 +870,7 @@
         <v>1.72</v>
       </c>
       <c r="M2" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -828,16 +879,16 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q2" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="R2" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -854,13 +905,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3">
         <v>2.7</v>
@@ -875,7 +926,7 @@
         <v>0.75</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K3">
         <v>0.75</v>
@@ -884,7 +935,7 @@
         <v>2.55</v>
       </c>
       <c r="M3" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -893,16 +944,16 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -919,13 +970,13 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="F4">
         <v>1.65</v>
@@ -940,7 +991,7 @@
         <v>0.14</v>
       </c>
       <c r="J4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K4">
         <v>0.86</v>
@@ -949,7 +1000,7 @@
         <v>1.65</v>
       </c>
       <c r="M4" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -958,16 +1009,16 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="R4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -984,13 +1035,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F5">
         <v>1.68</v>
@@ -1005,7 +1056,7 @@
         <v>0.09</v>
       </c>
       <c r="J5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K5">
         <v>0.8100000000000001</v>
@@ -1014,7 +1065,7 @@
         <v>1.68</v>
       </c>
       <c r="M5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1023,16 +1074,16 @@
         <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="R5" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S5" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1049,13 +1100,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F6">
         <v>1.78</v>
@@ -1070,7 +1121,7 @@
         <v>0.09</v>
       </c>
       <c r="J6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K6">
         <v>0.8100000000000001</v>
@@ -1079,7 +1130,7 @@
         <v>1.78</v>
       </c>
       <c r="M6" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1088,16 +1139,16 @@
         <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q6" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="R6" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1114,13 +1165,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F7">
         <v>1.48</v>
@@ -1135,7 +1186,7 @@
         <v>0.06</v>
       </c>
       <c r="J7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K7">
         <v>0.9399999999999999</v>
@@ -1144,7 +1195,7 @@
         <v>1.48</v>
       </c>
       <c r="M7" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1153,16 +1204,16 @@
         <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q7" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="R7" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S7" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1179,13 +1230,13 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2.02</v>
@@ -1200,7 +1251,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1209,7 +1260,7 @@
         <v>2.02</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1218,16 +1269,16 @@
         <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1244,13 +1295,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F9">
         <v>1.66</v>
@@ -1265,7 +1316,7 @@
         <v>0.23</v>
       </c>
       <c r="J9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K9">
         <v>0.77</v>
@@ -1274,7 +1325,7 @@
         <v>1.66</v>
       </c>
       <c r="M9" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1283,16 +1334,16 @@
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q9" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="R9" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S9" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1309,13 +1360,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1330,7 +1381,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K10">
         <v>0.85</v>
@@ -1339,7 +1390,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1348,16 +1399,16 @@
         <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R10" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S10" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1374,13 +1425,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <v>1.52</v>
@@ -1395,7 +1446,7 @@
         <v>0.09</v>
       </c>
       <c r="J11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>0.91</v>
@@ -1404,7 +1455,7 @@
         <v>1.52</v>
       </c>
       <c r="M11" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1413,16 +1464,16 @@
         <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="R11" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1439,13 +1490,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F12">
         <v>3.95</v>
@@ -1460,7 +1511,7 @@
         <v>0.73</v>
       </c>
       <c r="J12" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K12">
         <v>0.73</v>
@@ -1469,7 +1520,7 @@
         <v>1.98</v>
       </c>
       <c r="M12" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1478,16 +1529,16 @@
         <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q12" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="R12" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S12" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1504,13 +1555,13 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F13">
         <v>1.47</v>
@@ -1525,7 +1576,7 @@
         <v>0.14</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K13">
         <v>0.86</v>
@@ -1534,7 +1585,7 @@
         <v>1.47</v>
       </c>
       <c r="M13" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1543,16 +1594,16 @@
         <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="R13" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S13" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -1569,13 +1620,13 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F14">
         <v>1.55</v>
@@ -1590,7 +1641,7 @@
         <v>0.16</v>
       </c>
       <c r="J14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K14">
         <v>0.84</v>
@@ -1599,7 +1650,7 @@
         <v>1.55</v>
       </c>
       <c r="M14" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1608,16 +1659,16 @@
         <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q14" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="R14" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1634,13 +1685,13 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F15">
         <v>1.65</v>
@@ -1655,7 +1706,7 @@
         <v>0.23</v>
       </c>
       <c r="J15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K15">
         <v>0.77</v>
@@ -1664,7 +1715,7 @@
         <v>1.65</v>
       </c>
       <c r="M15" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1673,16 +1724,16 @@
         <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="R15" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S15" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1699,13 +1750,13 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="F16">
         <v>1.68</v>
@@ -1720,7 +1771,7 @@
         <v>0.17</v>
       </c>
       <c r="J16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K16">
         <v>0.83</v>
@@ -1729,7 +1780,7 @@
         <v>1.68</v>
       </c>
       <c r="M16" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1738,16 +1789,16 @@
         <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q16" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="R16" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S16" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1764,13 +1815,13 @@
         <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F17">
         <v>1.68</v>
@@ -1785,7 +1836,7 @@
         <v>0.16</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K17">
         <v>0.84</v>
@@ -1794,7 +1845,7 @@
         <v>1.68</v>
       </c>
       <c r="M17" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1803,16 +1854,16 @@
         <v>30</v>
       </c>
       <c r="P17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q17" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R17" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S17" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1829,13 +1880,13 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F18">
         <v>1.47</v>
@@ -1850,7 +1901,7 @@
         <v>0.05</v>
       </c>
       <c r="J18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K18">
         <v>0.95</v>
@@ -1859,7 +1910,7 @@
         <v>1.47</v>
       </c>
       <c r="M18" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1868,16 +1919,16 @@
         <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q18" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="R18" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S18" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1894,13 +1945,13 @@
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F19">
         <v>2.25</v>
@@ -1915,7 +1966,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="J19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K19">
         <v>0.8100000000000001</v>
@@ -1924,7 +1975,7 @@
         <v>3.2</v>
       </c>
       <c r="M19" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1933,16 +1984,16 @@
         <v>31</v>
       </c>
       <c r="P19" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1959,13 +2010,13 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F20">
         <v>1.44</v>
@@ -1980,7 +2031,7 @@
         <v>0.18</v>
       </c>
       <c r="J20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K20">
         <v>0.82</v>
@@ -1989,7 +2040,7 @@
         <v>1.44</v>
       </c>
       <c r="M20" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1998,16 +2049,16 @@
         <v>30</v>
       </c>
       <c r="P20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q20" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="R20" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S20" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2024,13 +2075,13 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F21">
         <v>2.7</v>
@@ -2045,7 +2096,7 @@
         <v>0.78</v>
       </c>
       <c r="J21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K21">
         <v>0.78</v>
@@ -2054,7 +2105,7 @@
         <v>2.55</v>
       </c>
       <c r="M21" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -2063,16 +2114,16 @@
         <v>31</v>
       </c>
       <c r="P21" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q21" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="R21" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S21" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2089,13 +2140,13 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="F22">
         <v>4.9</v>
@@ -2110,7 +2161,7 @@
         <v>0.75</v>
       </c>
       <c r="J22" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="K22">
         <v>0.75</v>
@@ -2119,7 +2170,7 @@
         <v>1.68</v>
       </c>
       <c r="M22" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -2128,16 +2179,16 @@
         <v>31</v>
       </c>
       <c r="P22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q22" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="R22" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T22">
         <v>0</v>
@@ -2154,13 +2205,13 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F23">
         <v>1.88</v>
@@ -2175,7 +2226,7 @@
         <v>0.25</v>
       </c>
       <c r="J23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K23">
         <v>0.75</v>
@@ -2184,7 +2235,7 @@
         <v>1.88</v>
       </c>
       <c r="M23" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -2193,16 +2244,16 @@
         <v>31</v>
       </c>
       <c r="P23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R23" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S23" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2219,13 +2270,13 @@
         <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="F24">
         <v>1.82</v>
@@ -2240,7 +2291,7 @@
         <v>0.25</v>
       </c>
       <c r="J24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K24">
         <v>0.75</v>
@@ -2249,7 +2300,7 @@
         <v>1.82</v>
       </c>
       <c r="M24" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -2258,16 +2309,16 @@
         <v>29</v>
       </c>
       <c r="P24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q24" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="R24" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S24" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T24">
         <v>1</v>
@@ -2284,13 +2335,13 @@
         <v>30</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F25">
         <v>3.95</v>
@@ -2305,7 +2356,7 @@
         <v>0.74</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K25">
         <v>0.74</v>
@@ -2314,7 +2365,7 @@
         <v>1.9</v>
       </c>
       <c r="M25" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2323,16 +2374,16 @@
         <v>30</v>
       </c>
       <c r="P25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S25" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T25">
         <v>0</v>
@@ -2349,13 +2400,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="F26">
         <v>2.72</v>
@@ -2370,7 +2421,7 @@
         <v>0.29</v>
       </c>
       <c r="J26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K26">
         <v>0.71</v>
@@ -2379,7 +2430,7 @@
         <v>2.72</v>
       </c>
       <c r="M26" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2388,16 +2439,16 @@
         <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q26" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="R26" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S26" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2414,13 +2465,13 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F27">
         <v>2.38</v>
@@ -2435,7 +2486,7 @@
         <v>0.7</v>
       </c>
       <c r="J27" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K27">
         <v>0.7</v>
@@ -2444,7 +2495,7 @@
         <v>3.25</v>
       </c>
       <c r="M27" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2453,16 +2504,16 @@
         <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q27" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="R27" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S27" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2479,13 +2530,13 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F28">
         <v>1.5</v>
@@ -2500,7 +2551,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K28">
         <v>0.93</v>
@@ -2509,7 +2560,7 @@
         <v>1.5</v>
       </c>
       <c r="M28" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -2518,16 +2569,16 @@
         <v>32</v>
       </c>
       <c r="P28" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q28" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="R28" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S28" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2544,13 +2595,13 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="F29">
         <v>1.85</v>
@@ -2565,7 +2616,7 @@
         <v>0.28</v>
       </c>
       <c r="J29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K29">
         <v>0.72</v>
@@ -2574,7 +2625,7 @@
         <v>1.85</v>
       </c>
       <c r="M29" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2583,16 +2634,16 @@
         <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="R29" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S29" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2609,13 +2660,13 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F30">
         <v>2.68</v>
@@ -2630,7 +2681,7 @@
         <v>0.27</v>
       </c>
       <c r="J30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K30">
         <v>0.73</v>
@@ -2639,7 +2690,7 @@
         <v>2.68</v>
       </c>
       <c r="M30" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2648,16 +2699,16 @@
         <v>32</v>
       </c>
       <c r="P30" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q30" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R30" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S30" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2674,13 +2725,13 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>2.35</v>
@@ -2695,7 +2746,7 @@
         <v>0.29</v>
       </c>
       <c r="J31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K31">
         <v>0.71</v>
@@ -2704,7 +2755,7 @@
         <v>2.35</v>
       </c>
       <c r="M31" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2713,16 +2764,16 @@
         <v>33</v>
       </c>
       <c r="P31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="Q31" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="R31" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S31" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2739,13 +2790,13 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="F32">
         <v>1.98</v>
@@ -2760,7 +2811,7 @@
         <v>0.26</v>
       </c>
       <c r="J32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K32">
         <v>0.74</v>
@@ -2769,7 +2820,7 @@
         <v>1.98</v>
       </c>
       <c r="M32" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2778,16 +2829,16 @@
         <v>33</v>
       </c>
       <c r="P32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="Q32" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="R32" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S32" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2804,13 +2855,13 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F33">
         <v>1.72</v>
@@ -2825,7 +2876,7 @@
         <v>0.1</v>
       </c>
       <c r="J33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K33">
         <v>0.9</v>
@@ -2834,7 +2885,7 @@
         <v>1.72</v>
       </c>
       <c r="M33" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -2843,16 +2894,16 @@
         <v>34</v>
       </c>
       <c r="P33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q33" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="R33" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S33" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T33">
         <v>1</v>
@@ -2869,13 +2920,13 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="F34">
         <v>1.53</v>
@@ -2890,7 +2941,7 @@
         <v>0.13</v>
       </c>
       <c r="J34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K34">
         <v>0.87</v>
@@ -2899,7 +2950,7 @@
         <v>1.53</v>
       </c>
       <c r="M34" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -2908,16 +2959,16 @@
         <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q34" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="R34" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S34" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T34">
         <v>1</v>
@@ -2934,13 +2985,13 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="F35">
         <v>2.05</v>
@@ -2955,7 +3006,7 @@
         <v>0.14</v>
       </c>
       <c r="J35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K35">
         <v>0.86</v>
@@ -2964,7 +3015,7 @@
         <v>2.05</v>
       </c>
       <c r="M35" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -2973,16 +3024,16 @@
         <v>34</v>
       </c>
       <c r="P35" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="Q35" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="R35" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S35" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -2999,13 +3050,13 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="F36">
         <v>1.7</v>
@@ -3020,7 +3071,7 @@
         <v>0.14</v>
       </c>
       <c r="J36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K36">
         <v>0.86</v>
@@ -3029,7 +3080,7 @@
         <v>1.7</v>
       </c>
       <c r="M36" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -3038,16 +3089,16 @@
         <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Q36" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="R36" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S36" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3064,13 +3115,13 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F37">
         <v>1.42</v>
@@ -3085,7 +3136,7 @@
         <v>0.15</v>
       </c>
       <c r="J37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K37">
         <v>0.85</v>
@@ -3094,7 +3145,7 @@
         <v>1.42</v>
       </c>
       <c r="M37" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -3103,16 +3154,16 @@
         <v>35</v>
       </c>
       <c r="P37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="R37" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="T37">
         <v>1</v>
@@ -3129,13 +3180,13 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F38">
         <v>1.53</v>
@@ -3150,7 +3201,7 @@
         <v>0.11</v>
       </c>
       <c r="J38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K38">
         <v>0.89</v>
@@ -3159,7 +3210,7 @@
         <v>1.53</v>
       </c>
       <c r="M38" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -3168,16 +3219,16 @@
         <v>36</v>
       </c>
       <c r="P38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="Q38" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="R38" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S38" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3194,13 +3245,13 @@
         <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F39">
         <v>3.4</v>
@@ -3215,7 +3266,7 @@
         <v>0.75</v>
       </c>
       <c r="J39" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="K39">
         <v>0.75</v>
@@ -3224,7 +3275,7 @@
         <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -3233,16 +3284,16 @@
         <v>35</v>
       </c>
       <c r="P39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="Q39" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="R39" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S39" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="T39">
         <v>0</v>
@@ -3259,13 +3310,13 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F40">
         <v>1.68</v>
@@ -3280,7 +3331,7 @@
         <v>0.21</v>
       </c>
       <c r="J40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K40">
         <v>0.79</v>
@@ -3289,7 +3340,7 @@
         <v>1.68</v>
       </c>
       <c r="M40" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -3298,16 +3349,16 @@
         <v>35</v>
       </c>
       <c r="P40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="Q40" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="R40" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S40" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="T40">
         <v>1</v>
@@ -3324,13 +3375,13 @@
         <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="F41">
         <v>2.1</v>
@@ -3345,7 +3396,7 @@
         <v>0.29</v>
       </c>
       <c r="J41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K41">
         <v>0.71</v>
@@ -3354,7 +3405,7 @@
         <v>2.1</v>
       </c>
       <c r="M41" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -3363,16 +3414,16 @@
         <v>37</v>
       </c>
       <c r="P41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="Q41" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="R41" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S41" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3389,13 +3440,13 @@
         <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F42">
         <v>3.6</v>
@@ -3410,7 +3461,7 @@
         <v>0.71</v>
       </c>
       <c r="J42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K42">
         <v>0.71</v>
@@ -3419,7 +3470,7 @@
         <v>1.96</v>
       </c>
       <c r="M42" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -3428,16 +3479,16 @@
         <v>37</v>
       </c>
       <c r="P42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q42" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="R42" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S42" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="T42">
         <v>0</v>
@@ -3454,13 +3505,13 @@
         <v>35</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="F43">
         <v>2.45</v>
@@ -3475,7 +3526,7 @@
         <v>0.7</v>
       </c>
       <c r="J43" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="K43">
         <v>0.7</v>
@@ -3484,7 +3535,7 @@
         <v>2.95</v>
       </c>
       <c r="M43" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3493,16 +3544,16 @@
         <v>35</v>
       </c>
       <c r="P43" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q43" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="R43" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="S43" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -3519,13 +3570,13 @@
         <v>36</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="F44">
         <v>2.92</v>
@@ -3540,7 +3591,7 @@
         <v>0.29</v>
       </c>
       <c r="J44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K44">
         <v>0.71</v>
@@ -3549,7 +3600,7 @@
         <v>2.92</v>
       </c>
       <c r="M44" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3558,16 +3609,16 @@
         <v>36</v>
       </c>
       <c r="P44" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="Q44" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="R44" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S44" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -3584,13 +3635,13 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F45">
         <v>1.78</v>
@@ -3605,7 +3656,7 @@
         <v>0.17</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K45">
         <v>0.83</v>
@@ -3614,7 +3665,7 @@
         <v>1.78</v>
       </c>
       <c r="M45" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N45">
         <v>3</v>
@@ -3623,16 +3674,16 @@
         <v>38</v>
       </c>
       <c r="P45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="R45" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S45" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T45">
         <v>1</v>
@@ -3649,13 +3700,13 @@
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F46">
         <v>1.92</v>
@@ -3670,7 +3721,7 @@
         <v>0.17</v>
       </c>
       <c r="J46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K46">
         <v>0.83</v>
@@ -3679,7 +3730,7 @@
         <v>1.92</v>
       </c>
       <c r="M46" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N46">
         <v>3</v>
@@ -3688,16 +3739,16 @@
         <v>38</v>
       </c>
       <c r="P46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="Q46" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="R46" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -3714,13 +3765,13 @@
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="F47">
         <v>1.96</v>
@@ -3735,7 +3786,7 @@
         <v>0.16</v>
       </c>
       <c r="J47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K47">
         <v>0.84</v>
@@ -3744,7 +3795,7 @@
         <v>1.96</v>
       </c>
       <c r="M47" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -3753,16 +3804,16 @@
         <v>38</v>
       </c>
       <c r="P47" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q47" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="R47" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="S47" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -3779,13 +3830,13 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F48">
         <v>3.05</v>
@@ -3800,7 +3851,7 @@
         <v>0.75</v>
       </c>
       <c r="J48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K48">
         <v>0.75</v>
@@ -3809,7 +3860,7 @@
         <v>2.28</v>
       </c>
       <c r="M48" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -3818,22 +3869,607 @@
         <v>39</v>
       </c>
       <c r="P48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="Q48" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R48" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="S48" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
         <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>43</v>
+      </c>
+      <c r="D49" t="s">
+        <v>86</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49">
+        <v>1.65</v>
+      </c>
+      <c r="G49">
+        <v>4.9</v>
+      </c>
+      <c r="H49">
+        <v>0.84</v>
+      </c>
+      <c r="I49">
+        <v>0.16</v>
+      </c>
+      <c r="J49" t="s">
+        <v>86</v>
+      </c>
+      <c r="K49">
+        <v>0.84</v>
+      </c>
+      <c r="L49">
+        <v>1.65</v>
+      </c>
+      <c r="M49" t="s">
+        <v>124</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>40</v>
+      </c>
+      <c r="P49" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>115</v>
+      </c>
+      <c r="R49" t="s">
+        <v>127</v>
+      </c>
+      <c r="S49" t="s">
+        <v>86</v>
+      </c>
+      <c r="T49">
+        <v>1</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D50" t="s">
+        <v>87</v>
+      </c>
+      <c r="E50" t="s">
+        <v>114</v>
+      </c>
+      <c r="F50">
+        <v>2.5</v>
+      </c>
+      <c r="G50">
+        <v>3.3</v>
+      </c>
+      <c r="H50">
+        <v>0.18</v>
+      </c>
+      <c r="I50">
+        <v>0.82</v>
+      </c>
+      <c r="J50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50">
+        <v>0.82</v>
+      </c>
+      <c r="L50">
+        <v>3.3</v>
+      </c>
+      <c r="M50" t="s">
+        <v>124</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>40</v>
+      </c>
+      <c r="P50" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>114</v>
+      </c>
+      <c r="R50" t="s">
+        <v>129</v>
+      </c>
+      <c r="S50" t="s">
+        <v>130</v>
+      </c>
+      <c r="T50">
+        <v>0</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" t="s">
+        <v>88</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51">
+        <v>1.55</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>0.83</v>
+      </c>
+      <c r="I51">
+        <v>0.17</v>
+      </c>
+      <c r="J51" t="s">
+        <v>88</v>
+      </c>
+      <c r="K51">
+        <v>0.83</v>
+      </c>
+      <c r="L51">
+        <v>1.55</v>
+      </c>
+      <c r="M51" t="s">
+        <v>124</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>41</v>
+      </c>
+      <c r="P51" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>118</v>
+      </c>
+      <c r="R51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S51" t="s">
+        <v>88</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>41</v>
+      </c>
+      <c r="C52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D52" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" t="s">
+        <v>119</v>
+      </c>
+      <c r="F52">
+        <v>1.88</v>
+      </c>
+      <c r="G52">
+        <v>4.25</v>
+      </c>
+      <c r="H52">
+        <v>0.18</v>
+      </c>
+      <c r="I52">
+        <v>0.82</v>
+      </c>
+      <c r="J52" t="s">
+        <v>119</v>
+      </c>
+      <c r="K52">
+        <v>0.82</v>
+      </c>
+      <c r="L52">
+        <v>4.25</v>
+      </c>
+      <c r="M52" t="s">
+        <v>124</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>119</v>
+      </c>
+      <c r="R52" t="s">
+        <v>129</v>
+      </c>
+      <c r="S52" t="s">
+        <v>130</v>
+      </c>
+      <c r="T52">
+        <v>0</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" t="s">
+        <v>90</v>
+      </c>
+      <c r="E53" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53">
+        <v>1.57</v>
+      </c>
+      <c r="G53">
+        <v>6</v>
+      </c>
+      <c r="H53">
+        <v>0.93</v>
+      </c>
+      <c r="I53">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J53" t="s">
+        <v>90</v>
+      </c>
+      <c r="K53">
+        <v>0.93</v>
+      </c>
+      <c r="L53">
+        <v>1.57</v>
+      </c>
+      <c r="M53" t="s">
+        <v>124</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>120</v>
+      </c>
+      <c r="R53" t="s">
+        <v>127</v>
+      </c>
+      <c r="S53" t="s">
+        <v>90</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>41</v>
+      </c>
+      <c r="C54" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E54" t="s">
+        <v>121</v>
+      </c>
+      <c r="F54">
+        <v>1.8</v>
+      </c>
+      <c r="G54">
+        <v>4.5</v>
+      </c>
+      <c r="H54">
+        <v>0.78</v>
+      </c>
+      <c r="I54">
+        <v>0.22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>91</v>
+      </c>
+      <c r="K54">
+        <v>0.78</v>
+      </c>
+      <c r="L54">
+        <v>1.8</v>
+      </c>
+      <c r="M54" t="s">
+        <v>125</v>
+      </c>
+      <c r="N54">
+        <v>2</v>
+      </c>
+      <c r="O54" t="s">
+        <v>41</v>
+      </c>
+      <c r="P54" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>121</v>
+      </c>
+      <c r="R54" t="s">
+        <v>129</v>
+      </c>
+      <c r="S54" t="s">
+        <v>130</v>
+      </c>
+      <c r="T54">
+        <v>0</v>
+      </c>
+      <c r="U54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>41</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E55" t="s">
+        <v>122</v>
+      </c>
+      <c r="F55">
+        <v>1.41</v>
+      </c>
+      <c r="G55">
+        <v>7.8</v>
+      </c>
+      <c r="H55">
+        <v>0.22</v>
+      </c>
+      <c r="I55">
+        <v>0.78</v>
+      </c>
+      <c r="J55" t="s">
+        <v>122</v>
+      </c>
+      <c r="K55">
+        <v>0.78</v>
+      </c>
+      <c r="L55">
+        <v>7.8</v>
+      </c>
+      <c r="M55" t="s">
+        <v>125</v>
+      </c>
+      <c r="N55">
+        <v>2</v>
+      </c>
+      <c r="O55" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>122</v>
+      </c>
+      <c r="R55" t="s">
+        <v>127</v>
+      </c>
+      <c r="S55" t="s">
+        <v>92</v>
+      </c>
+      <c r="T55">
+        <v>0</v>
+      </c>
+      <c r="U55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D56" t="s">
+        <v>93</v>
+      </c>
+      <c r="E56" t="s">
+        <v>123</v>
+      </c>
+      <c r="F56">
+        <v>1.8</v>
+      </c>
+      <c r="G56">
+        <v>4.75</v>
+      </c>
+      <c r="H56">
+        <v>0.79</v>
+      </c>
+      <c r="I56">
+        <v>0.21</v>
+      </c>
+      <c r="J56" t="s">
+        <v>93</v>
+      </c>
+      <c r="K56">
+        <v>0.79</v>
+      </c>
+      <c r="L56">
+        <v>1.8</v>
+      </c>
+      <c r="M56" t="s">
+        <v>125</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>41</v>
+      </c>
+      <c r="P56" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>123</v>
+      </c>
+      <c r="R56" t="s">
+        <v>127</v>
+      </c>
+      <c r="S56" t="s">
+        <v>93</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>40</v>
+      </c>
+      <c r="C57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>100</v>
+      </c>
+      <c r="F57">
+        <v>1.63</v>
+      </c>
+      <c r="G57">
+        <v>5.5</v>
+      </c>
+      <c r="H57">
+        <v>0.76</v>
+      </c>
+      <c r="I57">
+        <v>0.24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>51</v>
+      </c>
+      <c r="K57">
+        <v>0.76</v>
+      </c>
+      <c r="L57">
+        <v>1.63</v>
+      </c>
+      <c r="M57" t="s">
+        <v>125</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>40</v>
+      </c>
+      <c r="P57" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>100</v>
+      </c>
+      <c r="R57" t="s">
+        <v>129</v>
+      </c>
+      <c r="S57" t="s">
+        <v>130</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.hassan\Desktop\github\soccerprediction\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3390C328-357E-4414-BDE2-1AAFEA4A4655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="129">
   <si>
     <t>Date</t>
   </si>
@@ -283,9 +289,6 @@
     <t>Atletico Mineiro</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>Palmeiras</t>
   </si>
   <si>
@@ -371,9 +374,6 @@
   </si>
   <si>
     <t>Bahia</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
   </si>
   <si>
     <t>Cruzeiro</t>
@@ -412,8 +412,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,13 +476,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -520,7 +528,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -554,6 +562,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -588,9 +597,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -763,14 +773,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U57"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -832,7 +847,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -846,7 +861,7 @@
         <v>48</v>
       </c>
       <c r="E2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F2">
         <v>1.72</v>
@@ -870,7 +885,7 @@
         <v>1.72</v>
       </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -882,10 +897,10 @@
         <v>48</v>
       </c>
       <c r="Q2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="R2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S2" t="s">
         <v>48</v>
@@ -897,7 +912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -917,7 +932,7 @@
         <v>2.7</v>
       </c>
       <c r="G3">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -932,10 +947,10 @@
         <v>0.75</v>
       </c>
       <c r="L3">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -950,7 +965,7 @@
         <v>52</v>
       </c>
       <c r="R3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S3" t="s">
         <v>52</v>
@@ -962,7 +977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -976,7 +991,7 @@
         <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F4">
         <v>1.65</v>
@@ -988,7 +1003,7 @@
         <v>0.86</v>
       </c>
       <c r="I4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
@@ -1000,7 +1015,7 @@
         <v>1.65</v>
       </c>
       <c r="M4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -1012,10 +1027,10 @@
         <v>50</v>
       </c>
       <c r="Q4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="R4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S4" t="s">
         <v>50</v>
@@ -1027,7 +1042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1041,7 +1056,7 @@
         <v>51</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F5">
         <v>1.68</v>
@@ -1050,7 +1065,7 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I5">
         <v>0.09</v>
@@ -1059,13 +1074,13 @@
         <v>51</v>
       </c>
       <c r="K5">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="L5">
         <v>1.68</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1077,10 +1092,10 @@
         <v>51</v>
       </c>
       <c r="Q5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S5" t="s">
         <v>51</v>
@@ -1092,7 +1107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1106,7 +1121,7 @@
         <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F6">
         <v>1.78</v>
@@ -1115,7 +1130,7 @@
         <v>2.5</v>
       </c>
       <c r="H6">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="I6">
         <v>0.09</v>
@@ -1124,13 +1139,13 @@
         <v>52</v>
       </c>
       <c r="K6">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="L6">
         <v>1.78</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1142,10 +1157,10 @@
         <v>52</v>
       </c>
       <c r="Q6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S6" t="s">
         <v>52</v>
@@ -1157,7 +1172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1171,7 +1186,7 @@
         <v>53</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7">
         <v>1.48</v>
@@ -1180,7 +1195,7 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="I7">
         <v>0.06</v>
@@ -1189,13 +1204,13 @@
         <v>53</v>
       </c>
       <c r="K7">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="L7">
         <v>1.48</v>
       </c>
       <c r="M7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1207,10 +1222,10 @@
         <v>53</v>
       </c>
       <c r="Q7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S7" t="s">
         <v>53</v>
@@ -1222,7 +1237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1242,7 +1257,7 @@
         <v>2.02</v>
       </c>
       <c r="G8">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="H8">
         <v>0.75</v>
@@ -1260,7 +1275,7 @@
         <v>2.02</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1275,7 +1290,7 @@
         <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S8" t="s">
         <v>54</v>
@@ -1287,7 +1302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1301,7 +1316,7 @@
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9">
         <v>1.66</v>
@@ -1325,7 +1340,7 @@
         <v>1.66</v>
       </c>
       <c r="M9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1337,10 +1352,10 @@
         <v>55</v>
       </c>
       <c r="Q9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="R9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S9" t="s">
         <v>55</v>
@@ -1352,7 +1367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1366,7 +1381,7 @@
         <v>56</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1390,7 +1405,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1402,13 +1417,13 @@
         <v>56</v>
       </c>
       <c r="Q10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1417,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1431,7 +1446,7 @@
         <v>57</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11">
         <v>1.52</v>
@@ -1455,7 +1470,7 @@
         <v>1.52</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1467,10 +1482,10 @@
         <v>57</v>
       </c>
       <c r="Q11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S11" t="s">
         <v>57</v>
@@ -1482,7 +1497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1496,7 +1511,7 @@
         <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12">
         <v>3.95</v>
@@ -1511,7 +1526,7 @@
         <v>0.73</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>0.73</v>
@@ -1520,7 +1535,7 @@
         <v>1.98</v>
       </c>
       <c r="M12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1532,13 +1547,13 @@
         <v>58</v>
       </c>
       <c r="Q12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1547,7 +1562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1561,7 +1576,7 @@
         <v>59</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F13">
         <v>1.47</v>
@@ -1573,7 +1588,7 @@
         <v>0.86</v>
       </c>
       <c r="I13">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J13" t="s">
         <v>59</v>
@@ -1585,7 +1600,7 @@
         <v>1.47</v>
       </c>
       <c r="M13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1597,10 +1612,10 @@
         <v>59</v>
       </c>
       <c r="Q13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S13" t="s">
         <v>59</v>
@@ -1612,7 +1627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1650,7 +1665,7 @@
         <v>1.55</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1665,7 +1680,7 @@
         <v>58</v>
       </c>
       <c r="R14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S14" t="s">
         <v>60</v>
@@ -1677,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1691,7 +1706,7 @@
         <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F15">
         <v>1.65</v>
@@ -1715,7 +1730,7 @@
         <v>1.65</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N15">
         <v>2</v>
@@ -1727,13 +1742,13 @@
         <v>61</v>
       </c>
       <c r="Q15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R15" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -1742,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1756,7 +1771,7 @@
         <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16">
         <v>1.68</v>
@@ -1780,7 +1795,7 @@
         <v>1.68</v>
       </c>
       <c r="M16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1792,13 +1807,13 @@
         <v>62</v>
       </c>
       <c r="Q16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="R16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1807,7 +1822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1821,7 +1836,7 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F17">
         <v>1.68</v>
@@ -1845,7 +1860,7 @@
         <v>1.68</v>
       </c>
       <c r="M17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1857,13 +1872,13 @@
         <v>51</v>
       </c>
       <c r="Q17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1872,7 +1887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1886,7 +1901,7 @@
         <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18">
         <v>1.47</v>
@@ -1910,7 +1925,7 @@
         <v>1.47</v>
       </c>
       <c r="M18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1922,10 +1937,10 @@
         <v>63</v>
       </c>
       <c r="Q18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S18" t="s">
         <v>63</v>
@@ -1937,7 +1952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1963,19 +1978,19 @@
         <v>0.19</v>
       </c>
       <c r="I19">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="J19" t="s">
         <v>56</v>
       </c>
       <c r="K19">
-        <v>0.8100000000000001</v>
+        <v>0.81</v>
       </c>
       <c r="L19">
         <v>3.2</v>
       </c>
       <c r="M19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1990,7 +2005,7 @@
         <v>56</v>
       </c>
       <c r="R19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S19" t="s">
         <v>56</v>
@@ -2002,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2016,7 +2031,7 @@
         <v>65</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F20">
         <v>1.44</v>
@@ -2040,7 +2055,7 @@
         <v>1.44</v>
       </c>
       <c r="M20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -2052,10 +2067,10 @@
         <v>65</v>
       </c>
       <c r="Q20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="R20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S20" t="s">
         <v>65</v>
@@ -2067,7 +2082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2081,13 +2096,13 @@
         <v>66</v>
       </c>
       <c r="E21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F21">
         <v>2.7</v>
       </c>
       <c r="G21">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="H21">
         <v>0.22</v>
@@ -2096,16 +2111,16 @@
         <v>0.78</v>
       </c>
       <c r="J21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K21">
         <v>0.78</v>
       </c>
       <c r="L21">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="M21" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N21">
         <v>2</v>
@@ -2117,13 +2132,13 @@
         <v>66</v>
       </c>
       <c r="Q21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S21" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T21">
         <v>0</v>
@@ -2132,7 +2147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2146,10 +2161,10 @@
         <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F22">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="G22">
         <v>1.68</v>
@@ -2161,7 +2176,7 @@
         <v>0.75</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K22">
         <v>0.75</v>
@@ -2170,7 +2185,7 @@
         <v>1.68</v>
       </c>
       <c r="M22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N22">
         <v>2</v>
@@ -2182,10 +2197,10 @@
         <v>54</v>
       </c>
       <c r="Q22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="R22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S22" t="s">
         <v>54</v>
@@ -2197,7 +2212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2235,7 +2250,7 @@
         <v>1.88</v>
       </c>
       <c r="M23" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -2250,7 +2265,7 @@
         <v>60</v>
       </c>
       <c r="R23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S23" t="s">
         <v>67</v>
@@ -2262,7 +2277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2276,13 +2291,13 @@
         <v>68</v>
       </c>
       <c r="E24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F24">
         <v>1.82</v>
       </c>
       <c r="G24">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H24">
         <v>0.75</v>
@@ -2300,7 +2315,7 @@
         <v>1.82</v>
       </c>
       <c r="M24" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N24">
         <v>2</v>
@@ -2312,10 +2327,10 @@
         <v>68</v>
       </c>
       <c r="Q24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="R24" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S24" t="s">
         <v>68</v>
@@ -2327,7 +2342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2365,7 +2380,7 @@
         <v>1.9</v>
       </c>
       <c r="M25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -2380,7 +2395,7 @@
         <v>53</v>
       </c>
       <c r="R25" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S25" t="s">
         <v>69</v>
@@ -2392,7 +2407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2406,7 +2421,7 @@
         <v>70</v>
       </c>
       <c r="E26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F26">
         <v>2.72</v>
@@ -2418,7 +2433,7 @@
         <v>0.71</v>
       </c>
       <c r="I26">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J26" t="s">
         <v>70</v>
@@ -2430,7 +2445,7 @@
         <v>2.72</v>
       </c>
       <c r="M26" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2442,13 +2457,13 @@
         <v>70</v>
       </c>
       <c r="Q26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="R26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S26" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2457,7 +2472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2471,7 +2486,7 @@
         <v>71</v>
       </c>
       <c r="E27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F27">
         <v>2.38</v>
@@ -2486,7 +2501,7 @@
         <v>0.7</v>
       </c>
       <c r="J27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K27">
         <v>0.7</v>
@@ -2495,7 +2510,7 @@
         <v>3.25</v>
       </c>
       <c r="M27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2507,13 +2522,13 @@
         <v>71</v>
       </c>
       <c r="Q27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2522,7 +2537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2536,7 +2551,7 @@
         <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28">
         <v>1.5</v>
@@ -2548,7 +2563,7 @@
         <v>0.93</v>
       </c>
       <c r="I28">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J28" t="s">
         <v>59</v>
@@ -2560,7 +2575,7 @@
         <v>1.5</v>
       </c>
       <c r="M28" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -2572,13 +2587,13 @@
         <v>59</v>
       </c>
       <c r="Q28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="R28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2587,7 +2602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2601,19 +2616,19 @@
         <v>72</v>
       </c>
       <c r="E29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F29">
         <v>1.85</v>
       </c>
       <c r="G29">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="H29">
         <v>0.72</v>
       </c>
       <c r="I29">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J29" t="s">
         <v>72</v>
@@ -2625,7 +2640,7 @@
         <v>1.85</v>
       </c>
       <c r="M29" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2637,13 +2652,13 @@
         <v>72</v>
       </c>
       <c r="Q29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="R29" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S29" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2652,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2666,7 +2681,7 @@
         <v>73</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30">
         <v>2.68</v>
@@ -2690,7 +2705,7 @@
         <v>2.68</v>
       </c>
       <c r="M30" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2702,13 +2717,13 @@
         <v>73</v>
       </c>
       <c r="Q30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="R30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S30" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2717,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2731,7 +2746,7 @@
         <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F31">
         <v>2.35</v>
@@ -2743,7 +2758,7 @@
         <v>0.71</v>
       </c>
       <c r="I31">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J31" t="s">
         <v>74</v>
@@ -2755,7 +2770,7 @@
         <v>2.35</v>
       </c>
       <c r="M31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2767,10 +2782,10 @@
         <v>74</v>
       </c>
       <c r="Q31" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S31" t="s">
         <v>74</v>
@@ -2782,7 +2797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2796,7 +2811,7 @@
         <v>75</v>
       </c>
       <c r="E32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F32">
         <v>1.98</v>
@@ -2820,7 +2835,7 @@
         <v>1.98</v>
       </c>
       <c r="M32" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2832,10 +2847,10 @@
         <v>75</v>
       </c>
       <c r="Q32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R32" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S32" t="s">
         <v>75</v>
@@ -2847,7 +2862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2861,7 +2876,7 @@
         <v>63</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F33">
         <v>1.72</v>
@@ -2885,7 +2900,7 @@
         <v>1.72</v>
       </c>
       <c r="M33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -2897,10 +2912,10 @@
         <v>63</v>
       </c>
       <c r="Q33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="R33" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S33" t="s">
         <v>63</v>
@@ -2912,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2926,7 +2941,7 @@
         <v>55</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F34">
         <v>1.53</v>
@@ -2950,7 +2965,7 @@
         <v>1.53</v>
       </c>
       <c r="M34" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -2962,10 +2977,10 @@
         <v>55</v>
       </c>
       <c r="Q34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="R34" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S34" t="s">
         <v>55</v>
@@ -2977,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:21">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -2991,10 +3006,10 @@
         <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F35">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="G35">
         <v>4</v>
@@ -3003,7 +3018,7 @@
         <v>0.86</v>
       </c>
       <c r="I35">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J35" t="s">
         <v>76</v>
@@ -3012,10 +3027,10 @@
         <v>0.86</v>
       </c>
       <c r="L35">
-        <v>2.05</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="M35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -3027,13 +3042,13 @@
         <v>76</v>
       </c>
       <c r="Q35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="R35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="T35">
         <v>0</v>
@@ -3042,7 +3057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:21">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3056,19 +3071,19 @@
         <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F36">
         <v>1.7</v>
       </c>
       <c r="G36">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="H36">
         <v>0.86</v>
       </c>
       <c r="I36">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="J36" t="s">
         <v>77</v>
@@ -3080,7 +3095,7 @@
         <v>1.7</v>
       </c>
       <c r="M36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -3092,10 +3107,10 @@
         <v>77</v>
       </c>
       <c r="Q36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R36" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S36" t="s">
         <v>77</v>
@@ -3107,7 +3122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3145,7 +3160,7 @@
         <v>1.42</v>
       </c>
       <c r="M37" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -3160,7 +3175,7 @@
         <v>49</v>
       </c>
       <c r="R37" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S37" t="s">
         <v>78</v>
@@ -3172,7 +3187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:21">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3186,7 +3201,7 @@
         <v>79</v>
       </c>
       <c r="E38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F38">
         <v>1.53</v>
@@ -3210,7 +3225,7 @@
         <v>1.53</v>
       </c>
       <c r="M38" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -3222,10 +3237,10 @@
         <v>79</v>
       </c>
       <c r="Q38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R38" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S38" t="s">
         <v>79</v>
@@ -3237,7 +3252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -3251,7 +3266,7 @@
         <v>80</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F39">
         <v>3.4</v>
@@ -3266,7 +3281,7 @@
         <v>0.75</v>
       </c>
       <c r="J39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K39">
         <v>0.75</v>
@@ -3275,7 +3290,7 @@
         <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N39">
         <v>2</v>
@@ -3287,10 +3302,10 @@
         <v>80</v>
       </c>
       <c r="Q39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="R39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S39" t="s">
         <v>80</v>
@@ -3302,7 +3317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -3316,7 +3331,7 @@
         <v>81</v>
       </c>
       <c r="E40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F40">
         <v>1.68</v>
@@ -3340,7 +3355,7 @@
         <v>1.68</v>
       </c>
       <c r="M40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N40">
         <v>2</v>
@@ -3352,10 +3367,10 @@
         <v>81</v>
       </c>
       <c r="Q40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R40" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S40" t="s">
         <v>81</v>
@@ -3367,7 +3382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:21">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -3381,7 +3396,7 @@
         <v>82</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F41">
         <v>2.1</v>
@@ -3393,7 +3408,7 @@
         <v>0.71</v>
       </c>
       <c r="I41">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J41" t="s">
         <v>82</v>
@@ -3405,7 +3420,7 @@
         <v>2.1</v>
       </c>
       <c r="M41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -3417,13 +3432,13 @@
         <v>82</v>
       </c>
       <c r="Q41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="R41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S41" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T41">
         <v>0</v>
@@ -3432,7 +3447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -3455,7 +3470,7 @@
         <v>1.96</v>
       </c>
       <c r="H42">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I42">
         <v>0.71</v>
@@ -3470,7 +3485,7 @@
         <v>1.96</v>
       </c>
       <c r="M42" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -3485,7 +3500,7 @@
         <v>79</v>
       </c>
       <c r="R42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S42" t="s">
         <v>64</v>
@@ -3497,7 +3512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -3511,10 +3526,10 @@
         <v>69</v>
       </c>
       <c r="E43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F43">
-        <v>2.45</v>
+        <v>2.4500000000000002</v>
       </c>
       <c r="G43">
         <v>2.95</v>
@@ -3526,7 +3541,7 @@
         <v>0.7</v>
       </c>
       <c r="J43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K43">
         <v>0.7</v>
@@ -3535,7 +3550,7 @@
         <v>2.95</v>
       </c>
       <c r="M43" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -3547,13 +3562,13 @@
         <v>69</v>
       </c>
       <c r="Q43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="R43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="S43" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -3562,7 +3577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -3576,7 +3591,7 @@
         <v>83</v>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44">
         <v>2.92</v>
@@ -3588,7 +3603,7 @@
         <v>0.71</v>
       </c>
       <c r="I44">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J44" t="s">
         <v>83</v>
@@ -3600,7 +3615,7 @@
         <v>2.92</v>
       </c>
       <c r="M44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -3612,13 +3627,13 @@
         <v>83</v>
       </c>
       <c r="Q44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -3627,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3665,7 +3680,7 @@
         <v>1.78</v>
       </c>
       <c r="M45" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N45">
         <v>3</v>
@@ -3680,7 +3695,7 @@
         <v>71</v>
       </c>
       <c r="R45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S45" t="s">
         <v>53</v>
@@ -3692,7 +3707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:21">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -3730,7 +3745,7 @@
         <v>1.92</v>
       </c>
       <c r="M46" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N46">
         <v>3</v>
@@ -3745,7 +3760,7 @@
         <v>69</v>
       </c>
       <c r="R46" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S46" t="s">
         <v>84</v>
@@ -3757,7 +3772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -3771,7 +3786,7 @@
         <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F47">
         <v>1.96</v>
@@ -3795,7 +3810,7 @@
         <v>1.96</v>
       </c>
       <c r="M47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N47">
         <v>3</v>
@@ -3807,13 +3822,13 @@
         <v>63</v>
       </c>
       <c r="Q47" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="R47" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S47" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -3822,7 +3837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3842,7 +3857,7 @@
         <v>3.05</v>
       </c>
       <c r="G48">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="H48">
         <v>0.25</v>
@@ -3857,10 +3872,10 @@
         <v>0.75</v>
       </c>
       <c r="L48">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="M48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N48">
         <v>2</v>
@@ -3875,7 +3890,7 @@
         <v>48</v>
       </c>
       <c r="R48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S48" t="s">
         <v>85</v>
@@ -3887,7 +3902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3901,13 +3916,13 @@
         <v>86</v>
       </c>
       <c r="E49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F49">
         <v>1.65</v>
       </c>
       <c r="G49">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="H49">
         <v>0.84</v>
@@ -3925,7 +3940,7 @@
         <v>1.65</v>
       </c>
       <c r="M49" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N49">
         <v>3</v>
@@ -3937,10 +3952,10 @@
         <v>86</v>
       </c>
       <c r="Q49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="R49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S49" t="s">
         <v>86</v>
@@ -3952,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3966,7 +3981,7 @@
         <v>87</v>
       </c>
       <c r="E50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F50">
         <v>2.5</v>
@@ -3981,7 +3996,7 @@
         <v>0.82</v>
       </c>
       <c r="J50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K50">
         <v>0.82</v>
@@ -3990,7 +4005,7 @@
         <v>3.3</v>
       </c>
       <c r="M50" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N50">
         <v>3</v>
@@ -4002,13 +4017,13 @@
         <v>87</v>
       </c>
       <c r="Q50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R50" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="S50" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4017,7 +4032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -4031,7 +4046,7 @@
         <v>88</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F51">
         <v>1.55</v>
@@ -4055,7 +4070,7 @@
         <v>1.55</v>
       </c>
       <c r="M51" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -4067,10 +4082,10 @@
         <v>88</v>
       </c>
       <c r="Q51" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="R51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S51" t="s">
         <v>88</v>
@@ -4082,77 +4097,77 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:21">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D52" t="s">
         <v>89</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F52">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="G52">
-        <v>4.25</v>
+        <v>6</v>
       </c>
       <c r="H52">
-        <v>0.18</v>
+        <v>0.93</v>
       </c>
       <c r="I52">
-        <v>0.82</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J52" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="K52">
-        <v>0.82</v>
+        <v>0.93</v>
       </c>
       <c r="L52">
-        <v>4.25</v>
+        <v>1.57</v>
       </c>
       <c r="M52" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="N52">
         <v>3</v>
       </c>
       <c r="O52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P52" t="s">
         <v>89</v>
       </c>
       <c r="Q52" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="R52" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S52" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="T52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U52">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" t="s">
         <v>46</v>
@@ -4161,96 +4176,96 @@
         <v>90</v>
       </c>
       <c r="E53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F53">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="G53">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="H53">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="I53">
-        <v>0.07000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="J53" t="s">
         <v>90</v>
       </c>
       <c r="K53">
-        <v>0.93</v>
+        <v>0.78</v>
       </c>
       <c r="L53">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="M53" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N53">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P53" t="s">
         <v>90</v>
       </c>
       <c r="Q53" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="R53" t="s">
         <v>127</v>
       </c>
       <c r="S53" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="T53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U53">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D54" t="s">
         <v>91</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F54">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="G54">
-        <v>4.5</v>
+        <v>7.8</v>
       </c>
       <c r="H54">
+        <v>0.22</v>
+      </c>
+      <c r="I54">
         <v>0.78</v>
       </c>
-      <c r="I54">
-        <v>0.22</v>
-      </c>
       <c r="J54" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="K54">
         <v>0.78</v>
       </c>
       <c r="L54">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="M54" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -4262,60 +4277,60 @@
         <v>91</v>
       </c>
       <c r="Q54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R54" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="S54" t="s">
-        <v>130</v>
+        <v>91</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D55" t="s">
         <v>92</v>
       </c>
       <c r="E55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F55">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="G55">
-        <v>7.8</v>
+        <v>4.75</v>
       </c>
       <c r="H55">
-        <v>0.22</v>
+        <v>0.79</v>
       </c>
       <c r="I55">
-        <v>0.78</v>
+        <v>0.21</v>
       </c>
       <c r="J55" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="K55">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="L55">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="M55" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -4327,148 +4342,83 @@
         <v>92</v>
       </c>
       <c r="Q55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="R55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="S55" t="s">
         <v>92</v>
       </c>
       <c r="T55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D56" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56">
+        <v>1.63</v>
+      </c>
+      <c r="G56">
+        <v>5.5</v>
+      </c>
+      <c r="H56">
+        <v>0.76</v>
+      </c>
+      <c r="I56">
+        <v>0.24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>51</v>
+      </c>
+      <c r="K56">
+        <v>0.76</v>
+      </c>
+      <c r="L56">
+        <v>1.63</v>
+      </c>
+      <c r="M56" t="s">
         <v>123</v>
-      </c>
-      <c r="F56">
-        <v>1.8</v>
-      </c>
-      <c r="G56">
-        <v>4.75</v>
-      </c>
-      <c r="H56">
-        <v>0.79</v>
-      </c>
-      <c r="I56">
-        <v>0.21</v>
-      </c>
-      <c r="J56" t="s">
-        <v>93</v>
-      </c>
-      <c r="K56">
-        <v>0.79</v>
-      </c>
-      <c r="L56">
-        <v>1.8</v>
-      </c>
-      <c r="M56" t="s">
-        <v>125</v>
       </c>
       <c r="N56">
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="P56" t="s">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="Q56" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="R56" t="s">
         <v>127</v>
       </c>
       <c r="S56" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="T56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
-      <c r="A57" s="1">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" t="s">
-        <v>45</v>
-      </c>
-      <c r="D57" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" t="s">
-        <v>100</v>
-      </c>
-      <c r="F57">
-        <v>1.63</v>
-      </c>
-      <c r="G57">
-        <v>5.5</v>
-      </c>
-      <c r="H57">
-        <v>0.76</v>
-      </c>
-      <c r="I57">
-        <v>0.24</v>
-      </c>
-      <c r="J57" t="s">
-        <v>51</v>
-      </c>
-      <c r="K57">
-        <v>0.76</v>
-      </c>
-      <c r="L57">
-        <v>1.63</v>
-      </c>
-      <c r="M57" t="s">
-        <v>125</v>
-      </c>
-      <c r="N57">
-        <v>2</v>
-      </c>
-      <c r="O57" t="s">
-        <v>40</v>
-      </c>
-      <c r="P57" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>100</v>
-      </c>
-      <c r="R57" t="s">
-        <v>129</v>
-      </c>
-      <c r="S57" t="s">
-        <v>130</v>
-      </c>
-      <c r="T57">
-        <v>0</v>
-      </c>
-      <c r="U57">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26626"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.hassan\Desktop\github\soccerprediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3390C328-357E-4414-BDE2-1AAFEA4A4655}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="138">
   <si>
     <t>Date</t>
   </si>
@@ -100,15 +94,15 @@
     <t>2023-05-03</t>
   </si>
   <si>
+    <t>2023-05-05</t>
+  </si>
+  <si>
     <t>2023-05-06</t>
   </si>
   <si>
     <t>2023-05-08</t>
   </si>
   <si>
-    <t>2023-05-05</t>
-  </si>
-  <si>
     <t>2023-05-12</t>
   </si>
   <si>
@@ -124,6 +118,9 @@
     <t>2023-05-21</t>
   </si>
   <si>
+    <t>2023-05-23</t>
+  </si>
+  <si>
     <t>2023-05-24</t>
   </si>
   <si>
@@ -133,15 +130,12 @@
     <t>2023-05-28</t>
   </si>
   <si>
-    <t>2023-05-23</t>
+    <t>2023-06-03</t>
   </si>
   <si>
     <t>2023-06-04</t>
   </si>
   <si>
-    <t>2023-06-03</t>
-  </si>
-  <si>
     <t>2023-08-12</t>
   </si>
   <si>
@@ -151,6 +145,12 @@
     <t>2023-08-14</t>
   </si>
   <si>
+    <t>2023-08-19</t>
+  </si>
+  <si>
+    <t>2023-08-20</t>
+  </si>
+  <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
@@ -199,39 +199,39 @@
     <t>Sampdoria</t>
   </si>
   <si>
+    <t>Mainz 05</t>
+  </si>
+  <si>
     <t>Liverpool</t>
   </si>
   <si>
     <t>Udinese</t>
   </si>
   <si>
-    <t>Mainz 05</t>
-  </si>
-  <si>
     <t>Lazio</t>
   </si>
   <si>
+    <t>Koln</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Spezia</t>
+  </si>
+  <si>
     <t>Valladolid</t>
   </si>
   <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
     <t>Stuttgart</t>
   </si>
   <si>
     <t>Fiorentina</t>
   </si>
   <si>
-    <t>Koln</t>
-  </si>
-  <si>
-    <t>Spezia</t>
-  </si>
-  <si>
     <t>Monaco</t>
   </si>
   <si>
@@ -250,6 +250,9 @@
     <t>Brest</t>
   </si>
   <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
     <t>Real Betis</t>
   </si>
   <si>
@@ -259,27 +262,24 @@
     <t>Union Berlin</t>
   </si>
   <si>
+    <t>Bochum</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
     <t>Barcelona</t>
   </si>
   <si>
-    <t>Bochum</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Celta Vigo</t>
-  </si>
-  <si>
     <t>Chelsea</t>
   </si>
   <si>
+    <t>Lorient</t>
+  </si>
+  <si>
     <t>Roma</t>
   </si>
   <si>
-    <t>Lorient</t>
-  </si>
-  <si>
     <t>Marseille</t>
   </si>
   <si>
@@ -289,16 +289,34 @@
     <t>Atletico Mineiro</t>
   </si>
   <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
     <t>Palmeiras</t>
   </si>
   <si>
-    <t>Flamengo</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Corinthians</t>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Ajaccio</t>
@@ -328,6 +346,9 @@
     <t>Brentford</t>
   </si>
   <si>
+    <t>Hertha BSC</t>
+  </si>
+  <si>
     <t>Getafe</t>
   </si>
   <si>
@@ -340,15 +361,6 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>Hertha BSC</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
@@ -361,12 +373,12 @@
     <t>Cadiz</t>
   </si>
   <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Mallorca</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
     <t>Newcastle United</t>
   </si>
   <si>
@@ -376,16 +388,25 @@
     <t>Bahia</t>
   </si>
   <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Sao Paulo</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Coritiba</t>
+  </si>
+  <si>
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>Sao Paulo</t>
-  </si>
-  <si>
-    <t>Metz</t>
-  </si>
-  <si>
-    <t>Coritiba</t>
+    <t>Fortaleza</t>
+  </si>
+  <si>
+    <t>Nantes</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -412,8 +433,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -476,21 +497,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -528,7 +541,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -562,7 +575,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -597,10 +609,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -773,19 +784,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -847,7 +853,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -855,13 +861,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F2">
         <v>1.72</v>
@@ -876,7 +882,7 @@
         <v>0.2</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K2">
         <v>0.8</v>
@@ -885,7 +891,7 @@
         <v>1.72</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -894,16 +900,16 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q2" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="R2" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -912,7 +918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -920,19 +926,19 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F3">
         <v>2.7</v>
       </c>
       <c r="G3">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="H3">
         <v>0.25</v>
@@ -941,16 +947,16 @@
         <v>0.75</v>
       </c>
       <c r="J3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K3">
         <v>0.75</v>
       </c>
       <c r="L3">
-        <v>2.5499999999999998</v>
+        <v>2.55</v>
       </c>
       <c r="M3" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -959,16 +965,16 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R3" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -977,7 +983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -985,13 +991,13 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F4">
         <v>1.65</v>
@@ -1003,10 +1009,10 @@
         <v>0.86</v>
       </c>
       <c r="I4">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="J4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K4">
         <v>0.86</v>
@@ -1015,7 +1021,7 @@
         <v>1.65</v>
       </c>
       <c r="M4" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -1024,16 +1030,16 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q4" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="R4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -1042,7 +1048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1050,13 +1056,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="F5">
         <v>1.68</v>
@@ -1065,22 +1071,22 @@
         <v>2</v>
       </c>
       <c r="H5">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I5">
         <v>0.09</v>
       </c>
       <c r="J5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K5">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L5">
         <v>1.68</v>
       </c>
       <c r="M5" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1089,16 +1095,16 @@
         <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q5" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="R5" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="T5">
         <v>1</v>
@@ -1107,7 +1113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1115,13 +1121,13 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="F6">
         <v>1.78</v>
@@ -1130,22 +1136,22 @@
         <v>2.5</v>
       </c>
       <c r="H6">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I6">
         <v>0.09</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K6">
-        <v>0.81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L6">
         <v>1.78</v>
       </c>
       <c r="M6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1154,16 +1160,16 @@
         <v>22</v>
       </c>
       <c r="P6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q6" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="R6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1172,7 +1178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1180,13 +1186,13 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F7">
         <v>1.48</v>
@@ -1195,22 +1201,22 @@
         <v>2.7</v>
       </c>
       <c r="H7">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I7">
         <v>0.06</v>
       </c>
       <c r="J7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K7">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L7">
         <v>1.48</v>
       </c>
       <c r="M7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1219,16 +1225,16 @@
         <v>22</v>
       </c>
       <c r="P7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="Q7" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="R7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1237,7 +1243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1245,19 +1251,19 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F8">
         <v>2.02</v>
       </c>
       <c r="G8">
-        <v>2.4500000000000002</v>
+        <v>2.45</v>
       </c>
       <c r="H8">
         <v>0.75</v>
@@ -1266,7 +1272,7 @@
         <v>0.25</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="K8">
         <v>0.75</v>
@@ -1275,7 +1281,7 @@
         <v>2.02</v>
       </c>
       <c r="M8" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1284,16 +1290,16 @@
         <v>22</v>
       </c>
       <c r="P8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="R8" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -1302,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1310,13 +1316,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="F9">
         <v>1.66</v>
@@ -1331,7 +1337,7 @@
         <v>0.23</v>
       </c>
       <c r="J9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K9">
         <v>0.77</v>
@@ -1340,7 +1346,7 @@
         <v>1.66</v>
       </c>
       <c r="M9" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N9">
         <v>2</v>
@@ -1349,16 +1355,16 @@
         <v>23</v>
       </c>
       <c r="P9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="R9" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1367,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1375,13 +1381,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -1396,7 +1402,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K10">
         <v>0.85</v>
@@ -1405,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1414,16 +1420,16 @@
         <v>24</v>
       </c>
       <c r="P10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="Q10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="R10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1432,7 +1438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1440,13 +1446,13 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F11">
         <v>1.52</v>
@@ -1461,7 +1467,7 @@
         <v>0.09</v>
       </c>
       <c r="J11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K11">
         <v>0.91</v>
@@ -1470,7 +1476,7 @@
         <v>1.52</v>
       </c>
       <c r="M11" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1479,16 +1485,16 @@
         <v>25</v>
       </c>
       <c r="P11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q11" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="R11" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1497,7 +1503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1505,13 +1511,13 @@
         <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F12">
         <v>3.95</v>
@@ -1526,7 +1532,7 @@
         <v>0.73</v>
       </c>
       <c r="J12" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K12">
         <v>0.73</v>
@@ -1535,7 +1541,7 @@
         <v>1.98</v>
       </c>
       <c r="M12" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1544,16 +1550,16 @@
         <v>25</v>
       </c>
       <c r="P12" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q12" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="R12" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S12" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1562,7 +1568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1570,64 +1576,64 @@
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F13">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="G13">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="I13">
-        <v>0.14000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="J13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K13">
-        <v>0.86</v>
+        <v>0.77</v>
       </c>
       <c r="L13">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="M13" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
         <v>26</v>
       </c>
       <c r="P13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R13" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="S13" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="T13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1635,37 +1641,37 @@
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="F14">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="G14">
-        <v>5.9</v>
+        <v>6.7</v>
       </c>
       <c r="H14">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="I14">
-        <v>0.16</v>
+        <v>0.14</v>
       </c>
       <c r="J14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K14">
-        <v>0.84</v>
+        <v>0.86</v>
       </c>
       <c r="L14">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="M14" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1674,16 +1680,16 @@
         <v>27</v>
       </c>
       <c r="P14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Q14" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="R14" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1692,7 +1698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1700,64 +1706,64 @@
         <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E15" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="F15">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="G15">
-        <v>5</v>
+        <v>5.9</v>
       </c>
       <c r="H15">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="I15">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
       <c r="J15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K15">
-        <v>0.77</v>
+        <v>0.84</v>
       </c>
       <c r="L15">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
       </c>
       <c r="P15" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="Q15" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="R15" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S15" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1765,13 +1771,13 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F16">
         <v>1.68</v>
@@ -1786,7 +1792,7 @@
         <v>0.17</v>
       </c>
       <c r="J16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K16">
         <v>0.83</v>
@@ -1795,7 +1801,7 @@
         <v>1.68</v>
       </c>
       <c r="M16" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1804,16 +1810,16 @@
         <v>29</v>
       </c>
       <c r="P16" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q16" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="R16" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S16" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -1822,72 +1828,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="F17">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="H17">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="I17">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="J17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="K17">
-        <v>0.84</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>1.68</v>
+        <v>1.82</v>
       </c>
       <c r="M17" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="Q17" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="R17" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S17" t="s">
-        <v>128</v>
+        <v>65</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1895,37 +1901,37 @@
         <v>30</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F18">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="G18">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="H18">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="I18">
-        <v>0.05</v>
+        <v>0.16</v>
       </c>
       <c r="J18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.95</v>
+        <v>0.84</v>
       </c>
       <c r="L18">
-        <v>1.47</v>
+        <v>1.68</v>
       </c>
       <c r="M18" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1934,81 +1940,81 @@
         <v>30</v>
       </c>
       <c r="P18" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="R18" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="S18" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="T18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U18">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="F19">
-        <v>2.25</v>
+        <v>1.47</v>
       </c>
       <c r="G19">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="H19">
-        <v>0.19</v>
+        <v>0.95</v>
       </c>
       <c r="I19">
-        <v>0.81</v>
+        <v>0.05</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="K19">
-        <v>0.81</v>
+        <v>0.95</v>
       </c>
       <c r="L19">
-        <v>3.2</v>
+        <v>1.47</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q19" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="R19" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S19" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -2017,7 +2023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2025,13 +2031,13 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F20">
         <v>1.44</v>
@@ -2046,7 +2052,7 @@
         <v>0.18</v>
       </c>
       <c r="J20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K20">
         <v>0.82</v>
@@ -2055,7 +2061,7 @@
         <v>1.44</v>
       </c>
       <c r="M20" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -2064,16 +2070,16 @@
         <v>30</v>
       </c>
       <c r="P20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q20" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="R20" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2082,72 +2088,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="F21">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
       <c r="G21">
-        <v>2.5499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="H21">
-        <v>0.22</v>
+        <v>0.26</v>
       </c>
       <c r="I21">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="J21" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="K21">
-        <v>0.78</v>
+        <v>0.74</v>
       </c>
       <c r="L21">
-        <v>2.5499999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="M21" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="N21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q21" t="s">
-        <v>104</v>
+        <v>55</v>
       </c>
       <c r="R21" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S21" t="s">
-        <v>128</v>
+        <v>68</v>
       </c>
       <c r="T21">
         <v>0</v>
       </c>
       <c r="U21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2155,64 +2161,64 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="F22">
-        <v>4.9000000000000004</v>
+        <v>2.25</v>
       </c>
       <c r="G22">
-        <v>1.68</v>
+        <v>3.2</v>
       </c>
       <c r="H22">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="I22">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L22">
-        <v>1.68</v>
+        <v>3.2</v>
       </c>
       <c r="M22" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="N22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O22" t="s">
         <v>31</v>
       </c>
       <c r="P22" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="Q22" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="R22" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="S22" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2223,34 +2229,34 @@
         <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="F23">
-        <v>1.88</v>
+        <v>2.7</v>
       </c>
       <c r="G23">
-        <v>3.95</v>
+        <v>2.55</v>
       </c>
       <c r="H23">
-        <v>0.75</v>
+        <v>0.22</v>
       </c>
       <c r="I23">
-        <v>0.25</v>
+        <v>0.78</v>
       </c>
       <c r="J23" t="s">
-        <v>67</v>
+        <v>113</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="L23">
-        <v>1.88</v>
+        <v>2.55</v>
       </c>
       <c r="M23" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N23">
         <v>2</v>
@@ -2259,155 +2265,155 @@
         <v>31</v>
       </c>
       <c r="P23" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q23" t="s">
-        <v>60</v>
+        <v>113</v>
       </c>
       <c r="R23" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="S23" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U23">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="F24">
-        <v>1.82</v>
+        <v>4.9</v>
       </c>
       <c r="G24">
-        <v>4.3499999999999996</v>
+        <v>1.68</v>
       </c>
       <c r="H24">
+        <v>0.25</v>
+      </c>
+      <c r="I24">
         <v>0.75</v>
       </c>
-      <c r="I24">
-        <v>0.25</v>
-      </c>
       <c r="J24" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="K24">
         <v>0.75</v>
       </c>
       <c r="L24">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="M24" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N24">
         <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="P24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="Q24" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="R24" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S24" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E25" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F25">
+        <v>1.88</v>
+      </c>
+      <c r="G25">
         <v>3.95</v>
       </c>
-      <c r="G25">
-        <v>1.9</v>
-      </c>
       <c r="H25">
-        <v>0.26</v>
+        <v>0.75</v>
       </c>
       <c r="I25">
-        <v>0.74</v>
+        <v>0.25</v>
       </c>
       <c r="J25" t="s">
-        <v>53</v>
+        <v>71</v>
       </c>
       <c r="K25">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
       <c r="L25">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="M25" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="Q25" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="R25" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S25" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2415,13 +2421,13 @@
         <v>31</v>
       </c>
       <c r="C26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F26">
         <v>2.72</v>
@@ -2433,10 +2439,10 @@
         <v>0.71</v>
       </c>
       <c r="I26">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K26">
         <v>0.71</v>
@@ -2445,7 +2451,7 @@
         <v>2.72</v>
       </c>
       <c r="M26" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -2454,16 +2460,16 @@
         <v>31</v>
       </c>
       <c r="P26" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q26" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="R26" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S26" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="T26">
         <v>0</v>
@@ -2472,7 +2478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2480,13 +2486,13 @@
         <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="F27">
         <v>2.38</v>
@@ -2501,7 +2507,7 @@
         <v>0.7</v>
       </c>
       <c r="J27" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="K27">
         <v>0.7</v>
@@ -2510,7 +2516,7 @@
         <v>3.25</v>
       </c>
       <c r="M27" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2519,16 +2525,16 @@
         <v>31</v>
       </c>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q27" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="R27" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S27" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2537,7 +2543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2545,13 +2551,13 @@
         <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F28">
         <v>1.5</v>
@@ -2563,10 +2569,10 @@
         <v>0.93</v>
       </c>
       <c r="I28">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K28">
         <v>0.93</v>
@@ -2575,7 +2581,7 @@
         <v>1.5</v>
       </c>
       <c r="M28" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -2584,16 +2590,16 @@
         <v>32</v>
       </c>
       <c r="P28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q28" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="R28" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S28" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2602,7 +2608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2610,28 +2616,28 @@
         <v>32</v>
       </c>
       <c r="C29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F29">
         <v>1.85</v>
       </c>
       <c r="G29">
-        <v>4.1500000000000004</v>
+        <v>4.15</v>
       </c>
       <c r="H29">
         <v>0.72</v>
       </c>
       <c r="I29">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="J29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K29">
         <v>0.72</v>
@@ -2640,7 +2646,7 @@
         <v>1.85</v>
       </c>
       <c r="M29" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2649,16 +2655,16 @@
         <v>32</v>
       </c>
       <c r="P29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q29" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="R29" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="S29" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="T29">
         <v>0</v>
@@ -2667,7 +2673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2675,13 +2681,13 @@
         <v>32</v>
       </c>
       <c r="C30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F30">
         <v>2.68</v>
@@ -2696,7 +2702,7 @@
         <v>0.27</v>
       </c>
       <c r="J30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K30">
         <v>0.73</v>
@@ -2705,7 +2711,7 @@
         <v>2.68</v>
       </c>
       <c r="M30" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2714,16 +2720,16 @@
         <v>32</v>
       </c>
       <c r="P30" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q30" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="R30" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S30" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="T30">
         <v>0</v>
@@ -2732,7 +2738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2740,13 +2746,13 @@
         <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>2.35</v>
@@ -2758,10 +2764,10 @@
         <v>0.71</v>
       </c>
       <c r="I31">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K31">
         <v>0.71</v>
@@ -2770,7 +2776,7 @@
         <v>2.35</v>
       </c>
       <c r="M31" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2779,16 +2785,16 @@
         <v>33</v>
       </c>
       <c r="P31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q31" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="R31" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S31" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2797,7 +2803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2805,13 +2811,13 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F32">
         <v>1.98</v>
@@ -2826,7 +2832,7 @@
         <v>0.26</v>
       </c>
       <c r="J32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K32">
         <v>0.74</v>
@@ -2835,7 +2841,7 @@
         <v>1.98</v>
       </c>
       <c r="M32" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2844,16 +2850,16 @@
         <v>33</v>
       </c>
       <c r="P32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q32" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="R32" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S32" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2862,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -2870,64 +2876,64 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="F33">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="G33">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="H33">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="I33">
-        <v>0.1</v>
+        <v>0.29</v>
       </c>
       <c r="J33" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="K33">
-        <v>0.9</v>
+        <v>0.71</v>
       </c>
       <c r="L33">
-        <v>1.72</v>
+        <v>2.1</v>
       </c>
       <c r="M33" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O33" t="s">
         <v>34</v>
       </c>
       <c r="P33" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="Q33" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="R33" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="S33" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -2935,129 +2941,129 @@
         <v>34</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="F34">
-        <v>1.53</v>
+        <v>3.6</v>
       </c>
       <c r="G34">
-        <v>6</v>
+        <v>1.96</v>
       </c>
       <c r="H34">
-        <v>0.87</v>
+        <v>0.29</v>
       </c>
       <c r="I34">
-        <v>0.13</v>
+        <v>0.71</v>
       </c>
       <c r="J34" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="K34">
-        <v>0.87</v>
+        <v>0.71</v>
       </c>
       <c r="L34">
-        <v>1.53</v>
+        <v>1.96</v>
       </c>
       <c r="M34" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="N34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O34" t="s">
         <v>34</v>
       </c>
       <c r="P34" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="Q34" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="R34" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S34" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" s="1">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F35">
-        <v>2.0499999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="H35">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="I35">
-        <v>0.14000000000000001</v>
+        <v>0.1</v>
       </c>
       <c r="J35" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="L35">
-        <v>2.0499999999999998</v>
+        <v>1.72</v>
       </c>
       <c r="M35" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N35">
         <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P35" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="Q35" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R35" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S35" t="s">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -3065,37 +3071,37 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="E36" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="F36">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="G36">
-        <v>4.3499999999999996</v>
+        <v>6</v>
       </c>
       <c r="H36">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="I36">
-        <v>0.14000000000000001</v>
+        <v>0.13</v>
       </c>
       <c r="J36" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="K36">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="L36">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="M36" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -3104,16 +3110,16 @@
         <v>35</v>
       </c>
       <c r="P36" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="Q36" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="R36" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S36" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3122,7 +3128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -3130,37 +3136,37 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="F37">
-        <v>1.42</v>
+        <v>2.05</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H37">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="I37">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="J37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K37">
-        <v>0.85</v>
+        <v>0.86</v>
       </c>
       <c r="L37">
-        <v>1.42</v>
+        <v>2.05</v>
       </c>
       <c r="M37" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N37">
         <v>3</v>
@@ -3169,25 +3175,25 @@
         <v>35</v>
       </c>
       <c r="P37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="Q37" t="s">
-        <v>49</v>
+        <v>111</v>
       </c>
       <c r="R37" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="S37" t="s">
-        <v>78</v>
+        <v>111</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -3195,37 +3201,37 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E38" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F38">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="G38">
-        <v>6.5</v>
+        <v>4.35</v>
       </c>
       <c r="H38">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="I38">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="J38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K38">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="L38">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="M38" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N38">
         <v>3</v>
@@ -3234,16 +3240,16 @@
         <v>36</v>
       </c>
       <c r="P38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q38" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="R38" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T38">
         <v>1</v>
@@ -3252,323 +3258,323 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21">
       <c r="A39" s="1">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="F39">
-        <v>3.4</v>
+        <v>1.42</v>
       </c>
       <c r="G39">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="H39">
-        <v>0.25</v>
+        <v>0.85</v>
       </c>
       <c r="I39">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="J39" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
       <c r="K39">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="L39">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="M39" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="N39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q39" t="s">
-        <v>104</v>
+        <v>51</v>
       </c>
       <c r="R39" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S39" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" s="1">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40">
-        <v>1.68</v>
+        <v>3.4</v>
       </c>
       <c r="G40">
-        <v>4.45</v>
+        <v>2</v>
       </c>
       <c r="H40">
-        <v>0.79</v>
+        <v>0.25</v>
       </c>
       <c r="I40">
-        <v>0.21</v>
+        <v>0.75</v>
       </c>
       <c r="J40" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="K40">
-        <v>0.79</v>
+        <v>0.75</v>
       </c>
       <c r="L40">
-        <v>1.68</v>
+        <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N40">
         <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="R40" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="T40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="1">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
         <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="F41">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="G41">
-        <v>3.5</v>
+        <v>4.45</v>
       </c>
       <c r="H41">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="I41">
-        <v>0.28999999999999998</v>
+        <v>0.21</v>
       </c>
       <c r="J41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="K41">
-        <v>0.71</v>
+        <v>0.79</v>
       </c>
       <c r="L41">
-        <v>2.1</v>
+        <v>1.68</v>
       </c>
       <c r="M41" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="N41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="Q41" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="R41" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S41" t="s">
-        <v>128</v>
+        <v>83</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:21">
       <c r="A42" s="1">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E42" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="F42">
-        <v>3.6</v>
+        <v>2.45</v>
       </c>
       <c r="G42">
-        <v>1.96</v>
+        <v>2.95</v>
       </c>
       <c r="H42">
-        <v>0.28999999999999998</v>
+        <v>0.3</v>
       </c>
       <c r="I42">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="J42" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="K42">
-        <v>0.71</v>
+        <v>0.7</v>
       </c>
       <c r="L42">
-        <v>1.96</v>
+        <v>2.95</v>
       </c>
       <c r="M42" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N42">
         <v>1</v>
       </c>
       <c r="O42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P42" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="Q42" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="R42" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="S42" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="T42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" s="1">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D43" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E43" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="F43">
-        <v>2.4500000000000002</v>
+        <v>1.53</v>
       </c>
       <c r="G43">
-        <v>2.95</v>
+        <v>6.5</v>
       </c>
       <c r="H43">
-        <v>0.3</v>
+        <v>0.89</v>
       </c>
       <c r="I43">
-        <v>0.7</v>
+        <v>0.11</v>
       </c>
       <c r="J43" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="K43">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="L43">
-        <v>2.95</v>
+        <v>1.53</v>
       </c>
       <c r="M43" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="N43">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P43" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="Q43" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R43" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S43" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="T43">
         <v>1</v>
@@ -3577,21 +3583,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:21">
       <c r="A44" s="1">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E44" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F44">
         <v>2.92</v>
@@ -3603,10 +3609,10 @@
         <v>0.71</v>
       </c>
       <c r="I44">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="J44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="K44">
         <v>0.71</v>
@@ -3615,25 +3621,25 @@
         <v>2.92</v>
       </c>
       <c r="M44" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="N44">
         <v>1</v>
       </c>
       <c r="O44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P44" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q44" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="R44" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S44" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -3642,7 +3648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:21">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -3650,84 +3656,84 @@
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D45" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="E45" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="F45">
-        <v>1.78</v>
+        <v>3.05</v>
       </c>
       <c r="G45">
-        <v>4.45</v>
+        <v>2.28</v>
       </c>
       <c r="H45">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="I45">
-        <v>0.17</v>
+        <v>0.75</v>
       </c>
       <c r="J45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="K45">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="L45">
-        <v>1.78</v>
+        <v>2.28</v>
       </c>
       <c r="M45" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="N45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O45" t="s">
         <v>38</v>
       </c>
       <c r="P45" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="Q45" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="R45" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S45" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="T45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" s="1">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C46" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D46" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="E46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F46">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="G46">
-        <v>3.9</v>
+        <v>4.45</v>
       </c>
       <c r="H46">
         <v>0.83</v>
@@ -3736,34 +3742,34 @@
         <v>0.17</v>
       </c>
       <c r="J46" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="K46">
         <v>0.83</v>
       </c>
       <c r="L46">
-        <v>1.92</v>
+        <v>1.78</v>
       </c>
       <c r="M46" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N46">
         <v>3</v>
       </c>
       <c r="O46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P46" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="Q46" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="R46" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S46" t="s">
-        <v>84</v>
+        <v>55</v>
       </c>
       <c r="T46">
         <v>1</v>
@@ -3772,72 +3778,72 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:21">
       <c r="A47" s="1">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C47" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="F47">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="G47">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H47">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="I47">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="J47" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="K47">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="L47">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="M47" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N47">
         <v>3</v>
       </c>
       <c r="O47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P47" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="Q47" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="R47" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="S47" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="T47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U47">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:21">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -3845,64 +3851,64 @@
         <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D48" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="E48" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="F48">
-        <v>3.05</v>
+        <v>1.96</v>
       </c>
       <c r="G48">
-        <v>2.2799999999999998</v>
+        <v>3.75</v>
       </c>
       <c r="H48">
-        <v>0.25</v>
+        <v>0.84</v>
       </c>
       <c r="I48">
-        <v>0.75</v>
+        <v>0.16</v>
       </c>
       <c r="J48" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K48">
-        <v>0.75</v>
+        <v>0.84</v>
       </c>
       <c r="L48">
-        <v>2.2799999999999998</v>
+        <v>1.96</v>
       </c>
       <c r="M48" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="N48">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O48" t="s">
         <v>39</v>
       </c>
       <c r="P48" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="Q48" t="s">
-        <v>48</v>
+        <v>122</v>
       </c>
       <c r="R48" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="S48" t="s">
-        <v>85</v>
+        <v>137</v>
       </c>
       <c r="T48">
         <v>0</v>
       </c>
       <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -3910,19 +3916,19 @@
         <v>40</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="F49">
         <v>1.65</v>
       </c>
       <c r="G49">
-        <v>4.9000000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="H49">
         <v>0.84</v>
@@ -3931,7 +3937,7 @@
         <v>0.16</v>
       </c>
       <c r="J49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K49">
         <v>0.84</v>
@@ -3940,7 +3946,7 @@
         <v>1.65</v>
       </c>
       <c r="M49" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N49">
         <v>3</v>
@@ -3949,16 +3955,16 @@
         <v>40</v>
       </c>
       <c r="P49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q49" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="R49" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S49" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="T49">
         <v>1</v>
@@ -3967,7 +3973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:21">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -3975,13 +3981,13 @@
         <v>40</v>
       </c>
       <c r="C50" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E50" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F50">
         <v>2.5</v>
@@ -3996,7 +4002,7 @@
         <v>0.82</v>
       </c>
       <c r="J50" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="K50">
         <v>0.82</v>
@@ -4005,7 +4011,7 @@
         <v>3.3</v>
       </c>
       <c r="M50" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N50">
         <v>3</v>
@@ -4014,16 +4020,16 @@
         <v>40</v>
       </c>
       <c r="P50" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q50" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="R50" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S50" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -4032,128 +4038,128 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:21">
       <c r="A51" s="1">
         <v>50</v>
       </c>
       <c r="B51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" t="s">
+        <v>47</v>
+      </c>
+      <c r="D51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E51" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51">
+        <v>1.63</v>
+      </c>
+      <c r="G51">
+        <v>5.5</v>
+      </c>
+      <c r="H51">
+        <v>0.76</v>
+      </c>
+      <c r="I51">
+        <v>0.24</v>
+      </c>
+      <c r="J51" t="s">
+        <v>53</v>
+      </c>
+      <c r="K51">
+        <v>0.76</v>
+      </c>
+      <c r="L51">
+        <v>1.63</v>
+      </c>
+      <c r="M51" t="s">
+        <v>132</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>107</v>
+      </c>
+      <c r="R51" t="s">
+        <v>136</v>
+      </c>
+      <c r="S51" t="s">
+        <v>137</v>
+      </c>
+      <c r="T51">
+        <v>0</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
         <v>41</v>
       </c>
-      <c r="C51" t="s">
-        <v>46</v>
-      </c>
-      <c r="D51" t="s">
-        <v>88</v>
-      </c>
-      <c r="E51" t="s">
-        <v>117</v>
-      </c>
-      <c r="F51">
+      <c r="C52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D52" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" t="s">
+        <v>123</v>
+      </c>
+      <c r="F52">
         <v>1.55</v>
-      </c>
-      <c r="G51">
-        <v>6</v>
-      </c>
-      <c r="H51">
-        <v>0.83</v>
-      </c>
-      <c r="I51">
-        <v>0.17</v>
-      </c>
-      <c r="J51" t="s">
-        <v>88</v>
-      </c>
-      <c r="K51">
-        <v>0.83</v>
-      </c>
-      <c r="L51">
-        <v>1.55</v>
-      </c>
-      <c r="M51" t="s">
-        <v>122</v>
-      </c>
-      <c r="N51">
-        <v>3</v>
-      </c>
-      <c r="O51" t="s">
-        <v>41</v>
-      </c>
-      <c r="P51" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>117</v>
-      </c>
-      <c r="R51" t="s">
-        <v>125</v>
-      </c>
-      <c r="S51" t="s">
-        <v>88</v>
-      </c>
-      <c r="T51">
-        <v>1</v>
-      </c>
-      <c r="U51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A52" s="1">
-        <v>52</v>
-      </c>
-      <c r="B52" t="s">
-        <v>42</v>
-      </c>
-      <c r="C52" t="s">
-        <v>46</v>
-      </c>
-      <c r="D52" t="s">
-        <v>89</v>
-      </c>
-      <c r="E52" t="s">
-        <v>118</v>
-      </c>
-      <c r="F52">
-        <v>1.57</v>
       </c>
       <c r="G52">
         <v>6</v>
       </c>
       <c r="H52">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="I52">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="J52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K52">
-        <v>0.93</v>
+        <v>0.83</v>
       </c>
       <c r="L52">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="M52" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="N52">
         <v>3</v>
       </c>
       <c r="O52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q52" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="R52" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S52" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="T52">
         <v>1</v>
@@ -4162,63 +4168,63 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:21">
       <c r="A53" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>41</v>
       </c>
       <c r="C53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E53" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="F53">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="G53">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="H53">
-        <v>0.78</v>
+        <v>0.18</v>
       </c>
       <c r="I53">
-        <v>0.22</v>
+        <v>0.82</v>
       </c>
       <c r="J53" t="s">
-        <v>90</v>
+        <v>124</v>
       </c>
       <c r="K53">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="L53">
-        <v>1.8</v>
+        <v>4.25</v>
       </c>
       <c r="M53" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="N53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O53" t="s">
         <v>41</v>
       </c>
       <c r="P53" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q53" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="R53" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="S53" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="T53">
         <v>0</v>
@@ -4227,45 +4233,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:21">
       <c r="A54" s="1">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>41</v>
       </c>
       <c r="C54" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E54" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="F54">
-        <v>1.41</v>
+        <v>1.8</v>
       </c>
       <c r="G54">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="H54">
+        <v>0.78</v>
+      </c>
+      <c r="I54">
         <v>0.22</v>
       </c>
-      <c r="I54">
-        <v>0.78</v>
-      </c>
       <c r="J54" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="K54">
         <v>0.78</v>
       </c>
       <c r="L54">
-        <v>7.8</v>
+        <v>1.8</v>
       </c>
       <c r="M54" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N54">
         <v>2</v>
@@ -4274,63 +4280,63 @@
         <v>41</v>
       </c>
       <c r="P54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q54" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="R54" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="S54" t="s">
-        <v>91</v>
+        <v>137</v>
       </c>
       <c r="T54">
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" s="1">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
         <v>41</v>
       </c>
       <c r="C55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F55">
-        <v>1.8</v>
+        <v>1.41</v>
       </c>
       <c r="G55">
-        <v>4.75</v>
+        <v>7.8</v>
       </c>
       <c r="H55">
-        <v>0.79</v>
+        <v>0.22</v>
       </c>
       <c r="I55">
-        <v>0.21</v>
+        <v>0.78</v>
       </c>
       <c r="J55" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="K55">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="L55">
-        <v>1.8</v>
+        <v>7.8</v>
       </c>
       <c r="M55" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N55">
         <v>2</v>
@@ -4339,86 +4345,736 @@
         <v>41</v>
       </c>
       <c r="P55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q55" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="R55" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="S55" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="T55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" s="1">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C56" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="F56">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="G56">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="H56">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="I56">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="J56" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="K56">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="L56">
-        <v>1.63</v>
+        <v>1.8</v>
       </c>
       <c r="M56" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="N56">
         <v>2</v>
       </c>
       <c r="O56" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="P56" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="Q56" t="s">
+        <v>127</v>
+      </c>
+      <c r="R56" t="s">
+        <v>134</v>
+      </c>
+      <c r="S56" t="s">
+        <v>94</v>
+      </c>
+      <c r="T56">
+        <v>1</v>
+      </c>
+      <c r="U56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D57" t="s">
+        <v>95</v>
+      </c>
+      <c r="E57" t="s">
+        <v>128</v>
+      </c>
+      <c r="F57">
+        <v>1.57</v>
+      </c>
+      <c r="G57">
+        <v>6</v>
+      </c>
+      <c r="H57">
+        <v>0.93</v>
+      </c>
+      <c r="I57">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J57" t="s">
+        <v>95</v>
+      </c>
+      <c r="K57">
+        <v>0.93</v>
+      </c>
+      <c r="L57">
+        <v>1.57</v>
+      </c>
+      <c r="M57" t="s">
+        <v>131</v>
+      </c>
+      <c r="N57">
+        <v>3</v>
+      </c>
+      <c r="O57" t="s">
+        <v>42</v>
+      </c>
+      <c r="P57" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q57" t="s">
+        <v>128</v>
+      </c>
+      <c r="R57" t="s">
+        <v>134</v>
+      </c>
+      <c r="S57" t="s">
+        <v>95</v>
+      </c>
+      <c r="T57">
+        <v>1</v>
+      </c>
+      <c r="U57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D58" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" t="s">
+        <v>78</v>
+      </c>
+      <c r="F58">
+        <v>1.8</v>
+      </c>
+      <c r="G58">
+        <v>5</v>
+      </c>
+      <c r="H58">
+        <v>0.85</v>
+      </c>
+      <c r="I58">
+        <v>0.15</v>
+      </c>
+      <c r="J58" t="s">
+        <v>53</v>
+      </c>
+      <c r="K58">
+        <v>0.85</v>
+      </c>
+      <c r="L58">
+        <v>1.8</v>
+      </c>
+      <c r="M58" t="s">
+        <v>131</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>43</v>
+      </c>
+      <c r="P58" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q58" t="s">
+        <v>78</v>
+      </c>
+      <c r="R58" t="s">
+        <v>136</v>
+      </c>
+      <c r="S58" t="s">
+        <v>137</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" t="s">
+        <v>52</v>
+      </c>
+      <c r="E59" t="s">
+        <v>65</v>
+      </c>
+      <c r="F59">
+        <v>1.42</v>
+      </c>
+      <c r="G59">
+        <v>7.5</v>
+      </c>
+      <c r="H59">
+        <v>0.82</v>
+      </c>
+      <c r="I59">
+        <v>0.18</v>
+      </c>
+      <c r="J59" t="s">
+        <v>52</v>
+      </c>
+      <c r="K59">
+        <v>0.82</v>
+      </c>
+      <c r="L59">
+        <v>1.42</v>
+      </c>
+      <c r="M59" t="s">
+        <v>131</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>65</v>
+      </c>
+      <c r="R59" t="s">
+        <v>134</v>
+      </c>
+      <c r="S59" t="s">
+        <v>52</v>
+      </c>
+      <c r="T59">
+        <v>1</v>
+      </c>
+      <c r="U59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>48</v>
+      </c>
+      <c r="D60" t="s">
+        <v>96</v>
+      </c>
+      <c r="E60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60">
+        <v>2.4</v>
+      </c>
+      <c r="G60">
+        <v>3.05</v>
+      </c>
+      <c r="H60">
+        <v>0.72</v>
+      </c>
+      <c r="I60">
+        <v>0.28</v>
+      </c>
+      <c r="J60" t="s">
+        <v>96</v>
+      </c>
+      <c r="K60">
+        <v>0.72</v>
+      </c>
+      <c r="L60">
+        <v>2.4</v>
+      </c>
+      <c r="M60" t="s">
+        <v>133</v>
+      </c>
+      <c r="N60">
+        <v>1</v>
+      </c>
+      <c r="O60" t="s">
+        <v>43</v>
+      </c>
+      <c r="P60" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>73</v>
+      </c>
+      <c r="R60" t="s">
+        <v>135</v>
+      </c>
+      <c r="S60" t="s">
+        <v>73</v>
+      </c>
+      <c r="T60">
+        <v>0</v>
+      </c>
+      <c r="U60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>48</v>
+      </c>
+      <c r="D61" t="s">
+        <v>97</v>
+      </c>
+      <c r="E61" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61">
+        <v>2.05</v>
+      </c>
+      <c r="G61">
+        <v>3.75</v>
+      </c>
+      <c r="H61">
+        <v>0.73</v>
+      </c>
+      <c r="I61">
+        <v>0.27</v>
+      </c>
+      <c r="J61" t="s">
+        <v>97</v>
+      </c>
+      <c r="K61">
+        <v>0.73</v>
+      </c>
+      <c r="L61">
+        <v>2.05</v>
+      </c>
+      <c r="M61" t="s">
+        <v>133</v>
+      </c>
+      <c r="N61">
+        <v>1</v>
+      </c>
+      <c r="O61" t="s">
+        <v>43</v>
+      </c>
+      <c r="P61" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>129</v>
+      </c>
+      <c r="R61" t="s">
+        <v>135</v>
+      </c>
+      <c r="S61" t="s">
+        <v>129</v>
+      </c>
+      <c r="T61">
+        <v>0</v>
+      </c>
+      <c r="U61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>44</v>
+      </c>
+      <c r="C62" t="s">
+        <v>45</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>130</v>
+      </c>
+      <c r="F62">
+        <v>1.42</v>
+      </c>
+      <c r="G62">
+        <v>7.3</v>
+      </c>
+      <c r="H62">
+        <v>0.92</v>
+      </c>
+      <c r="I62">
+        <v>0.08</v>
+      </c>
+      <c r="J62" t="s">
+        <v>98</v>
+      </c>
+      <c r="K62">
+        <v>0.92</v>
+      </c>
+      <c r="L62">
+        <v>1.42</v>
+      </c>
+      <c r="M62" t="s">
+        <v>131</v>
+      </c>
+      <c r="N62">
+        <v>3</v>
+      </c>
+      <c r="O62" t="s">
+        <v>44</v>
+      </c>
+      <c r="P62" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>130</v>
+      </c>
+      <c r="R62" t="s">
+        <v>134</v>
+      </c>
+      <c r="S62" t="s">
+        <v>98</v>
+      </c>
+      <c r="T62">
+        <v>1</v>
+      </c>
+      <c r="U62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" t="s">
         <v>99</v>
       </c>
-      <c r="R56" t="s">
-        <v>127</v>
-      </c>
-      <c r="S56" t="s">
-        <v>128</v>
-      </c>
-      <c r="T56">
+      <c r="E63" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63">
+        <v>1.68</v>
+      </c>
+      <c r="G63">
+        <v>5.35</v>
+      </c>
+      <c r="H63">
+        <v>0.83</v>
+      </c>
+      <c r="I63">
+        <v>0.17</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+      <c r="K63">
+        <v>0.83</v>
+      </c>
+      <c r="L63">
+        <v>1.68</v>
+      </c>
+      <c r="M63" t="s">
+        <v>131</v>
+      </c>
+      <c r="N63">
+        <v>3</v>
+      </c>
+      <c r="O63" t="s">
+        <v>44</v>
+      </c>
+      <c r="P63" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>115</v>
+      </c>
+      <c r="R63" t="s">
+        <v>134</v>
+      </c>
+      <c r="S63" t="s">
+        <v>99</v>
+      </c>
+      <c r="T63">
+        <v>1</v>
+      </c>
+      <c r="U63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" t="s">
+        <v>81</v>
+      </c>
+      <c r="E64" t="s">
+        <v>61</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <v>4</v>
+      </c>
+      <c r="H64">
+        <v>0.76</v>
+      </c>
+      <c r="I64">
+        <v>0.24</v>
+      </c>
+      <c r="J64" t="s">
+        <v>81</v>
+      </c>
+      <c r="K64">
+        <v>0.76</v>
+      </c>
+      <c r="L64">
+        <v>2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>132</v>
+      </c>
+      <c r="N64">
+        <v>2</v>
+      </c>
+      <c r="O64" t="s">
+        <v>44</v>
+      </c>
+      <c r="P64" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>61</v>
+      </c>
+      <c r="R64" t="s">
+        <v>134</v>
+      </c>
+      <c r="S64" t="s">
+        <v>81</v>
+      </c>
+      <c r="T64">
+        <v>1</v>
+      </c>
+      <c r="U64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>44</v>
+      </c>
+      <c r="C65" t="s">
+        <v>45</v>
+      </c>
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+      <c r="F65">
+        <v>1.8</v>
+      </c>
+      <c r="G65">
+        <v>4.1</v>
+      </c>
+      <c r="H65">
+        <v>0.77</v>
+      </c>
+      <c r="I65">
+        <v>0.23</v>
+      </c>
+      <c r="J65" t="s">
+        <v>72</v>
+      </c>
+      <c r="K65">
+        <v>0.77</v>
+      </c>
+      <c r="L65">
+        <v>1.8</v>
+      </c>
+      <c r="M65" t="s">
+        <v>132</v>
+      </c>
+      <c r="N65">
+        <v>2</v>
+      </c>
+      <c r="O65" t="s">
+        <v>44</v>
+      </c>
+      <c r="P65" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>50</v>
+      </c>
+      <c r="R65" t="s">
+        <v>134</v>
+      </c>
+      <c r="S65" t="s">
+        <v>72</v>
+      </c>
+      <c r="T65">
+        <v>1</v>
+      </c>
+      <c r="U65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>44</v>
+      </c>
+      <c r="C66" t="s">
+        <v>45</v>
+      </c>
+      <c r="D66" t="s">
+        <v>100</v>
+      </c>
+      <c r="E66" t="s">
+        <v>93</v>
+      </c>
+      <c r="F66">
+        <v>2.38</v>
+      </c>
+      <c r="G66">
+        <v>2.78</v>
+      </c>
+      <c r="H66">
+        <v>0.7</v>
+      </c>
+      <c r="I66">
+        <v>0.3</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+      <c r="K66">
+        <v>0.7</v>
+      </c>
+      <c r="L66">
+        <v>2.38</v>
+      </c>
+      <c r="M66" t="s">
+        <v>133</v>
+      </c>
+      <c r="N66">
+        <v>1</v>
+      </c>
+      <c r="O66" t="s">
+        <v>44</v>
+      </c>
+      <c r="P66" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>93</v>
+      </c>
+      <c r="R66" t="s">
+        <v>136</v>
+      </c>
+      <c r="S66" t="s">
+        <v>137</v>
+      </c>
+      <c r="T66">
         <v>0</v>
       </c>
-      <c r="U56">
+      <c r="U66">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alan.hassan\Desktop\github\soccerprediction\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{678C4C50-6D96-455D-A27D-A1CA67721881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -85,8 +79,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,21 +143,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +187,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -235,7 +221,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -270,10 +255,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -446,17 +430,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
   <si>
     <t>Date</t>
   </si>
@@ -74,6 +74,165 @@
   </si>
   <si>
     <t>bet_right_win_draw</t>
+  </si>
+  <si>
+    <t>2023-09-16</t>
+  </si>
+  <si>
+    <t>2023-09-17</t>
+  </si>
+  <si>
+    <t>2023-09-18</t>
+  </si>
+  <si>
+    <t>2023-09-14</t>
+  </si>
+  <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGUE 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGA PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SERIE A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIER LEAGUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LALIGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUNDESLIGA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EREDIVISIE </t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Clermont Foot</t>
+  </si>
+  <si>
+    <t>Vitoria Guimaraes</t>
+  </si>
+  <si>
+    <t>Corinthians</t>
+  </si>
+  <si>
+    <t>Lyon</t>
+  </si>
+  <si>
+    <t>Santos</t>
+  </si>
+  <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Valencia</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Everton</t>
+  </si>
+  <si>
+    <t>Sporting CP</t>
+  </si>
+  <si>
+    <t>Metz</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>Gremio</t>
+  </si>
+  <si>
+    <t>Le Havre</t>
+  </si>
+  <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>Moreirense</t>
+  </si>
+  <si>
+    <t>safest_bet</t>
+  </si>
+  <si>
+    <t>safe_bet</t>
+  </si>
+  <si>
+    <t>risky_bet</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Draw</t>
   </si>
 </sst>
 </file>
@@ -431,13 +590,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B1:U1"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="2:21">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -497,6 +656,1111 @@
       </c>
       <c r="U1" s="1" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2">
+        <v>1.52</v>
+      </c>
+      <c r="G2">
+        <v>5.9</v>
+      </c>
+      <c r="H2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.06</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L2">
+        <v>1.52</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>69</v>
+      </c>
+      <c r="S2" t="s">
+        <v>49</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>1.98</v>
+      </c>
+      <c r="G3">
+        <v>3.7</v>
+      </c>
+      <c r="H3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>33</v>
+      </c>
+      <c r="K3">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1.98</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" t="s">
+        <v>69</v>
+      </c>
+      <c r="S3" t="s">
+        <v>50</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>1.53</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>0.85</v>
+      </c>
+      <c r="I4">
+        <v>0.15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K4">
+        <v>0.85</v>
+      </c>
+      <c r="L4">
+        <v>1.53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>51</v>
+      </c>
+      <c r="R4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5">
+        <v>2.55</v>
+      </c>
+      <c r="G5">
+        <v>2.8</v>
+      </c>
+      <c r="H5">
+        <v>0.86</v>
+      </c>
+      <c r="I5">
+        <v>0.14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K5">
+        <v>0.86</v>
+      </c>
+      <c r="L5">
+        <v>2.55</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>52</v>
+      </c>
+      <c r="R5" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6">
+        <v>1.68</v>
+      </c>
+      <c r="G6">
+        <v>4.65</v>
+      </c>
+      <c r="H6">
+        <v>0.77</v>
+      </c>
+      <c r="I6">
+        <v>0.23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6">
+        <v>0.77</v>
+      </c>
+      <c r="L6">
+        <v>1.68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>21</v>
+      </c>
+      <c r="P6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>53</v>
+      </c>
+      <c r="R6" t="s">
+        <v>70</v>
+      </c>
+      <c r="S6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7">
+        <v>2.55</v>
+      </c>
+      <c r="G7">
+        <v>2.9</v>
+      </c>
+      <c r="H7">
+        <v>0.71</v>
+      </c>
+      <c r="I7">
+        <v>0.29</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7">
+        <v>0.71</v>
+      </c>
+      <c r="L7">
+        <v>2.55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>68</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>54</v>
+      </c>
+      <c r="R7" t="s">
+        <v>69</v>
+      </c>
+      <c r="S7" t="s">
+        <v>54</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8">
+        <v>1.92</v>
+      </c>
+      <c r="G8">
+        <v>4.05</v>
+      </c>
+      <c r="H8">
+        <v>0.72</v>
+      </c>
+      <c r="I8">
+        <v>0.28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8">
+        <v>0.72</v>
+      </c>
+      <c r="L8">
+        <v>1.92</v>
+      </c>
+      <c r="M8" t="s">
+        <v>68</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" t="s">
+        <v>38</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9">
+        <v>3.6</v>
+      </c>
+      <c r="G9">
+        <v>2.1</v>
+      </c>
+      <c r="H9">
+        <v>0.3</v>
+      </c>
+      <c r="I9">
+        <v>0.7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>0.7</v>
+      </c>
+      <c r="L9">
+        <v>2.1</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>71</v>
+      </c>
+      <c r="S9" t="s">
+        <v>39</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10">
+        <v>2.08</v>
+      </c>
+      <c r="G10">
+        <v>3.55</v>
+      </c>
+      <c r="H10">
+        <v>0.71</v>
+      </c>
+      <c r="I10">
+        <v>0.29</v>
+      </c>
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10">
+        <v>0.71</v>
+      </c>
+      <c r="L10">
+        <v>2.08</v>
+      </c>
+      <c r="M10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10" t="s">
+        <v>21</v>
+      </c>
+      <c r="P10" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>57</v>
+      </c>
+      <c r="R10" t="s">
+        <v>70</v>
+      </c>
+      <c r="S10" t="s">
+        <v>72</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11">
+        <v>1.35</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>0.84</v>
+      </c>
+      <c r="I11">
+        <v>0.16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11">
+        <v>0.84</v>
+      </c>
+      <c r="L11">
+        <v>1.35</v>
+      </c>
+      <c r="M11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>58</v>
+      </c>
+      <c r="R11" t="s">
+        <v>71</v>
+      </c>
+      <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>1.36</v>
+      </c>
+      <c r="H12">
+        <v>0.3</v>
+      </c>
+      <c r="I12">
+        <v>0.7</v>
+      </c>
+      <c r="J12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12">
+        <v>0.7</v>
+      </c>
+      <c r="L12">
+        <v>1.36</v>
+      </c>
+      <c r="M12" t="s">
+        <v>66</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>59</v>
+      </c>
+      <c r="R12" t="s">
+        <v>69</v>
+      </c>
+      <c r="S12" t="s">
+        <v>59</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13">
+        <v>6.7</v>
+      </c>
+      <c r="G13">
+        <v>1.48</v>
+      </c>
+      <c r="H13">
+        <v>0.32</v>
+      </c>
+      <c r="I13">
+        <v>0.68</v>
+      </c>
+      <c r="J13" t="s">
+        <v>60</v>
+      </c>
+      <c r="K13">
+        <v>0.68</v>
+      </c>
+      <c r="L13">
+        <v>1.48</v>
+      </c>
+      <c r="M13" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>60</v>
+      </c>
+      <c r="R13" t="s">
+        <v>69</v>
+      </c>
+      <c r="S13" t="s">
+        <v>60</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>1.24</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>0.9</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>0.9</v>
+      </c>
+      <c r="L14">
+        <v>1.24</v>
+      </c>
+      <c r="M14" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>61</v>
+      </c>
+      <c r="R14" t="s">
+        <v>71</v>
+      </c>
+      <c r="S14" t="s">
+        <v>44</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15">
+        <v>1.24</v>
+      </c>
+      <c r="G15">
+        <v>11.5</v>
+      </c>
+      <c r="H15">
+        <v>0.84</v>
+      </c>
+      <c r="I15">
+        <v>0.16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15">
+        <v>0.84</v>
+      </c>
+      <c r="L15">
+        <v>1.24</v>
+      </c>
+      <c r="M15" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>20</v>
+      </c>
+      <c r="P15" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>62</v>
+      </c>
+      <c r="R15" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" t="s">
+        <v>45</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16">
+        <v>8</v>
+      </c>
+      <c r="G16">
+        <v>1.33</v>
+      </c>
+      <c r="H16">
+        <v>0.31</v>
+      </c>
+      <c r="I16">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J16" t="s">
+        <v>63</v>
+      </c>
+      <c r="K16">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L16">
+        <v>1.33</v>
+      </c>
+      <c r="M16" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>20</v>
+      </c>
+      <c r="P16" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>63</v>
+      </c>
+      <c r="R16" t="s">
+        <v>69</v>
+      </c>
+      <c r="S16" t="s">
+        <v>63</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17">
+        <v>6.3</v>
+      </c>
+      <c r="G17">
+        <v>1.52</v>
+      </c>
+      <c r="H17">
+        <v>0.29</v>
+      </c>
+      <c r="I17">
+        <v>0.71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17">
+        <v>0.71</v>
+      </c>
+      <c r="L17">
+        <v>1.52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>21</v>
+      </c>
+      <c r="P17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>64</v>
+      </c>
+      <c r="R17" t="s">
+        <v>69</v>
+      </c>
+      <c r="S17" t="s">
+        <v>64</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18">
+        <v>1.22</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>0.87</v>
+      </c>
+      <c r="I18">
+        <v>0.13</v>
+      </c>
+      <c r="J18" t="s">
+        <v>48</v>
+      </c>
+      <c r="K18">
+        <v>0.87</v>
+      </c>
+      <c r="L18">
+        <v>1.22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>21</v>
+      </c>
+      <c r="P18" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R18" t="s">
+        <v>71</v>
+      </c>
+      <c r="S18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -76,163 +76,100 @@
     <t>bet_right_win_draw</t>
   </si>
   <si>
+    <t>2023-09-15</t>
+  </si>
+  <si>
     <t>2023-09-16</t>
   </si>
   <si>
     <t>2023-09-17</t>
   </si>
   <si>
-    <t>2023-09-18</t>
-  </si>
-  <si>
-    <t>2023-09-14</t>
-  </si>
-  <si>
-    <t>2023-09-15</t>
+    <t xml:space="preserve">SERIE A </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIGA PORTUGAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREMIER LEAGUE </t>
   </si>
   <si>
     <t xml:space="preserve">LIGUE 1 </t>
   </si>
   <si>
-    <t xml:space="preserve">LIGA PORTUGAL </t>
-  </si>
-  <si>
-    <t xml:space="preserve">SERIE A </t>
-  </si>
-  <si>
-    <t xml:space="preserve">PREMIER LEAGUE </t>
-  </si>
-  <si>
-    <t xml:space="preserve">LALIGA </t>
-  </si>
-  <si>
     <t xml:space="preserve">BUNDESLIGA </t>
   </si>
   <si>
     <t xml:space="preserve">EREDIVISIE </t>
   </si>
   <si>
+    <t>Palmeiras</t>
+  </si>
+  <si>
+    <t>Estrela</t>
+  </si>
+  <si>
+    <t>West Ham United</t>
+  </si>
+  <si>
     <t>Lens</t>
   </si>
   <si>
-    <t>Clermont Foot</t>
+    <t>RB Leipzig</t>
+  </si>
+  <si>
+    <t>Feyenoord</t>
+  </si>
+  <si>
+    <t>Vizela</t>
+  </si>
+  <si>
+    <t>Everton</t>
   </si>
   <si>
     <t>Vitoria Guimaraes</t>
   </si>
   <si>
-    <t>Corinthians</t>
-  </si>
-  <si>
-    <t>Lyon</t>
-  </si>
-  <si>
-    <t>Santos</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Valencia</t>
-  </si>
-  <si>
-    <t>Monza</t>
-  </si>
-  <si>
-    <t>Palmeiras</t>
-  </si>
-  <si>
-    <t>Estrela</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>RB Leipzig</t>
-  </si>
-  <si>
-    <t>Feyenoord</t>
-  </si>
-  <si>
-    <t>Vizela</t>
-  </si>
-  <si>
-    <t>Everton</t>
-  </si>
-  <si>
     <t>Sporting CP</t>
   </si>
   <si>
+    <t>Goias</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Manchester City</t>
+  </si>
+  <si>
     <t>Metz</t>
   </si>
   <si>
-    <t>Nantes</t>
+    <t>Augsburg</t>
+  </si>
+  <si>
+    <t>Heerenveen</t>
+  </si>
+  <si>
+    <t>Benfica</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
   </si>
   <si>
     <t>Portimonense</t>
   </si>
   <si>
-    <t>Gremio</t>
-  </si>
-  <si>
-    <t>Le Havre</t>
-  </si>
-  <si>
-    <t>Cruzeiro</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Atletico Madrid</t>
-  </si>
-  <si>
-    <t>Lecce</t>
-  </si>
-  <si>
-    <t>Goias</t>
-  </si>
-  <si>
-    <t>Porto</t>
-  </si>
-  <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Augsburg</t>
-  </si>
-  <si>
-    <t>Heerenveen</t>
-  </si>
-  <si>
-    <t>Benfica</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
     <t>Moreirense</t>
   </si>
   <si>
     <t>safest_bet</t>
   </si>
   <si>
-    <t>safe_bet</t>
-  </si>
-  <si>
-    <t>risky_bet</t>
+    <t>W</t>
   </si>
   <si>
     <t>L</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Draw</t>
   </si>
 </sst>
 </file>
@@ -590,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:U11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -666,37 +603,37 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2">
+        <v>1.35</v>
+      </c>
+      <c r="G2">
+        <v>9</v>
+      </c>
+      <c r="H2">
+        <v>0.84</v>
+      </c>
+      <c r="I2">
+        <v>0.16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2">
+        <v>0.84</v>
+      </c>
+      <c r="L2">
+        <v>1.35</v>
+      </c>
+      <c r="M2" t="s">
         <v>49</v>
-      </c>
-      <c r="F2">
-        <v>1.52</v>
-      </c>
-      <c r="G2">
-        <v>5.9</v>
-      </c>
-      <c r="H2">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="I2">
-        <v>0.06</v>
-      </c>
-      <c r="J2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="L2">
-        <v>1.52</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -705,22 +642,22 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="R2" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="S2" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -728,64 +665,64 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F3">
-        <v>1.98</v>
+        <v>8</v>
       </c>
       <c r="G3">
-        <v>3.7</v>
+        <v>1.36</v>
       </c>
       <c r="H3">
-        <v>0.8100000000000001</v>
+        <v>0.3</v>
       </c>
       <c r="I3">
-        <v>0.19</v>
+        <v>0.7</v>
       </c>
       <c r="J3" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K3">
-        <v>0.8100000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L3">
-        <v>1.98</v>
+        <v>1.36</v>
       </c>
       <c r="M3" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>3</v>
       </c>
       <c r="O3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="Q3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="R3" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="S3" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -796,37 +733,37 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>1.53</v>
+        <v>6.7</v>
       </c>
       <c r="G4">
-        <v>6</v>
+        <v>1.48</v>
       </c>
       <c r="H4">
-        <v>0.85</v>
+        <v>0.32</v>
       </c>
       <c r="I4">
-        <v>0.15</v>
+        <v>0.68</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="L4">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="M4" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -835,22 +772,22 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" t="s">
         <v>51</v>
       </c>
-      <c r="R4" t="s">
-        <v>69</v>
-      </c>
       <c r="S4" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -858,64 +795,64 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>2.55</v>
+        <v>1.52</v>
       </c>
       <c r="G5">
-        <v>2.8</v>
+        <v>5.9</v>
       </c>
       <c r="H5">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I5">
-        <v>0.14</v>
+        <v>0.06</v>
       </c>
       <c r="J5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K5">
-        <v>0.86</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L5">
-        <v>2.55</v>
+        <v>1.52</v>
       </c>
       <c r="M5" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N5">
         <v>3</v>
       </c>
       <c r="O5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q5" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="R5" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="T5">
         <v>0</v>
       </c>
       <c r="U5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -926,58 +863,58 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="F6">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="G6">
-        <v>4.65</v>
+        <v>12</v>
       </c>
       <c r="H6">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="I6">
-        <v>0.23</v>
+        <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.77</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>1.68</v>
+        <v>1.24</v>
       </c>
       <c r="M6" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O6" t="s">
         <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="Q6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="S6" t="s">
-        <v>72</v>
+        <v>33</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
         <v>1</v>
@@ -988,64 +925,64 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>2.55</v>
+        <v>1.24</v>
       </c>
       <c r="G7">
-        <v>2.9</v>
+        <v>11.5</v>
       </c>
       <c r="H7">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="I7">
-        <v>0.29</v>
+        <v>0.16</v>
       </c>
       <c r="J7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K7">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="L7">
-        <v>2.55</v>
+        <v>1.24</v>
       </c>
       <c r="M7" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="Q7" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="S7" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -1053,58 +990,58 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F8">
-        <v>1.92</v>
+        <v>8</v>
       </c>
       <c r="G8">
-        <v>4.05</v>
+        <v>1.33</v>
       </c>
       <c r="H8">
-        <v>0.72</v>
+        <v>0.31</v>
       </c>
       <c r="I8">
-        <v>0.28</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K8">
-        <v>0.72</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L8">
-        <v>1.92</v>
+        <v>1.33</v>
       </c>
       <c r="M8" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="Q8" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="R8" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1118,64 +1055,64 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F9">
-        <v>3.6</v>
+        <v>6.3</v>
       </c>
       <c r="G9">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="H9">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
       <c r="I9">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K9">
-        <v>0.7</v>
+        <v>0.71</v>
       </c>
       <c r="L9">
-        <v>2.1</v>
+        <v>1.52</v>
       </c>
       <c r="M9" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="R9" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
       <c r="S9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -1183,64 +1120,64 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="F10">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="G10">
-        <v>3.55</v>
+        <v>6</v>
       </c>
       <c r="H10">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="I10">
-        <v>0.29</v>
+        <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K10">
-        <v>0.71</v>
+        <v>0.85</v>
       </c>
       <c r="L10">
-        <v>2.08</v>
+        <v>1.53</v>
       </c>
       <c r="M10" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q10" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="R10" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="S10" t="s">
-        <v>72</v>
+        <v>47</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -1248,518 +1185,63 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F11">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="G11">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H11">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="I11">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K11">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
       <c r="L11">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="M11" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="N11">
         <v>3</v>
       </c>
       <c r="O11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="Q11" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="R11" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="T11">
         <v>1</v>
       </c>
       <c r="U11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>59</v>
-      </c>
-      <c r="F12">
-        <v>8</v>
-      </c>
-      <c r="G12">
-        <v>1.36</v>
-      </c>
-      <c r="H12">
-        <v>0.3</v>
-      </c>
-      <c r="I12">
-        <v>0.7</v>
-      </c>
-      <c r="J12" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12">
-        <v>0.7</v>
-      </c>
-      <c r="L12">
-        <v>1.36</v>
-      </c>
-      <c r="M12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N12">
-        <v>3</v>
-      </c>
-      <c r="O12" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" t="s">
-        <v>69</v>
-      </c>
-      <c r="S12" t="s">
-        <v>59</v>
-      </c>
-      <c r="T12">
-        <v>1</v>
-      </c>
-      <c r="U12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13">
-        <v>6.7</v>
-      </c>
-      <c r="G13">
-        <v>1.48</v>
-      </c>
-      <c r="H13">
-        <v>0.32</v>
-      </c>
-      <c r="I13">
-        <v>0.68</v>
-      </c>
-      <c r="J13" t="s">
-        <v>60</v>
-      </c>
-      <c r="K13">
-        <v>0.68</v>
-      </c>
-      <c r="L13">
-        <v>1.48</v>
-      </c>
-      <c r="M13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13">
-        <v>3</v>
-      </c>
-      <c r="O13" t="s">
-        <v>20</v>
-      </c>
-      <c r="P13" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" t="s">
-        <v>69</v>
-      </c>
-      <c r="S13" t="s">
-        <v>60</v>
-      </c>
-      <c r="T13">
-        <v>1</v>
-      </c>
-      <c r="U13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" t="s">
-        <v>44</v>
-      </c>
-      <c r="E14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F14">
-        <v>1.24</v>
-      </c>
-      <c r="G14">
-        <v>12</v>
-      </c>
-      <c r="H14">
-        <v>0.9</v>
-      </c>
-      <c r="I14">
-        <v>0.1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>44</v>
-      </c>
-      <c r="K14">
-        <v>0.9</v>
-      </c>
-      <c r="L14">
-        <v>1.24</v>
-      </c>
-      <c r="M14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N14">
-        <v>3</v>
-      </c>
-      <c r="O14" t="s">
-        <v>20</v>
-      </c>
-      <c r="P14" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" t="s">
-        <v>71</v>
-      </c>
-      <c r="S14" t="s">
-        <v>44</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
-      </c>
-      <c r="U14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15">
-        <v>1.24</v>
-      </c>
-      <c r="G15">
-        <v>11.5</v>
-      </c>
-      <c r="H15">
-        <v>0.84</v>
-      </c>
-      <c r="I15">
-        <v>0.16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>45</v>
-      </c>
-      <c r="K15">
-        <v>0.84</v>
-      </c>
-      <c r="L15">
-        <v>1.24</v>
-      </c>
-      <c r="M15" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15">
-        <v>3</v>
-      </c>
-      <c r="O15" t="s">
-        <v>20</v>
-      </c>
-      <c r="P15" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R15" t="s">
-        <v>71</v>
-      </c>
-      <c r="S15" t="s">
-        <v>45</v>
-      </c>
-      <c r="T15">
-        <v>1</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16">
-        <v>8</v>
-      </c>
-      <c r="G16">
-        <v>1.33</v>
-      </c>
-      <c r="H16">
-        <v>0.31</v>
-      </c>
-      <c r="I16">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J16" t="s">
-        <v>63</v>
-      </c>
-      <c r="K16">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L16">
-        <v>1.33</v>
-      </c>
-      <c r="M16" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16">
-        <v>3</v>
-      </c>
-      <c r="O16" t="s">
-        <v>20</v>
-      </c>
-      <c r="P16" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>63</v>
-      </c>
-      <c r="R16" t="s">
-        <v>69</v>
-      </c>
-      <c r="S16" t="s">
-        <v>63</v>
-      </c>
-      <c r="T16">
-        <v>1</v>
-      </c>
-      <c r="U16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F17">
-        <v>6.3</v>
-      </c>
-      <c r="G17">
-        <v>1.52</v>
-      </c>
-      <c r="H17">
-        <v>0.29</v>
-      </c>
-      <c r="I17">
-        <v>0.71</v>
-      </c>
-      <c r="J17" t="s">
-        <v>64</v>
-      </c>
-      <c r="K17">
-        <v>0.71</v>
-      </c>
-      <c r="L17">
-        <v>1.52</v>
-      </c>
-      <c r="M17" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17">
-        <v>3</v>
-      </c>
-      <c r="O17" t="s">
-        <v>21</v>
-      </c>
-      <c r="P17" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>64</v>
-      </c>
-      <c r="R17" t="s">
-        <v>69</v>
-      </c>
-      <c r="S17" t="s">
-        <v>64</v>
-      </c>
-      <c r="T17">
-        <v>1</v>
-      </c>
-      <c r="U17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E18" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18">
-        <v>1.22</v>
-      </c>
-      <c r="G18">
-        <v>13</v>
-      </c>
-      <c r="H18">
-        <v>0.87</v>
-      </c>
-      <c r="I18">
-        <v>0.13</v>
-      </c>
-      <c r="J18" t="s">
-        <v>48</v>
-      </c>
-      <c r="K18">
-        <v>0.87</v>
-      </c>
-      <c r="L18">
-        <v>1.22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18">
-        <v>3</v>
-      </c>
-      <c r="O18" t="s">
-        <v>21</v>
-      </c>
-      <c r="P18" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>65</v>
-      </c>
-      <c r="R18" t="s">
-        <v>71</v>
-      </c>
-      <c r="S18" t="s">
-        <v>48</v>
-      </c>
-      <c r="T18">
-        <v>1</v>
-      </c>
-      <c r="U18">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
   <si>
     <t>Date</t>
   </si>
@@ -85,6 +85,15 @@
     <t>2023-09-17</t>
   </si>
   <si>
+    <t>2023-09-20</t>
+  </si>
+  <si>
+    <t>2023-09-23</t>
+  </si>
+  <si>
+    <t>2023-09-24</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
@@ -103,6 +112,12 @@
     <t xml:space="preserve">EREDIVISIE </t>
   </si>
   <si>
+    <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LALIGA </t>
+  </si>
+  <si>
     <t>Palmeiras</t>
   </si>
   <si>
@@ -133,12 +148,63 @@
     <t>Sporting CP</t>
   </si>
   <si>
+    <t>Fluminense</t>
+  </si>
+  <si>
+    <t>Antwerp</t>
+  </si>
+  <si>
+    <t>Real Sociedad</t>
+  </si>
+  <si>
+    <t>Braga</t>
+  </si>
+  <si>
+    <t>Portimonense</t>
+  </si>
+  <si>
+    <t>RKC Waalwijk</t>
+  </si>
+  <si>
+    <t>Atalanta</t>
+  </si>
+  <si>
+    <t>Empoli</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
+  </si>
+  <si>
+    <t>Gent</t>
+  </si>
+  <si>
+    <t>Genk</t>
+  </si>
+  <si>
+    <t>Barcelona</t>
+  </si>
+  <si>
+    <t>Porto</t>
+  </si>
+  <si>
+    <t>Almere City</t>
+  </si>
+  <si>
+    <t>Lazio</t>
+  </si>
+  <si>
+    <t>Milan</t>
+  </si>
+  <si>
+    <t>Atletico Mineiro</t>
+  </si>
+  <si>
     <t>Goias</t>
   </si>
   <si>
-    <t>Porto</t>
-  </si>
-  <si>
     <t>Manchester City</t>
   </si>
   <si>
@@ -157,12 +223,60 @@
     <t>Arsenal</t>
   </si>
   <si>
-    <t>Portimonense</t>
-  </si>
-  <si>
     <t>Moreirense</t>
   </si>
   <si>
+    <t>Cruzeiro</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
+    <t>Getafe</t>
+  </si>
+  <si>
+    <t>Boavista</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Cagliari</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Eupen</t>
+  </si>
+  <si>
+    <t>Sint Truiden</t>
+  </si>
+  <si>
+    <t>Celta Vigo</t>
+  </si>
+  <si>
+    <t>Gil Vicente FC</t>
+  </si>
+  <si>
+    <t>PSV Eindhoven</t>
+  </si>
+  <si>
+    <t>Monza</t>
+  </si>
+  <si>
+    <t>Hellas Verona</t>
+  </si>
+  <si>
+    <t>Cuiaba</t>
+  </si>
+  <si>
     <t>safest_bet</t>
   </si>
   <si>
@@ -170,6 +284,12 @@
   </si>
   <si>
     <t>L</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Draw</t>
   </si>
 </sst>
 </file>
@@ -527,7 +647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:U30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,13 +723,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="F2">
         <v>1.35</v>
@@ -624,7 +744,7 @@
         <v>0.16</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="K2">
         <v>0.84</v>
@@ -633,7 +753,7 @@
         <v>1.35</v>
       </c>
       <c r="M2" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -642,16 +762,16 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="S2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -668,13 +788,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -689,7 +809,7 @@
         <v>0.7</v>
       </c>
       <c r="J3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>0.7</v>
@@ -698,7 +818,7 @@
         <v>1.36</v>
       </c>
       <c r="M3" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -707,16 +827,16 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="Q3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="R3" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="S3" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -733,13 +853,13 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>6.7</v>
@@ -754,7 +874,7 @@
         <v>0.68</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="K4">
         <v>0.68</v>
@@ -763,7 +883,7 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -772,16 +892,16 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="R4" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -798,13 +918,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>1.52</v>
@@ -819,7 +939,7 @@
         <v>0.06</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K5">
         <v>0.9399999999999999</v>
@@ -828,7 +948,7 @@
         <v>1.52</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -837,16 +957,16 @@
         <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="Q5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="R5" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="S5" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -863,13 +983,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>1.24</v>
@@ -884,7 +1004,7 @@
         <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -893,7 +1013,7 @@
         <v>1.24</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -902,16 +1022,16 @@
         <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="Q6" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="R6" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="S6" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -928,13 +1048,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>1.24</v>
@@ -949,7 +1069,7 @@
         <v>0.16</v>
       </c>
       <c r="J7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="K7">
         <v>0.84</v>
@@ -958,7 +1078,7 @@
         <v>1.24</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -967,16 +1087,16 @@
         <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="R7" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="S7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -993,13 +1113,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -1014,7 +1134,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="K8">
         <v>0.6899999999999999</v>
@@ -1023,7 +1143,7 @@
         <v>1.33</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -1032,16 +1152,16 @@
         <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="Q8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="R8" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="S8" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1058,13 +1178,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>6.3</v>
@@ -1079,7 +1199,7 @@
         <v>0.71</v>
       </c>
       <c r="J9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="K9">
         <v>0.71</v>
@@ -1088,7 +1208,7 @@
         <v>1.52</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -1097,16 +1217,16 @@
         <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="Q9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="R9" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1123,13 +1243,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F10">
         <v>1.53</v>
@@ -1144,7 +1264,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>0.85</v>
@@ -1153,7 +1273,7 @@
         <v>1.53</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1162,16 +1282,16 @@
         <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="Q10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="R10" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="S10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1188,13 +1308,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="F11">
         <v>1.22</v>
@@ -1209,7 +1329,7 @@
         <v>0.13</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>0.87</v>
@@ -1218,7 +1338,7 @@
         <v>1.22</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>87</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1227,21 +1347,1256 @@
         <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="Q11" t="s">
+        <v>69</v>
+      </c>
+      <c r="R11" t="s">
+        <v>88</v>
+      </c>
+      <c r="S11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+      <c r="F12">
+        <v>1.78</v>
+      </c>
+      <c r="G12">
+        <v>4.5</v>
+      </c>
+      <c r="H12">
+        <v>0.88</v>
+      </c>
+      <c r="I12">
+        <v>0.12</v>
+      </c>
+      <c r="J12" t="s">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>0.88</v>
+      </c>
+      <c r="L12">
+        <v>1.78</v>
+      </c>
+      <c r="M12" t="s">
+        <v>87</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>70</v>
+      </c>
+      <c r="R12" t="s">
+        <v>88</v>
+      </c>
+      <c r="S12" t="s">
+        <v>44</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13">
+        <v>1.35</v>
+      </c>
+      <c r="G13">
+        <v>8.5</v>
+      </c>
+      <c r="H13">
+        <v>0.88</v>
+      </c>
+      <c r="I13">
+        <v>0.12</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13">
+        <v>0.88</v>
+      </c>
+      <c r="L13">
+        <v>1.35</v>
+      </c>
+      <c r="M13" t="s">
+        <v>87</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14">
+        <v>1.58</v>
+      </c>
+      <c r="G14">
+        <v>7</v>
+      </c>
+      <c r="H14">
+        <v>0.88</v>
+      </c>
+      <c r="I14">
+        <v>0.12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14">
+        <v>0.88</v>
+      </c>
+      <c r="L14">
+        <v>1.58</v>
+      </c>
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>25</v>
+      </c>
+      <c r="P14" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>72</v>
+      </c>
+      <c r="R14" t="s">
+        <v>88</v>
+      </c>
+      <c r="S14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15">
+        <v>1.5</v>
+      </c>
+      <c r="G15">
+        <v>6</v>
+      </c>
+      <c r="H15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I15">
+        <v>0.19</v>
+      </c>
+      <c r="J15" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L15">
+        <v>1.5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>87</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>25</v>
+      </c>
+      <c r="P15" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>73</v>
+      </c>
+      <c r="R15" t="s">
+        <v>88</v>
+      </c>
+      <c r="S15" t="s">
+        <v>47</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>48</v>
       </c>
-      <c r="R11" t="s">
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>11</v>
+      </c>
+      <c r="G16">
+        <v>1.25</v>
+      </c>
+      <c r="H16">
+        <v>0.26</v>
+      </c>
+      <c r="I16">
+        <v>0.74</v>
+      </c>
+      <c r="J16" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16">
+        <v>0.74</v>
+      </c>
+      <c r="L16">
+        <v>1.25</v>
+      </c>
+      <c r="M16" t="s">
+        <v>87</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>25</v>
+      </c>
+      <c r="P16" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>67</v>
+      </c>
+      <c r="R16" t="s">
+        <v>89</v>
+      </c>
+      <c r="S16" t="s">
+        <v>67</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17">
+        <v>5.4</v>
+      </c>
+      <c r="G17">
+        <v>1.52</v>
+      </c>
+      <c r="H17">
+        <v>0.2</v>
+      </c>
+      <c r="I17">
+        <v>0.8</v>
+      </c>
+      <c r="J17" t="s">
+        <v>74</v>
+      </c>
+      <c r="K17">
+        <v>0.8</v>
+      </c>
+      <c r="L17">
+        <v>1.52</v>
+      </c>
+      <c r="M17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N17">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>25</v>
+      </c>
+      <c r="P17" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>74</v>
+      </c>
+      <c r="R17" t="s">
+        <v>88</v>
+      </c>
+      <c r="S17" t="s">
+        <v>49</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>50</v>
       </c>
-      <c r="S11" t="s">
-        <v>38</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
-      </c>
-      <c r="U11">
+      <c r="E18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18">
+        <v>1.33</v>
+      </c>
+      <c r="G18">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H18">
+        <v>0.93</v>
+      </c>
+      <c r="I18">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J18" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18">
+        <v>0.93</v>
+      </c>
+      <c r="L18">
+        <v>1.33</v>
+      </c>
+      <c r="M18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>25</v>
+      </c>
+      <c r="P18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>75</v>
+      </c>
+      <c r="R18" t="s">
+        <v>88</v>
+      </c>
+      <c r="S18" t="s">
+        <v>50</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="G19">
+        <v>1.34</v>
+      </c>
+      <c r="H19">
+        <v>0.35</v>
+      </c>
+      <c r="I19">
+        <v>0.65</v>
+      </c>
+      <c r="J19" t="s">
+        <v>76</v>
+      </c>
+      <c r="K19">
+        <v>0.65</v>
+      </c>
+      <c r="L19">
+        <v>1.34</v>
+      </c>
+      <c r="M19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>25</v>
+      </c>
+      <c r="P19" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>76</v>
+      </c>
+      <c r="R19" t="s">
+        <v>89</v>
+      </c>
+      <c r="S19" t="s">
+        <v>76</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20">
+        <v>1.65</v>
+      </c>
+      <c r="G20">
+        <v>4.65</v>
+      </c>
+      <c r="H20">
+        <v>0.85</v>
+      </c>
+      <c r="I20">
+        <v>0.15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K20">
+        <v>0.85</v>
+      </c>
+      <c r="L20">
+        <v>1.65</v>
+      </c>
+      <c r="M20" t="s">
+        <v>87</v>
+      </c>
+      <c r="N20">
+        <v>3</v>
+      </c>
+      <c r="O20" t="s">
+        <v>25</v>
+      </c>
+      <c r="P20" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S20" t="s">
+        <v>37</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F21">
+        <v>1.43</v>
+      </c>
+      <c r="G21">
+        <v>7.1</v>
+      </c>
+      <c r="H21">
+        <v>0.82</v>
+      </c>
+      <c r="I21">
+        <v>0.18</v>
+      </c>
+      <c r="J21" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21">
+        <v>0.82</v>
+      </c>
+      <c r="L21">
+        <v>1.43</v>
+      </c>
+      <c r="M21" t="s">
+        <v>87</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>25</v>
+      </c>
+      <c r="P21" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>36</v>
+      </c>
+      <c r="R21" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" t="s">
+        <v>52</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22">
+        <v>1.36</v>
+      </c>
+      <c r="G22">
+        <v>8.1</v>
+      </c>
+      <c r="H22">
+        <v>0.83</v>
+      </c>
+      <c r="I22">
+        <v>0.17</v>
+      </c>
+      <c r="J22" t="s">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <v>0.83</v>
+      </c>
+      <c r="L22">
+        <v>1.36</v>
+      </c>
+      <c r="M22" t="s">
+        <v>87</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>25</v>
+      </c>
+      <c r="P22" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>78</v>
+      </c>
+      <c r="R22" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" t="s">
+        <v>53</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23">
+        <v>1.28</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
+      </c>
+      <c r="H23">
+        <v>0.86</v>
+      </c>
+      <c r="I23">
+        <v>0.14</v>
+      </c>
+      <c r="J23" t="s">
+        <v>54</v>
+      </c>
+      <c r="K23">
+        <v>0.86</v>
+      </c>
+      <c r="L23">
+        <v>1.28</v>
+      </c>
+      <c r="M23" t="s">
+        <v>87</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>25</v>
+      </c>
+      <c r="P23" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>79</v>
+      </c>
+      <c r="R23" t="s">
+        <v>88</v>
+      </c>
+      <c r="S23" t="s">
+        <v>54</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>1.63</v>
+      </c>
+      <c r="G24">
+        <v>4.75</v>
+      </c>
+      <c r="H24">
+        <v>0.8</v>
+      </c>
+      <c r="I24">
+        <v>0.2</v>
+      </c>
+      <c r="J24" t="s">
+        <v>55</v>
+      </c>
+      <c r="K24">
+        <v>0.8</v>
+      </c>
+      <c r="L24">
+        <v>1.63</v>
+      </c>
+      <c r="M24" t="s">
+        <v>87</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>25</v>
+      </c>
+      <c r="P24" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>80</v>
+      </c>
+      <c r="R24" t="s">
+        <v>90</v>
+      </c>
+      <c r="S24" t="s">
+        <v>91</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>1.35</v>
+      </c>
+      <c r="G25">
+        <v>8.5</v>
+      </c>
+      <c r="H25">
+        <v>0.9</v>
+      </c>
+      <c r="I25">
+        <v>0.1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>0.9</v>
+      </c>
+      <c r="L25">
+        <v>1.35</v>
+      </c>
+      <c r="M25" t="s">
+        <v>87</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>81</v>
+      </c>
+      <c r="R25" t="s">
+        <v>88</v>
+      </c>
+      <c r="S25" t="s">
+        <v>56</v>
+      </c>
+      <c r="T25">
+        <v>1</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26">
+        <v>1.25</v>
+      </c>
+      <c r="G26">
+        <v>11</v>
+      </c>
+      <c r="H26">
+        <v>0.95</v>
+      </c>
+      <c r="I26">
+        <v>0.05</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>0.95</v>
+      </c>
+      <c r="L26">
+        <v>1.25</v>
+      </c>
+      <c r="M26" t="s">
+        <v>87</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26" t="s">
+        <v>24</v>
+      </c>
+      <c r="P26" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>82</v>
+      </c>
+      <c r="R26" t="s">
+        <v>88</v>
+      </c>
+      <c r="S26" t="s">
+        <v>57</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>1.23</v>
+      </c>
+      <c r="H27">
+        <v>0.24</v>
+      </c>
+      <c r="I27">
+        <v>0.76</v>
+      </c>
+      <c r="J27" t="s">
+        <v>83</v>
+      </c>
+      <c r="K27">
+        <v>0.76</v>
+      </c>
+      <c r="L27">
+        <v>1.23</v>
+      </c>
+      <c r="M27" t="s">
+        <v>87</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>24</v>
+      </c>
+      <c r="P27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>83</v>
+      </c>
+      <c r="R27" t="s">
+        <v>89</v>
+      </c>
+      <c r="S27" t="s">
+        <v>83</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28">
+        <v>1.85</v>
+      </c>
+      <c r="G28">
+        <v>4.1</v>
+      </c>
+      <c r="H28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.19</v>
+      </c>
+      <c r="J28" t="s">
+        <v>59</v>
+      </c>
+      <c r="K28">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L28">
+        <v>1.85</v>
+      </c>
+      <c r="M28" t="s">
+        <v>87</v>
+      </c>
+      <c r="N28">
+        <v>3</v>
+      </c>
+      <c r="O28" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>84</v>
+      </c>
+      <c r="R28" t="s">
+        <v>90</v>
+      </c>
+      <c r="S28" t="s">
+        <v>91</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" t="s">
+        <v>85</v>
+      </c>
+      <c r="F29">
+        <v>1.37</v>
+      </c>
+      <c r="G29">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H29">
+        <v>0.93</v>
+      </c>
+      <c r="I29">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="J29" t="s">
+        <v>60</v>
+      </c>
+      <c r="K29">
+        <v>0.93</v>
+      </c>
+      <c r="L29">
+        <v>1.37</v>
+      </c>
+      <c r="M29" t="s">
+        <v>87</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>24</v>
+      </c>
+      <c r="P29" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>85</v>
+      </c>
+      <c r="R29" t="s">
+        <v>88</v>
+      </c>
+      <c r="S29" t="s">
+        <v>60</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>61</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+      <c r="F30">
+        <v>1.57</v>
+      </c>
+      <c r="G30">
+        <v>6.5</v>
+      </c>
+      <c r="H30">
+        <v>0.83</v>
+      </c>
+      <c r="I30">
+        <v>0.17</v>
+      </c>
+      <c r="J30" t="s">
+        <v>61</v>
+      </c>
+      <c r="K30">
+        <v>0.83</v>
+      </c>
+      <c r="L30">
+        <v>1.57</v>
+      </c>
+      <c r="M30" t="s">
+        <v>87</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P30" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>86</v>
+      </c>
+      <c r="R30" t="s">
+        <v>88</v>
+      </c>
+      <c r="S30" t="s">
+        <v>61</v>
+      </c>
+      <c r="T30">
+        <v>1</v>
+      </c>
+      <c r="U30">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="104">
   <si>
     <t>Date</t>
   </si>
@@ -94,6 +94,15 @@
     <t>2023-09-24</t>
   </si>
   <si>
+    <t>2023-09-25</t>
+  </si>
+  <si>
+    <t>2023-09-26</t>
+  </si>
+  <si>
+    <t>2023-09-27</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
@@ -202,6 +211,21 @@
     <t>Atletico Mineiro</t>
   </si>
   <si>
+    <t>Juventus</t>
+  </si>
+  <si>
+    <t>Internazionale</t>
+  </si>
+  <si>
+    <t>Real Madrid</t>
+  </si>
+  <si>
+    <t>Twente</t>
+  </si>
+  <si>
+    <t>Napoli</t>
+  </si>
+  <si>
     <t>Goias</t>
   </si>
   <si>
@@ -238,15 +262,9 @@
     <t>Boavista</t>
   </si>
   <si>
-    <t>Twente</t>
-  </si>
-  <si>
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Internazionale</t>
-  </si>
-  <si>
     <t>Toulouse</t>
   </si>
   <si>
@@ -275,6 +293,24 @@
   </si>
   <si>
     <t>Cuiaba</t>
+  </si>
+  <si>
+    <t>Rio Ave</t>
+  </si>
+  <si>
+    <t>Lecce</t>
+  </si>
+  <si>
+    <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Las Palmas</t>
+  </si>
+  <si>
+    <t>Vitesse</t>
+  </si>
+  <si>
+    <t>Udinese</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -647,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U30"/>
+  <dimension ref="A1:U36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,13 +759,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="F2">
         <v>1.35</v>
@@ -744,7 +780,7 @@
         <v>0.16</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="K2">
         <v>0.84</v>
@@ -753,7 +789,7 @@
         <v>1.35</v>
       </c>
       <c r="M2" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -762,16 +798,16 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="R2" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -788,13 +824,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -809,7 +845,7 @@
         <v>0.7</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K3">
         <v>0.7</v>
@@ -818,7 +854,7 @@
         <v>1.36</v>
       </c>
       <c r="M3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -827,16 +863,16 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="Q3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="R3" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -853,13 +889,13 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="F4">
         <v>6.7</v>
@@ -874,7 +910,7 @@
         <v>0.68</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="K4">
         <v>0.68</v>
@@ -883,7 +919,7 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -892,16 +928,16 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="R4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -918,13 +954,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F5">
         <v>1.52</v>
@@ -939,7 +975,7 @@
         <v>0.06</v>
       </c>
       <c r="J5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K5">
         <v>0.9399999999999999</v>
@@ -948,7 +984,7 @@
         <v>1.52</v>
       </c>
       <c r="M5" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -957,16 +993,16 @@
         <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="R5" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S5" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -983,13 +1019,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F6">
         <v>1.24</v>
@@ -1004,7 +1040,7 @@
         <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -1013,7 +1049,7 @@
         <v>1.24</v>
       </c>
       <c r="M6" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1022,16 +1058,16 @@
         <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q6" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1048,13 +1084,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F7">
         <v>1.24</v>
@@ -1069,7 +1105,7 @@
         <v>0.16</v>
       </c>
       <c r="J7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K7">
         <v>0.84</v>
@@ -1078,7 +1114,7 @@
         <v>1.24</v>
       </c>
       <c r="M7" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1087,16 +1123,16 @@
         <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q7" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="R7" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1113,13 +1149,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -1134,7 +1170,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K8">
         <v>0.6899999999999999</v>
@@ -1143,7 +1179,7 @@
         <v>1.33</v>
       </c>
       <c r="M8" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -1152,16 +1188,16 @@
         <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="R8" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S8" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1178,13 +1214,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="F9">
         <v>6.3</v>
@@ -1199,7 +1235,7 @@
         <v>0.71</v>
       </c>
       <c r="J9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="K9">
         <v>0.71</v>
@@ -1208,7 +1244,7 @@
         <v>1.52</v>
       </c>
       <c r="M9" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -1217,16 +1253,16 @@
         <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="R9" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S9" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1243,13 +1279,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F10">
         <v>1.53</v>
@@ -1264,7 +1300,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K10">
         <v>0.85</v>
@@ -1273,7 +1309,7 @@
         <v>1.53</v>
       </c>
       <c r="M10" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1282,16 +1318,16 @@
         <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="R10" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1308,13 +1344,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F11">
         <v>1.22</v>
@@ -1329,7 +1365,7 @@
         <v>0.13</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11">
         <v>0.87</v>
@@ -1338,7 +1374,7 @@
         <v>1.22</v>
       </c>
       <c r="M11" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1347,16 +1383,16 @@
         <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="R11" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S11" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1373,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F12">
         <v>1.78</v>
@@ -1394,7 +1430,7 @@
         <v>0.12</v>
       </c>
       <c r="J12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12">
         <v>0.88</v>
@@ -1403,7 +1439,7 @@
         <v>1.78</v>
       </c>
       <c r="M12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1412,16 +1448,16 @@
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="R12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S12" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1438,13 +1474,13 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F13">
         <v>1.35</v>
@@ -1459,7 +1495,7 @@
         <v>0.12</v>
       </c>
       <c r="J13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K13">
         <v>0.88</v>
@@ -1468,7 +1504,7 @@
         <v>1.35</v>
       </c>
       <c r="M13" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1477,16 +1513,16 @@
         <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q13" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="R13" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="S13" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1503,13 +1539,13 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F14">
         <v>1.58</v>
@@ -1524,7 +1560,7 @@
         <v>0.12</v>
       </c>
       <c r="J14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K14">
         <v>0.88</v>
@@ -1533,7 +1569,7 @@
         <v>1.58</v>
       </c>
       <c r="M14" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1542,16 +1578,16 @@
         <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q14" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1568,13 +1604,13 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F15">
         <v>1.5</v>
@@ -1589,7 +1625,7 @@
         <v>0.19</v>
       </c>
       <c r="J15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K15">
         <v>0.8100000000000001</v>
@@ -1598,7 +1634,7 @@
         <v>1.5</v>
       </c>
       <c r="M15" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1607,16 +1643,16 @@
         <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q15" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="R15" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1633,13 +1669,13 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -1654,7 +1690,7 @@
         <v>0.74</v>
       </c>
       <c r="J16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="K16">
         <v>0.74</v>
@@ -1663,7 +1699,7 @@
         <v>1.25</v>
       </c>
       <c r="M16" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1672,16 +1708,16 @@
         <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="R16" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S16" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1698,13 +1734,13 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F17">
         <v>5.4</v>
@@ -1719,7 +1755,7 @@
         <v>0.8</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K17">
         <v>0.8</v>
@@ -1728,7 +1764,7 @@
         <v>1.52</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1737,16 +1773,16 @@
         <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q17" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="R17" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S17" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1763,13 +1799,13 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F18">
         <v>1.33</v>
@@ -1784,7 +1820,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18">
         <v>0.93</v>
@@ -1793,7 +1829,7 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1802,16 +1838,16 @@
         <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q18" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="R18" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S18" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1828,13 +1864,13 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>8.300000000000001</v>
@@ -1849,7 +1885,7 @@
         <v>0.65</v>
       </c>
       <c r="J19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K19">
         <v>0.65</v>
@@ -1858,7 +1894,7 @@
         <v>1.34</v>
       </c>
       <c r="M19" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1867,16 +1903,16 @@
         <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="R19" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="S19" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1893,13 +1929,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F20">
         <v>1.65</v>
@@ -1914,7 +1950,7 @@
         <v>0.15</v>
       </c>
       <c r="J20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K20">
         <v>0.85</v>
@@ -1923,7 +1959,7 @@
         <v>1.65</v>
       </c>
       <c r="M20" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1932,16 +1968,16 @@
         <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="Q20" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="R20" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S20" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -1958,13 +1994,13 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F21">
         <v>1.43</v>
@@ -1979,7 +2015,7 @@
         <v>0.18</v>
       </c>
       <c r="J21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K21">
         <v>0.82</v>
@@ -1988,7 +2024,7 @@
         <v>1.43</v>
       </c>
       <c r="M21" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -1997,16 +2033,16 @@
         <v>25</v>
       </c>
       <c r="P21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="R21" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S21" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2023,13 +2059,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F22">
         <v>1.36</v>
@@ -2044,7 +2080,7 @@
         <v>0.17</v>
       </c>
       <c r="J22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K22">
         <v>0.83</v>
@@ -2053,7 +2089,7 @@
         <v>1.36</v>
       </c>
       <c r="M22" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -2062,16 +2098,16 @@
         <v>25</v>
       </c>
       <c r="P22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q22" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R22" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S22" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2088,13 +2124,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="F23">
         <v>1.28</v>
@@ -2109,7 +2145,7 @@
         <v>0.14</v>
       </c>
       <c r="J23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K23">
         <v>0.86</v>
@@ -2118,7 +2154,7 @@
         <v>1.28</v>
       </c>
       <c r="M23" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -2127,16 +2163,16 @@
         <v>25</v>
       </c>
       <c r="P23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q23" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="R23" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S23" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2153,13 +2189,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F24">
         <v>1.63</v>
@@ -2174,7 +2210,7 @@
         <v>0.2</v>
       </c>
       <c r="J24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K24">
         <v>0.8</v>
@@ -2183,7 +2219,7 @@
         <v>1.63</v>
       </c>
       <c r="M24" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N24">
         <v>3</v>
@@ -2192,16 +2228,16 @@
         <v>25</v>
       </c>
       <c r="P24" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q24" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="R24" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="S24" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2218,13 +2254,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="F25">
         <v>1.35</v>
@@ -2239,7 +2275,7 @@
         <v>0.1</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K25">
         <v>0.9</v>
@@ -2248,7 +2284,7 @@
         <v>1.35</v>
       </c>
       <c r="M25" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -2257,16 +2293,16 @@
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q25" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="R25" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S25" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2283,13 +2319,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>1.25</v>
@@ -2304,7 +2340,7 @@
         <v>0.05</v>
       </c>
       <c r="J26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K26">
         <v>0.95</v>
@@ -2313,7 +2349,7 @@
         <v>1.25</v>
       </c>
       <c r="M26" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -2322,16 +2358,16 @@
         <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q26" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="R26" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2348,13 +2384,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <v>12</v>
@@ -2369,7 +2405,7 @@
         <v>0.76</v>
       </c>
       <c r="J27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K27">
         <v>0.76</v>
@@ -2378,7 +2414,7 @@
         <v>1.23</v>
       </c>
       <c r="M27" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -2387,16 +2423,16 @@
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q27" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="R27" t="s">
+        <v>101</v>
+      </c>
+      <c r="S27" t="s">
         <v>89</v>
-      </c>
-      <c r="S27" t="s">
-        <v>83</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2413,13 +2449,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="F28">
         <v>1.85</v>
@@ -2434,7 +2470,7 @@
         <v>0.19</v>
       </c>
       <c r="J28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K28">
         <v>0.8100000000000001</v>
@@ -2443,7 +2479,7 @@
         <v>1.85</v>
       </c>
       <c r="M28" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -2452,16 +2488,16 @@
         <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q28" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R28" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="S28" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2478,13 +2514,13 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="F29">
         <v>1.37</v>
@@ -2499,7 +2535,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -2508,7 +2544,7 @@
         <v>1.37</v>
       </c>
       <c r="M29" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -2517,16 +2553,16 @@
         <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q29" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="R29" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S29" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2543,13 +2579,13 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="F30">
         <v>1.57</v>
@@ -2564,7 +2600,7 @@
         <v>0.17</v>
       </c>
       <c r="J30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K30">
         <v>0.83</v>
@@ -2573,7 +2609,7 @@
         <v>1.57</v>
       </c>
       <c r="M30" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -2582,21 +2618,411 @@
         <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q30" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="R30" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="S30" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="T30">
         <v>1</v>
       </c>
       <c r="U30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31">
+        <v>1.2</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>0.9</v>
+      </c>
+      <c r="I31">
+        <v>0.1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>46</v>
+      </c>
+      <c r="K31">
+        <v>0.9</v>
+      </c>
+      <c r="L31">
+        <v>1.2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>99</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>26</v>
+      </c>
+      <c r="P31" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>93</v>
+      </c>
+      <c r="R31" t="s">
+        <v>100</v>
+      </c>
+      <c r="S31" t="s">
+        <v>46</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <v>1.52</v>
+      </c>
+      <c r="G32">
+        <v>6.3</v>
+      </c>
+      <c r="H32">
+        <v>0.82</v>
+      </c>
+      <c r="I32">
+        <v>0.18</v>
+      </c>
+      <c r="J32" t="s">
+        <v>65</v>
+      </c>
+      <c r="K32">
+        <v>0.82</v>
+      </c>
+      <c r="L32">
+        <v>1.52</v>
+      </c>
+      <c r="M32" t="s">
+        <v>99</v>
+      </c>
+      <c r="N32">
+        <v>3</v>
+      </c>
+      <c r="O32" t="s">
+        <v>27</v>
+      </c>
+      <c r="P32" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>94</v>
+      </c>
+      <c r="R32" t="s">
+        <v>100</v>
+      </c>
+      <c r="S32" t="s">
+        <v>65</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33">
+        <v>1.32</v>
+      </c>
+      <c r="G33">
+        <v>8.9</v>
+      </c>
+      <c r="H33">
+        <v>0.85</v>
+      </c>
+      <c r="I33">
+        <v>0.15</v>
+      </c>
+      <c r="J33" t="s">
+        <v>66</v>
+      </c>
+      <c r="K33">
+        <v>0.85</v>
+      </c>
+      <c r="L33">
+        <v>1.32</v>
+      </c>
+      <c r="M33" t="s">
+        <v>99</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>28</v>
+      </c>
+      <c r="P33" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>95</v>
+      </c>
+      <c r="R33" t="s">
+        <v>101</v>
+      </c>
+      <c r="S33" t="s">
+        <v>95</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>67</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>1.22</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I34">
+        <v>0.06</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L34">
+        <v>1.22</v>
+      </c>
+      <c r="M34" t="s">
+        <v>99</v>
+      </c>
+      <c r="N34">
+        <v>3</v>
+      </c>
+      <c r="O34" t="s">
+        <v>28</v>
+      </c>
+      <c r="P34" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>96</v>
+      </c>
+      <c r="R34" t="s">
+        <v>100</v>
+      </c>
+      <c r="S34" t="s">
+        <v>67</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35">
+        <v>1.39</v>
+      </c>
+      <c r="G35">
+        <v>7.8</v>
+      </c>
+      <c r="H35">
+        <v>0.8</v>
+      </c>
+      <c r="I35">
+        <v>0.2</v>
+      </c>
+      <c r="J35" t="s">
+        <v>68</v>
+      </c>
+      <c r="K35">
+        <v>0.8</v>
+      </c>
+      <c r="L35">
+        <v>1.39</v>
+      </c>
+      <c r="M35" t="s">
+        <v>99</v>
+      </c>
+      <c r="N35">
+        <v>3</v>
+      </c>
+      <c r="O35" t="s">
+        <v>28</v>
+      </c>
+      <c r="P35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>97</v>
+      </c>
+      <c r="R35" t="s">
+        <v>100</v>
+      </c>
+      <c r="S35" t="s">
+        <v>68</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36">
+        <v>1.38</v>
+      </c>
+      <c r="G36">
+        <v>8.5</v>
+      </c>
+      <c r="H36">
+        <v>0.87</v>
+      </c>
+      <c r="I36">
+        <v>0.13</v>
+      </c>
+      <c r="J36" t="s">
+        <v>69</v>
+      </c>
+      <c r="K36">
+        <v>0.87</v>
+      </c>
+      <c r="L36">
+        <v>1.38</v>
+      </c>
+      <c r="M36" t="s">
+        <v>99</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36" t="s">
+        <v>28</v>
+      </c>
+      <c r="P36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>98</v>
+      </c>
+      <c r="R36" t="s">
+        <v>100</v>
+      </c>
+      <c r="S36" t="s">
+        <v>69</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="107">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,9 @@
     <t>2023-09-27</t>
   </si>
   <si>
+    <t>2023-09-28</t>
+  </si>
+  <si>
     <t xml:space="preserve">SERIE A </t>
   </si>
   <si>
@@ -217,6 +220,9 @@
     <t>Internazionale</t>
   </si>
   <si>
+    <t>AZ Alkmaar</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
@@ -302,6 +308,9 @@
   </si>
   <si>
     <t>Sassuolo</t>
+  </si>
+  <si>
+    <t>Heracles Almelo</t>
   </si>
   <si>
     <t>Las Palmas</t>
@@ -683,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U36"/>
+  <dimension ref="A1:U37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -759,13 +768,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2">
         <v>1.35</v>
@@ -780,7 +789,7 @@
         <v>0.16</v>
       </c>
       <c r="J2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2">
         <v>0.84</v>
@@ -789,7 +798,7 @@
         <v>1.35</v>
       </c>
       <c r="M2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -798,16 +807,16 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="R2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -824,13 +833,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -845,7 +854,7 @@
         <v>0.7</v>
       </c>
       <c r="J3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K3">
         <v>0.7</v>
@@ -854,7 +863,7 @@
         <v>1.36</v>
       </c>
       <c r="M3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -863,16 +872,16 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -889,13 +898,13 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F4">
         <v>6.7</v>
@@ -910,7 +919,7 @@
         <v>0.68</v>
       </c>
       <c r="J4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K4">
         <v>0.68</v>
@@ -919,7 +928,7 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -928,16 +937,16 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S4" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -954,13 +963,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5">
         <v>1.52</v>
@@ -975,7 +984,7 @@
         <v>0.06</v>
       </c>
       <c r="J5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K5">
         <v>0.9399999999999999</v>
@@ -984,7 +993,7 @@
         <v>1.52</v>
       </c>
       <c r="M5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -993,16 +1002,16 @@
         <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1019,13 +1028,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F6">
         <v>1.24</v>
@@ -1040,7 +1049,7 @@
         <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -1049,7 +1058,7 @@
         <v>1.24</v>
       </c>
       <c r="M6" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1058,16 +1067,16 @@
         <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Q6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="R6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1084,13 +1093,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F7">
         <v>1.24</v>
@@ -1105,7 +1114,7 @@
         <v>0.16</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>0.84</v>
@@ -1114,7 +1123,7 @@
         <v>1.24</v>
       </c>
       <c r="M7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1123,16 +1132,16 @@
         <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1149,13 +1158,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -1170,7 +1179,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K8">
         <v>0.6899999999999999</v>
@@ -1179,7 +1188,7 @@
         <v>1.33</v>
       </c>
       <c r="M8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -1188,16 +1197,16 @@
         <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1214,13 +1223,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>6.3</v>
@@ -1235,7 +1244,7 @@
         <v>0.71</v>
       </c>
       <c r="J9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K9">
         <v>0.71</v>
@@ -1244,7 +1253,7 @@
         <v>1.52</v>
       </c>
       <c r="M9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -1253,16 +1262,16 @@
         <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="R9" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1279,13 +1288,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10">
         <v>1.53</v>
@@ -1300,7 +1309,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K10">
         <v>0.85</v>
@@ -1309,7 +1318,7 @@
         <v>1.53</v>
       </c>
       <c r="M10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1318,16 +1327,16 @@
         <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="R10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1344,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F11">
         <v>1.22</v>
@@ -1365,7 +1374,7 @@
         <v>0.13</v>
       </c>
       <c r="J11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K11">
         <v>0.87</v>
@@ -1374,7 +1383,7 @@
         <v>1.22</v>
       </c>
       <c r="M11" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1383,16 +1392,16 @@
         <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="R11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1409,13 +1418,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <v>1.78</v>
@@ -1430,7 +1439,7 @@
         <v>0.12</v>
       </c>
       <c r="J12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K12">
         <v>0.88</v>
@@ -1439,7 +1448,7 @@
         <v>1.78</v>
       </c>
       <c r="M12" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1448,16 +1457,16 @@
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="Q12" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1474,13 +1483,13 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F13">
         <v>1.35</v>
@@ -1495,7 +1504,7 @@
         <v>0.12</v>
       </c>
       <c r="J13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K13">
         <v>0.88</v>
@@ -1504,7 +1513,7 @@
         <v>1.35</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1513,16 +1522,16 @@
         <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q13" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="R13" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S13" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1539,13 +1548,13 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F14">
         <v>1.58</v>
@@ -1560,7 +1569,7 @@
         <v>0.12</v>
       </c>
       <c r="J14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K14">
         <v>0.88</v>
@@ -1569,7 +1578,7 @@
         <v>1.58</v>
       </c>
       <c r="M14" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1578,16 +1587,16 @@
         <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q14" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R14" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1604,13 +1613,13 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F15">
         <v>1.5</v>
@@ -1625,7 +1634,7 @@
         <v>0.19</v>
       </c>
       <c r="J15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K15">
         <v>0.8100000000000001</v>
@@ -1634,7 +1643,7 @@
         <v>1.5</v>
       </c>
       <c r="M15" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1643,16 +1652,16 @@
         <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="Q15" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="R15" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1669,13 +1678,13 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -1690,7 +1699,7 @@
         <v>0.74</v>
       </c>
       <c r="J16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K16">
         <v>0.74</v>
@@ -1699,7 +1708,7 @@
         <v>1.25</v>
       </c>
       <c r="M16" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1708,16 +1717,16 @@
         <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R16" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1734,13 +1743,13 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>5.4</v>
@@ -1755,7 +1764,7 @@
         <v>0.8</v>
       </c>
       <c r="J17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K17">
         <v>0.8</v>
@@ -1764,7 +1773,7 @@
         <v>1.52</v>
       </c>
       <c r="M17" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1773,16 +1782,16 @@
         <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q17" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R17" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1799,13 +1808,13 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18">
         <v>1.33</v>
@@ -1820,7 +1829,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K18">
         <v>0.93</v>
@@ -1829,7 +1838,7 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1838,16 +1847,16 @@
         <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q18" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="R18" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1864,13 +1873,13 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F19">
         <v>8.300000000000001</v>
@@ -1885,7 +1894,7 @@
         <v>0.65</v>
       </c>
       <c r="J19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K19">
         <v>0.65</v>
@@ -1894,7 +1903,7 @@
         <v>1.34</v>
       </c>
       <c r="M19" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1903,16 +1912,16 @@
         <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R19" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S19" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1929,13 +1938,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F20">
         <v>1.65</v>
@@ -1950,7 +1959,7 @@
         <v>0.15</v>
       </c>
       <c r="J20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K20">
         <v>0.85</v>
@@ -1959,7 +1968,7 @@
         <v>1.65</v>
       </c>
       <c r="M20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1968,16 +1977,16 @@
         <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q20" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="R20" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S20" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -1994,13 +2003,13 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F21">
         <v>1.43</v>
@@ -2015,7 +2024,7 @@
         <v>0.18</v>
       </c>
       <c r="J21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K21">
         <v>0.82</v>
@@ -2024,7 +2033,7 @@
         <v>1.43</v>
       </c>
       <c r="M21" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -2033,16 +2042,16 @@
         <v>25</v>
       </c>
       <c r="P21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R21" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2059,13 +2068,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F22">
         <v>1.36</v>
@@ -2080,7 +2089,7 @@
         <v>0.17</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K22">
         <v>0.83</v>
@@ -2089,7 +2098,7 @@
         <v>1.36</v>
       </c>
       <c r="M22" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -2098,16 +2107,16 @@
         <v>25</v>
       </c>
       <c r="P22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q22" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="R22" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2124,13 +2133,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F23">
         <v>1.28</v>
@@ -2145,7 +2154,7 @@
         <v>0.14</v>
       </c>
       <c r="J23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K23">
         <v>0.86</v>
@@ -2154,7 +2163,7 @@
         <v>1.28</v>
       </c>
       <c r="M23" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -2163,16 +2172,16 @@
         <v>25</v>
       </c>
       <c r="P23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q23" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="R23" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2189,13 +2198,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F24">
         <v>1.63</v>
@@ -2210,7 +2219,7 @@
         <v>0.2</v>
       </c>
       <c r="J24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K24">
         <v>0.8</v>
@@ -2219,7 +2228,7 @@
         <v>1.63</v>
       </c>
       <c r="M24" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N24">
         <v>3</v>
@@ -2228,16 +2237,16 @@
         <v>25</v>
       </c>
       <c r="P24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q24" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R24" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S24" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2254,13 +2263,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F25">
         <v>1.35</v>
@@ -2275,7 +2284,7 @@
         <v>0.1</v>
       </c>
       <c r="J25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25">
         <v>0.9</v>
@@ -2284,7 +2293,7 @@
         <v>1.35</v>
       </c>
       <c r="M25" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -2293,16 +2302,16 @@
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q25" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R25" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2319,13 +2328,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F26">
         <v>1.25</v>
@@ -2340,7 +2349,7 @@
         <v>0.05</v>
       </c>
       <c r="J26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="K26">
         <v>0.95</v>
@@ -2349,7 +2358,7 @@
         <v>1.25</v>
       </c>
       <c r="M26" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -2358,16 +2367,16 @@
         <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q26" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R26" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2384,13 +2393,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F27">
         <v>12</v>
@@ -2405,7 +2414,7 @@
         <v>0.76</v>
       </c>
       <c r="J27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K27">
         <v>0.76</v>
@@ -2414,7 +2423,7 @@
         <v>1.23</v>
       </c>
       <c r="M27" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -2423,16 +2432,16 @@
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="R27" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2449,13 +2458,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F28">
         <v>1.85</v>
@@ -2470,7 +2479,7 @@
         <v>0.19</v>
       </c>
       <c r="J28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K28">
         <v>0.8100000000000001</v>
@@ -2479,7 +2488,7 @@
         <v>1.85</v>
       </c>
       <c r="M28" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -2488,16 +2497,16 @@
         <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R28" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="S28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2514,13 +2523,13 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F29">
         <v>1.37</v>
@@ -2535,7 +2544,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -2544,7 +2553,7 @@
         <v>1.37</v>
       </c>
       <c r="M29" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -2553,16 +2562,16 @@
         <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R29" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2579,13 +2588,13 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F30">
         <v>1.57</v>
@@ -2600,7 +2609,7 @@
         <v>0.17</v>
       </c>
       <c r="J30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="K30">
         <v>0.83</v>
@@ -2609,7 +2618,7 @@
         <v>1.57</v>
       </c>
       <c r="M30" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -2618,16 +2627,16 @@
         <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R30" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S30" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -2644,13 +2653,13 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F31">
         <v>1.2</v>
@@ -2665,7 +2674,7 @@
         <v>0.1</v>
       </c>
       <c r="J31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K31">
         <v>0.9</v>
@@ -2674,7 +2683,7 @@
         <v>1.2</v>
       </c>
       <c r="M31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N31">
         <v>3</v>
@@ -2683,16 +2692,16 @@
         <v>26</v>
       </c>
       <c r="P31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="Q31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R31" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2709,13 +2718,13 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F32">
         <v>1.52</v>
@@ -2730,7 +2739,7 @@
         <v>0.18</v>
       </c>
       <c r="J32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K32">
         <v>0.82</v>
@@ -2739,7 +2748,7 @@
         <v>1.52</v>
       </c>
       <c r="M32" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N32">
         <v>3</v>
@@ -2748,16 +2757,16 @@
         <v>27</v>
       </c>
       <c r="P32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q32" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R32" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S32" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2774,13 +2783,13 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>1.32</v>
@@ -2795,7 +2804,7 @@
         <v>0.15</v>
       </c>
       <c r="J33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K33">
         <v>0.85</v>
@@ -2804,7 +2813,7 @@
         <v>1.32</v>
       </c>
       <c r="M33" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -2813,16 +2822,16 @@
         <v>28</v>
       </c>
       <c r="P33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R33" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="S33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -2836,61 +2845,61 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F34">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="G34">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="H34">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="I34">
-        <v>0.06</v>
+        <v>0.13</v>
       </c>
       <c r="J34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="K34">
-        <v>0.9399999999999999</v>
+        <v>0.87</v>
       </c>
       <c r="L34">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="M34" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N34">
         <v>3</v>
       </c>
       <c r="O34" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q34" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="R34" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S34" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -2904,37 +2913,37 @@
         <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F35">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="G35">
-        <v>7.8</v>
+        <v>13</v>
       </c>
       <c r="H35">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I35">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="J35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="K35">
-        <v>0.8</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="L35">
-        <v>1.39</v>
+        <v>1.22</v>
       </c>
       <c r="M35" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N35">
         <v>3</v>
@@ -2943,16 +2952,16 @@
         <v>28</v>
       </c>
       <c r="P35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Q35" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="R35" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S35" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -2969,37 +2978,37 @@
         <v>28</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F36">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="G36">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="H36">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="I36">
-        <v>0.13</v>
+        <v>0.2</v>
       </c>
       <c r="J36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K36">
-        <v>0.87</v>
+        <v>0.8</v>
       </c>
       <c r="L36">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M36" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N36">
         <v>3</v>
@@ -3008,21 +3017,86 @@
         <v>28</v>
       </c>
       <c r="P36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="R36" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="S36" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T36">
         <v>1</v>
       </c>
       <c r="U36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37">
+        <v>1.38</v>
+      </c>
+      <c r="G37">
+        <v>8.5</v>
+      </c>
+      <c r="H37">
+        <v>0.87</v>
+      </c>
+      <c r="I37">
+        <v>0.13</v>
+      </c>
+      <c r="J37" t="s">
+        <v>71</v>
+      </c>
+      <c r="K37">
+        <v>0.87</v>
+      </c>
+      <c r="L37">
+        <v>1.38</v>
+      </c>
+      <c r="M37" t="s">
+        <v>102</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>28</v>
+      </c>
+      <c r="P37" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>101</v>
+      </c>
+      <c r="R37" t="s">
+        <v>103</v>
+      </c>
+      <c r="S37" t="s">
+        <v>71</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="131">
   <si>
     <t>Date</t>
   </si>
@@ -103,6 +103,15 @@
     <t>2023-09-27</t>
   </si>
   <si>
+    <t>2023-10-01</t>
+  </si>
+  <si>
+    <t>2023-09-30</t>
+  </si>
+  <si>
+    <t>2023-09-29</t>
+  </si>
+  <si>
     <t>2023-09-28</t>
   </si>
   <si>
@@ -223,6 +232,42 @@
     <t>AZ Alkmaar</t>
   </si>
   <si>
+    <t>Roma</t>
+  </si>
+  <si>
+    <t>Freiburg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>RWD Molenbeek</t>
+  </si>
+  <si>
+    <t>Union SG</t>
+  </si>
+  <si>
+    <t>Farense</t>
+  </si>
+  <si>
+    <t>Salernitana</t>
+  </si>
+  <si>
+    <t>Wolverhampton Wanderers</t>
+  </si>
+  <si>
+    <t>Newcastle United</t>
+  </si>
+  <si>
+    <t>Manchester United</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Flamengo</t>
+  </si>
+  <si>
     <t>Real Madrid</t>
   </si>
   <si>
@@ -232,6 +277,9 @@
     <t>Napoli</t>
   </si>
   <si>
+    <t>Atletico Madrid</t>
+  </si>
+  <si>
     <t>Goias</t>
   </si>
   <si>
@@ -259,9 +307,6 @@
     <t>Cruzeiro</t>
   </si>
   <si>
-    <t>RWD Molenbeek</t>
-  </si>
-  <si>
     <t>Getafe</t>
   </si>
   <si>
@@ -274,9 +319,6 @@
     <t>Toulouse</t>
   </si>
   <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
     <t>Eupen</t>
   </si>
   <si>
@@ -310,6 +352,33 @@
     <t>Sassuolo</t>
   </si>
   <si>
+    <t>Fortuna Sittard</t>
+  </si>
+  <si>
+    <t>Frosinone</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Charleroi</t>
+  </si>
+  <si>
+    <t>Ajax</t>
+  </si>
+  <si>
+    <t>Burnley</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Bahia</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
     <t>Heracles Almelo</t>
   </si>
   <si>
@@ -320,6 +389,9 @@
   </si>
   <si>
     <t>Udinese</t>
+  </si>
+  <si>
+    <t>Cadiz</t>
   </si>
   <si>
     <t>safest_bet</t>
@@ -692,7 +764,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:U53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -768,13 +840,13 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="F2">
         <v>1.35</v>
@@ -789,7 +861,7 @@
         <v>0.16</v>
       </c>
       <c r="J2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K2">
         <v>0.84</v>
@@ -798,7 +870,7 @@
         <v>1.35</v>
       </c>
       <c r="M2" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N2">
         <v>3</v>
@@ -807,16 +879,16 @@
         <v>20</v>
       </c>
       <c r="P2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="R2" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -833,13 +905,13 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -854,7 +926,7 @@
         <v>0.7</v>
       </c>
       <c r="J3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K3">
         <v>0.7</v>
@@ -863,7 +935,7 @@
         <v>1.36</v>
       </c>
       <c r="M3" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N3">
         <v>3</v>
@@ -872,16 +944,16 @@
         <v>20</v>
       </c>
       <c r="P3" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Q3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="R3" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="T3">
         <v>1</v>
@@ -898,13 +970,13 @@
         <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="F4">
         <v>6.7</v>
@@ -919,7 +991,7 @@
         <v>0.68</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K4">
         <v>0.68</v>
@@ -928,7 +1000,7 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N4">
         <v>3</v>
@@ -937,16 +1009,16 @@
         <v>21</v>
       </c>
       <c r="P4" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="Q4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="R4" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S4" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="T4">
         <v>1</v>
@@ -963,13 +1035,13 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F5">
         <v>1.52</v>
@@ -984,7 +1056,7 @@
         <v>0.06</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K5">
         <v>0.9399999999999999</v>
@@ -993,7 +1065,7 @@
         <v>1.52</v>
       </c>
       <c r="M5" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N5">
         <v>3</v>
@@ -1002,16 +1074,16 @@
         <v>21</v>
       </c>
       <c r="P5" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="R5" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S5" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="T5">
         <v>0</v>
@@ -1028,13 +1100,13 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="F6">
         <v>1.24</v>
@@ -1049,7 +1121,7 @@
         <v>0.1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K6">
         <v>0.9</v>
@@ -1058,7 +1130,7 @@
         <v>1.24</v>
       </c>
       <c r="M6" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N6">
         <v>3</v>
@@ -1067,16 +1139,16 @@
         <v>21</v>
       </c>
       <c r="P6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="Q6" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="R6" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="T6">
         <v>1</v>
@@ -1093,13 +1165,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="F7">
         <v>1.24</v>
@@ -1114,7 +1186,7 @@
         <v>0.16</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K7">
         <v>0.84</v>
@@ -1123,7 +1195,7 @@
         <v>1.24</v>
       </c>
       <c r="M7" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N7">
         <v>3</v>
@@ -1132,16 +1204,16 @@
         <v>21</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="Q7" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="R7" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S7" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="T7">
         <v>1</v>
@@ -1158,13 +1230,13 @@
         <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F8">
         <v>8</v>
@@ -1179,7 +1251,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>0.6899999999999999</v>
@@ -1188,7 +1260,7 @@
         <v>1.33</v>
       </c>
       <c r="M8" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N8">
         <v>3</v>
@@ -1197,16 +1269,16 @@
         <v>21</v>
       </c>
       <c r="P8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="Q8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="R8" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S8" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="T8">
         <v>1</v>
@@ -1223,13 +1295,13 @@
         <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="F9">
         <v>6.3</v>
@@ -1244,7 +1316,7 @@
         <v>0.71</v>
       </c>
       <c r="J9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="K9">
         <v>0.71</v>
@@ -1253,7 +1325,7 @@
         <v>1.52</v>
       </c>
       <c r="M9" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N9">
         <v>3</v>
@@ -1262,16 +1334,16 @@
         <v>22</v>
       </c>
       <c r="P9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="R9" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S9" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="T9">
         <v>1</v>
@@ -1288,13 +1360,13 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F10">
         <v>1.53</v>
@@ -1309,7 +1381,7 @@
         <v>0.15</v>
       </c>
       <c r="J10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K10">
         <v>0.85</v>
@@ -1318,7 +1390,7 @@
         <v>1.53</v>
       </c>
       <c r="M10" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N10">
         <v>3</v>
@@ -1327,16 +1399,16 @@
         <v>22</v>
       </c>
       <c r="P10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="Q10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="R10" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -1353,13 +1425,13 @@
         <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="F11">
         <v>1.22</v>
@@ -1374,7 +1446,7 @@
         <v>0.13</v>
       </c>
       <c r="J11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K11">
         <v>0.87</v>
@@ -1383,7 +1455,7 @@
         <v>1.22</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N11">
         <v>3</v>
@@ -1392,16 +1464,16 @@
         <v>22</v>
       </c>
       <c r="P11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q11" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="R11" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S11" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T11">
         <v>1</v>
@@ -1418,13 +1490,13 @@
         <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F12">
         <v>1.78</v>
@@ -1439,7 +1511,7 @@
         <v>0.12</v>
       </c>
       <c r="J12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K12">
         <v>0.88</v>
@@ -1448,7 +1520,7 @@
         <v>1.78</v>
       </c>
       <c r="M12" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N12">
         <v>3</v>
@@ -1457,16 +1529,16 @@
         <v>23</v>
       </c>
       <c r="P12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="Q12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="R12" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S12" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="T12">
         <v>1</v>
@@ -1483,13 +1555,13 @@
         <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="F13">
         <v>1.35</v>
@@ -1504,7 +1576,7 @@
         <v>0.12</v>
       </c>
       <c r="J13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K13">
         <v>0.88</v>
@@ -1513,7 +1585,7 @@
         <v>1.35</v>
       </c>
       <c r="M13" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N13">
         <v>3</v>
@@ -1522,16 +1594,16 @@
         <v>24</v>
       </c>
       <c r="P13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="Q13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="R13" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="S13" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="T13">
         <v>0</v>
@@ -1548,13 +1620,13 @@
         <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="F14">
         <v>1.58</v>
@@ -1569,7 +1641,7 @@
         <v>0.12</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K14">
         <v>0.88</v>
@@ -1578,7 +1650,7 @@
         <v>1.58</v>
       </c>
       <c r="M14" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N14">
         <v>3</v>
@@ -1587,16 +1659,16 @@
         <v>25</v>
       </c>
       <c r="P14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="R14" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S14" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="T14">
         <v>1</v>
@@ -1613,13 +1685,13 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="F15">
         <v>1.5</v>
@@ -1634,7 +1706,7 @@
         <v>0.19</v>
       </c>
       <c r="J15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K15">
         <v>0.8100000000000001</v>
@@ -1643,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="M15" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>3</v>
@@ -1652,16 +1724,16 @@
         <v>25</v>
       </c>
       <c r="P15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="Q15" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="R15" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="T15">
         <v>1</v>
@@ -1678,13 +1750,13 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="F16">
         <v>11</v>
@@ -1699,7 +1771,7 @@
         <v>0.74</v>
       </c>
       <c r="J16" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>0.74</v>
@@ -1708,7 +1780,7 @@
         <v>1.25</v>
       </c>
       <c r="M16" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N16">
         <v>3</v>
@@ -1717,16 +1789,16 @@
         <v>25</v>
       </c>
       <c r="P16" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="Q16" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="R16" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S16" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="T16">
         <v>1</v>
@@ -1743,13 +1815,13 @@
         <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F17">
         <v>5.4</v>
@@ -1764,7 +1836,7 @@
         <v>0.8</v>
       </c>
       <c r="J17" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="K17">
         <v>0.8</v>
@@ -1773,7 +1845,7 @@
         <v>1.52</v>
       </c>
       <c r="M17" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N17">
         <v>3</v>
@@ -1782,16 +1854,16 @@
         <v>25</v>
       </c>
       <c r="P17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="Q17" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="R17" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S17" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="T17">
         <v>0</v>
@@ -1808,13 +1880,13 @@
         <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F18">
         <v>1.33</v>
@@ -1829,7 +1901,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K18">
         <v>0.93</v>
@@ -1838,7 +1910,7 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N18">
         <v>3</v>
@@ -1847,16 +1919,16 @@
         <v>25</v>
       </c>
       <c r="P18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="Q18" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="R18" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S18" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -1873,13 +1945,13 @@
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F19">
         <v>8.300000000000001</v>
@@ -1894,7 +1966,7 @@
         <v>0.65</v>
       </c>
       <c r="J19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K19">
         <v>0.65</v>
@@ -1903,7 +1975,7 @@
         <v>1.34</v>
       </c>
       <c r="M19" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N19">
         <v>3</v>
@@ -1912,16 +1984,16 @@
         <v>25</v>
       </c>
       <c r="P19" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="Q19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="R19" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S19" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -1938,13 +2010,13 @@
         <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>1.65</v>
@@ -1959,7 +2031,7 @@
         <v>0.15</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K20">
         <v>0.85</v>
@@ -1968,7 +2040,7 @@
         <v>1.65</v>
       </c>
       <c r="M20" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N20">
         <v>3</v>
@@ -1977,16 +2049,16 @@
         <v>25</v>
       </c>
       <c r="P20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="Q20" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="R20" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2003,13 +2075,13 @@
         <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F21">
         <v>1.43</v>
@@ -2024,7 +2096,7 @@
         <v>0.18</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K21">
         <v>0.82</v>
@@ -2033,7 +2105,7 @@
         <v>1.43</v>
       </c>
       <c r="M21" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -2042,16 +2114,16 @@
         <v>25</v>
       </c>
       <c r="P21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="Q21" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="R21" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S21" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2068,13 +2140,13 @@
         <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F22">
         <v>1.36</v>
@@ -2089,7 +2161,7 @@
         <v>0.17</v>
       </c>
       <c r="J22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K22">
         <v>0.83</v>
@@ -2098,7 +2170,7 @@
         <v>1.36</v>
       </c>
       <c r="M22" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N22">
         <v>3</v>
@@ -2107,16 +2179,16 @@
         <v>25</v>
       </c>
       <c r="P22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q22" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="R22" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="T22">
         <v>1</v>
@@ -2133,13 +2205,13 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="F23">
         <v>1.28</v>
@@ -2154,7 +2226,7 @@
         <v>0.14</v>
       </c>
       <c r="J23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K23">
         <v>0.86</v>
@@ -2163,7 +2235,7 @@
         <v>1.28</v>
       </c>
       <c r="M23" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N23">
         <v>3</v>
@@ -2172,16 +2244,16 @@
         <v>25</v>
       </c>
       <c r="P23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q23" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="R23" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S23" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T23">
         <v>1</v>
@@ -2198,13 +2270,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="F24">
         <v>1.63</v>
@@ -2219,7 +2291,7 @@
         <v>0.2</v>
       </c>
       <c r="J24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K24">
         <v>0.8</v>
@@ -2228,7 +2300,7 @@
         <v>1.63</v>
       </c>
       <c r="M24" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N24">
         <v>3</v>
@@ -2237,16 +2309,16 @@
         <v>25</v>
       </c>
       <c r="P24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q24" t="s">
-        <v>88</v>
+        <v>102</v>
       </c>
       <c r="R24" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="S24" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="T24">
         <v>0</v>
@@ -2263,13 +2335,13 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="F25">
         <v>1.35</v>
@@ -2284,7 +2356,7 @@
         <v>0.1</v>
       </c>
       <c r="J25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K25">
         <v>0.9</v>
@@ -2293,7 +2365,7 @@
         <v>1.35</v>
       </c>
       <c r="M25" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N25">
         <v>3</v>
@@ -2302,16 +2374,16 @@
         <v>24</v>
       </c>
       <c r="P25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q25" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="R25" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="T25">
         <v>1</v>
@@ -2328,13 +2400,13 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="F26">
         <v>1.25</v>
@@ -2349,7 +2421,7 @@
         <v>0.05</v>
       </c>
       <c r="J26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K26">
         <v>0.95</v>
@@ -2358,7 +2430,7 @@
         <v>1.25</v>
       </c>
       <c r="M26" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N26">
         <v>3</v>
@@ -2367,16 +2439,16 @@
         <v>24</v>
       </c>
       <c r="P26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="Q26" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="R26" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="T26">
         <v>1</v>
@@ -2393,13 +2465,13 @@
         <v>24</v>
       </c>
       <c r="C27" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E27" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="F27">
         <v>12</v>
@@ -2414,7 +2486,7 @@
         <v>0.76</v>
       </c>
       <c r="J27" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="K27">
         <v>0.76</v>
@@ -2423,7 +2495,7 @@
         <v>1.23</v>
       </c>
       <c r="M27" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N27">
         <v>3</v>
@@ -2432,16 +2504,16 @@
         <v>24</v>
       </c>
       <c r="P27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="Q27" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="R27" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S27" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="T27">
         <v>1</v>
@@ -2458,13 +2530,13 @@
         <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="F28">
         <v>1.85</v>
@@ -2479,7 +2551,7 @@
         <v>0.19</v>
       </c>
       <c r="J28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K28">
         <v>0.8100000000000001</v>
@@ -2488,7 +2560,7 @@
         <v>1.85</v>
       </c>
       <c r="M28" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N28">
         <v>3</v>
@@ -2497,16 +2569,16 @@
         <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="Q28" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="R28" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="S28" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -2523,13 +2595,13 @@
         <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="F29">
         <v>1.37</v>
@@ -2544,7 +2616,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="J29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K29">
         <v>0.93</v>
@@ -2553,7 +2625,7 @@
         <v>1.37</v>
       </c>
       <c r="M29" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N29">
         <v>3</v>
@@ -2562,16 +2634,16 @@
         <v>24</v>
       </c>
       <c r="P29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q29" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="R29" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="T29">
         <v>1</v>
@@ -2588,13 +2660,13 @@
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E30" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="F30">
         <v>1.57</v>
@@ -2609,7 +2681,7 @@
         <v>0.17</v>
       </c>
       <c r="J30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K30">
         <v>0.83</v>
@@ -2618,7 +2690,7 @@
         <v>1.57</v>
       </c>
       <c r="M30" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N30">
         <v>3</v>
@@ -2627,16 +2699,16 @@
         <v>24</v>
       </c>
       <c r="P30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q30" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="R30" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="T30">
         <v>1</v>
@@ -2653,13 +2725,13 @@
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="F31">
         <v>1.2</v>
@@ -2674,7 +2746,7 @@
         <v>0.1</v>
       </c>
       <c r="J31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K31">
         <v>0.9</v>
@@ -2683,7 +2755,7 @@
         <v>1.2</v>
       </c>
       <c r="M31" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N31">
         <v>3</v>
@@ -2692,16 +2764,16 @@
         <v>26</v>
       </c>
       <c r="P31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="Q31" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="R31" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S31" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="T31">
         <v>1</v>
@@ -2718,13 +2790,13 @@
         <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E32" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="F32">
         <v>1.52</v>
@@ -2739,7 +2811,7 @@
         <v>0.18</v>
       </c>
       <c r="J32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K32">
         <v>0.82</v>
@@ -2748,7 +2820,7 @@
         <v>1.52</v>
       </c>
       <c r="M32" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N32">
         <v>3</v>
@@ -2757,16 +2829,16 @@
         <v>27</v>
       </c>
       <c r="P32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q32" t="s">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="R32" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S32" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="T32">
         <v>1</v>
@@ -2783,13 +2855,13 @@
         <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>1.32</v>
@@ -2804,7 +2876,7 @@
         <v>0.15</v>
       </c>
       <c r="J33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K33">
         <v>0.85</v>
@@ -2813,7 +2885,7 @@
         <v>1.32</v>
       </c>
       <c r="M33" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N33">
         <v>3</v>
@@ -2822,16 +2894,16 @@
         <v>28</v>
       </c>
       <c r="P33" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="Q33" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="R33" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="S33" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="T33">
         <v>0</v>
@@ -2848,37 +2920,37 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="F34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="G34">
         <v>10.5</v>
       </c>
       <c r="H34">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="I34">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="J34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K34">
-        <v>0.87</v>
+        <v>0.89</v>
       </c>
       <c r="L34">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="M34" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N34">
         <v>3</v>
@@ -2887,19 +2959,19 @@
         <v>29</v>
       </c>
       <c r="P34" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="Q34" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="R34" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="S34" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U34">
         <v>1</v>
@@ -2910,58 +2982,58 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="F35">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="G35">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="H35">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="I35">
-        <v>0.06</v>
+        <v>0.1</v>
       </c>
       <c r="J35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K35">
-        <v>0.9399999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="L35">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="M35" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N35">
         <v>3</v>
       </c>
       <c r="O35" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="Q35" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="R35" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S35" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="T35">
         <v>1</v>
@@ -2975,58 +3047,58 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="F36">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="G36">
-        <v>7.8</v>
+        <v>4.5</v>
       </c>
       <c r="H36">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="I36">
-        <v>0.2</v>
+        <v>0.11</v>
       </c>
       <c r="J36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K36">
-        <v>0.8</v>
+        <v>0.89</v>
       </c>
       <c r="L36">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="M36" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="N36">
         <v>3</v>
       </c>
       <c r="O36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="P36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Q36" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="R36" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="S36" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="T36">
         <v>1</v>
@@ -3040,63 +3112,1103 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>74</v>
+      </c>
+      <c r="E37" t="s">
+        <v>114</v>
+      </c>
+      <c r="F37">
+        <v>1.52</v>
+      </c>
+      <c r="G37">
+        <v>5.9</v>
+      </c>
+      <c r="H37">
+        <v>0.89</v>
+      </c>
+      <c r="I37">
+        <v>0.11</v>
+      </c>
+      <c r="J37" t="s">
+        <v>74</v>
+      </c>
+      <c r="K37">
+        <v>0.89</v>
+      </c>
+      <c r="L37">
+        <v>1.52</v>
+      </c>
+      <c r="M37" t="s">
+        <v>126</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>114</v>
+      </c>
+      <c r="R37" t="s">
+        <v>127</v>
+      </c>
+      <c r="S37" t="s">
+        <v>74</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" t="s">
+        <v>75</v>
+      </c>
+      <c r="E38" t="s">
+        <v>61</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+      <c r="G38">
+        <v>1.63</v>
+      </c>
+      <c r="H38">
+        <v>0.32</v>
+      </c>
+      <c r="I38">
+        <v>0.68</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+      <c r="K38">
+        <v>0.68</v>
+      </c>
+      <c r="L38">
+        <v>1.63</v>
+      </c>
+      <c r="M38" t="s">
+        <v>126</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>61</v>
+      </c>
+      <c r="R38" t="s">
+        <v>129</v>
+      </c>
+      <c r="S38" t="s">
+        <v>130</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39">
+        <v>1.66</v>
+      </c>
+      <c r="G39">
+        <v>4.75</v>
+      </c>
+      <c r="H39">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I39">
+        <v>0.19</v>
+      </c>
+      <c r="J39" t="s">
+        <v>76</v>
+      </c>
+      <c r="K39">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L39">
+        <v>1.66</v>
+      </c>
+      <c r="M39" t="s">
+        <v>126</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>115</v>
+      </c>
+      <c r="R39" t="s">
+        <v>127</v>
+      </c>
+      <c r="S39" t="s">
+        <v>76</v>
+      </c>
+      <c r="T39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" t="s">
+        <v>77</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40">
+        <v>7.5</v>
+      </c>
+      <c r="G40">
+        <v>1.4</v>
+      </c>
+      <c r="H40">
+        <v>0.31</v>
+      </c>
+      <c r="I40">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="J40" t="s">
+        <v>50</v>
+      </c>
+      <c r="K40">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L40">
+        <v>1.4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>126</v>
+      </c>
+      <c r="N40">
+        <v>3</v>
+      </c>
+      <c r="O40" t="s">
+        <v>30</v>
+      </c>
+      <c r="P40" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>50</v>
+      </c>
+      <c r="R40" t="s">
+        <v>128</v>
+      </c>
+      <c r="S40" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40">
+        <v>1</v>
+      </c>
+      <c r="U40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" t="s">
+        <v>116</v>
+      </c>
+      <c r="F41">
+        <v>4.7</v>
+      </c>
+      <c r="G41">
+        <v>1.58</v>
+      </c>
+      <c r="H41">
+        <v>0.33</v>
+      </c>
+      <c r="I41">
+        <v>0.67</v>
+      </c>
+      <c r="J41" t="s">
+        <v>116</v>
+      </c>
+      <c r="K41">
+        <v>0.67</v>
+      </c>
+      <c r="L41">
+        <v>1.58</v>
+      </c>
+      <c r="M41" t="s">
+        <v>126</v>
+      </c>
+      <c r="N41">
+        <v>3</v>
+      </c>
+      <c r="O41" t="s">
+        <v>30</v>
+      </c>
+      <c r="P41" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>116</v>
+      </c>
+      <c r="R41" t="s">
+        <v>128</v>
+      </c>
+      <c r="S41" t="s">
+        <v>116</v>
+      </c>
+      <c r="T41">
+        <v>1</v>
+      </c>
+      <c r="U41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42">
+        <v>6.9</v>
+      </c>
+      <c r="G42">
+        <v>1.44</v>
+      </c>
+      <c r="H42">
+        <v>0.23</v>
+      </c>
+      <c r="I42">
+        <v>0.77</v>
+      </c>
+      <c r="J42" t="s">
+        <v>70</v>
+      </c>
+      <c r="K42">
+        <v>0.77</v>
+      </c>
+      <c r="L42">
+        <v>1.44</v>
+      </c>
+      <c r="M42" t="s">
+        <v>126</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>30</v>
+      </c>
+      <c r="P42" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>70</v>
+      </c>
+      <c r="R42" t="s">
+        <v>128</v>
+      </c>
+      <c r="S42" t="s">
+        <v>70</v>
+      </c>
+      <c r="T42">
+        <v>1</v>
+      </c>
+      <c r="U42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" t="s">
+        <v>79</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="G43">
+        <v>1.35</v>
+      </c>
+      <c r="H43">
+        <v>0.21</v>
+      </c>
+      <c r="I43">
+        <v>0.79</v>
+      </c>
+      <c r="J43" t="s">
+        <v>89</v>
+      </c>
+      <c r="K43">
+        <v>0.79</v>
+      </c>
+      <c r="L43">
+        <v>1.35</v>
+      </c>
+      <c r="M43" t="s">
+        <v>126</v>
+      </c>
+      <c r="N43">
+        <v>3</v>
+      </c>
+      <c r="O43" t="s">
+        <v>30</v>
+      </c>
+      <c r="P43" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>89</v>
+      </c>
+      <c r="R43" t="s">
+        <v>127</v>
+      </c>
+      <c r="S43" t="s">
+        <v>79</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" t="s">
+        <v>80</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44">
+        <v>1.31</v>
+      </c>
+      <c r="G44">
+        <v>10.5</v>
+      </c>
+      <c r="H44">
+        <v>0.92</v>
+      </c>
+      <c r="I44">
+        <v>0.08</v>
+      </c>
+      <c r="J44" t="s">
+        <v>80</v>
+      </c>
+      <c r="K44">
+        <v>0.92</v>
+      </c>
+      <c r="L44">
+        <v>1.31</v>
+      </c>
+      <c r="M44" t="s">
+        <v>126</v>
+      </c>
+      <c r="N44">
+        <v>3</v>
+      </c>
+      <c r="O44" t="s">
+        <v>30</v>
+      </c>
+      <c r="P44" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>117</v>
+      </c>
+      <c r="R44" t="s">
+        <v>127</v>
+      </c>
+      <c r="S44" t="s">
+        <v>80</v>
+      </c>
+      <c r="T44">
+        <v>1</v>
+      </c>
+      <c r="U44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>30</v>
+      </c>
+      <c r="C45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45">
+        <v>1.58</v>
+      </c>
+      <c r="G45">
+        <v>5.9</v>
+      </c>
+      <c r="H45">
+        <v>0.8</v>
+      </c>
+      <c r="I45">
+        <v>0.2</v>
+      </c>
+      <c r="J45" t="s">
+        <v>81</v>
+      </c>
+      <c r="K45">
+        <v>0.8</v>
+      </c>
+      <c r="L45">
+        <v>1.58</v>
+      </c>
+      <c r="M45" t="s">
+        <v>126</v>
+      </c>
+      <c r="N45">
+        <v>3</v>
+      </c>
+      <c r="O45" t="s">
+        <v>30</v>
+      </c>
+      <c r="P45" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>118</v>
+      </c>
+      <c r="R45" t="s">
+        <v>128</v>
+      </c>
+      <c r="S45" t="s">
+        <v>118</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" t="s">
+        <v>82</v>
+      </c>
+      <c r="E46" t="s">
+        <v>94</v>
+      </c>
+      <c r="F46">
+        <v>6.1</v>
+      </c>
+      <c r="G46">
+        <v>1.52</v>
+      </c>
+      <c r="H46">
+        <v>0.24</v>
+      </c>
+      <c r="I46">
+        <v>0.76</v>
+      </c>
+      <c r="J46" t="s">
+        <v>94</v>
+      </c>
+      <c r="K46">
+        <v>0.76</v>
+      </c>
+      <c r="L46">
+        <v>1.52</v>
+      </c>
+      <c r="M46" t="s">
+        <v>126</v>
+      </c>
+      <c r="N46">
+        <v>3</v>
+      </c>
+      <c r="O46" t="s">
+        <v>30</v>
+      </c>
+      <c r="P46" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>94</v>
+      </c>
+      <c r="R46" t="s">
+        <v>128</v>
+      </c>
+      <c r="S46" t="s">
+        <v>94</v>
+      </c>
+      <c r="T46">
+        <v>1</v>
+      </c>
+      <c r="U46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>83</v>
+      </c>
+      <c r="E47" t="s">
+        <v>119</v>
+      </c>
+      <c r="F47">
+        <v>1.55</v>
+      </c>
+      <c r="G47">
+        <v>5.5</v>
+      </c>
+      <c r="H47">
+        <v>0.83</v>
+      </c>
+      <c r="I47">
+        <v>0.17</v>
+      </c>
+      <c r="J47" t="s">
+        <v>83</v>
+      </c>
+      <c r="K47">
+        <v>0.83</v>
+      </c>
+      <c r="L47">
+        <v>1.55</v>
+      </c>
+      <c r="M47" t="s">
+        <v>126</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>30</v>
+      </c>
+      <c r="P47" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>119</v>
+      </c>
+      <c r="R47" t="s">
+        <v>127</v>
+      </c>
+      <c r="S47" t="s">
+        <v>83</v>
+      </c>
+      <c r="T47">
+        <v>1</v>
+      </c>
+      <c r="U47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>120</v>
+      </c>
+      <c r="F48">
+        <v>1.36</v>
+      </c>
+      <c r="G48">
+        <v>8.5</v>
+      </c>
+      <c r="H48">
+        <v>0.88</v>
+      </c>
+      <c r="I48">
+        <v>0.12</v>
+      </c>
+      <c r="J48" t="s">
+        <v>63</v>
+      </c>
+      <c r="K48">
+        <v>0.88</v>
+      </c>
+      <c r="L48">
+        <v>1.36</v>
+      </c>
+      <c r="M48" t="s">
+        <v>126</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>31</v>
+      </c>
+      <c r="P48" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>120</v>
+      </c>
+      <c r="R48" t="s">
+        <v>127</v>
+      </c>
+      <c r="S48" t="s">
+        <v>63</v>
+      </c>
+      <c r="T48">
+        <v>1</v>
+      </c>
+      <c r="U48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>71</v>
+      </c>
+      <c r="E49" t="s">
+        <v>121</v>
+      </c>
+      <c r="F49">
+        <v>1.27</v>
+      </c>
+      <c r="G49">
+        <v>10.5</v>
+      </c>
+      <c r="H49">
+        <v>0.87</v>
+      </c>
+      <c r="I49">
+        <v>0.13</v>
+      </c>
+      <c r="J49" t="s">
+        <v>71</v>
+      </c>
+      <c r="K49">
+        <v>0.87</v>
+      </c>
+      <c r="L49">
+        <v>1.27</v>
+      </c>
+      <c r="M49" t="s">
+        <v>126</v>
+      </c>
+      <c r="N49">
+        <v>3</v>
+      </c>
+      <c r="O49" t="s">
+        <v>32</v>
+      </c>
+      <c r="P49" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>121</v>
+      </c>
+      <c r="R49" t="s">
+        <v>129</v>
+      </c>
+      <c r="S49" t="s">
+        <v>130</v>
+      </c>
+      <c r="T49">
+        <v>0</v>
+      </c>
+      <c r="U49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
         <v>28</v>
       </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37">
+      <c r="C50" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" t="s">
+        <v>84</v>
+      </c>
+      <c r="E50" t="s">
+        <v>122</v>
+      </c>
+      <c r="F50">
+        <v>1.22</v>
+      </c>
+      <c r="G50">
+        <v>13</v>
+      </c>
+      <c r="H50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="I50">
+        <v>0.06</v>
+      </c>
+      <c r="J50" t="s">
+        <v>84</v>
+      </c>
+      <c r="K50">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="L50">
+        <v>1.22</v>
+      </c>
+      <c r="M50" t="s">
+        <v>126</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>28</v>
+      </c>
+      <c r="P50" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>122</v>
+      </c>
+      <c r="R50" t="s">
+        <v>127</v>
+      </c>
+      <c r="S50" t="s">
+        <v>84</v>
+      </c>
+      <c r="T50">
+        <v>1</v>
+      </c>
+      <c r="U50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" t="s">
+        <v>123</v>
+      </c>
+      <c r="F51">
+        <v>1.39</v>
+      </c>
+      <c r="G51">
+        <v>7.8</v>
+      </c>
+      <c r="H51">
+        <v>0.8</v>
+      </c>
+      <c r="I51">
+        <v>0.2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>85</v>
+      </c>
+      <c r="K51">
+        <v>0.8</v>
+      </c>
+      <c r="L51">
+        <v>1.39</v>
+      </c>
+      <c r="M51" t="s">
+        <v>126</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>28</v>
+      </c>
+      <c r="P51" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>123</v>
+      </c>
+      <c r="R51" t="s">
+        <v>127</v>
+      </c>
+      <c r="S51" t="s">
+        <v>85</v>
+      </c>
+      <c r="T51">
+        <v>1</v>
+      </c>
+      <c r="U51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" t="s">
+        <v>33</v>
+      </c>
+      <c r="D52" t="s">
+        <v>86</v>
+      </c>
+      <c r="E52" t="s">
+        <v>124</v>
+      </c>
+      <c r="F52">
         <v>1.38</v>
       </c>
-      <c r="G37">
+      <c r="G52">
         <v>8.5</v>
       </c>
-      <c r="H37">
+      <c r="H52">
         <v>0.87</v>
       </c>
-      <c r="I37">
+      <c r="I52">
         <v>0.13</v>
       </c>
-      <c r="J37" t="s">
-        <v>71</v>
-      </c>
-      <c r="K37">
+      <c r="J52" t="s">
+        <v>86</v>
+      </c>
+      <c r="K52">
         <v>0.87</v>
       </c>
-      <c r="L37">
+      <c r="L52">
         <v>1.38</v>
       </c>
-      <c r="M37" t="s">
-        <v>102</v>
-      </c>
-      <c r="N37">
-        <v>3</v>
-      </c>
-      <c r="O37" t="s">
+      <c r="M52" t="s">
+        <v>126</v>
+      </c>
+      <c r="N52">
+        <v>3</v>
+      </c>
+      <c r="O52" t="s">
         <v>28</v>
       </c>
-      <c r="P37" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>101</v>
-      </c>
-      <c r="R37" t="s">
-        <v>103</v>
-      </c>
-      <c r="S37" t="s">
-        <v>71</v>
-      </c>
-      <c r="T37">
-        <v>1</v>
-      </c>
-      <c r="U37">
+      <c r="P52" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>124</v>
+      </c>
+      <c r="R52" t="s">
+        <v>127</v>
+      </c>
+      <c r="S52" t="s">
+        <v>86</v>
+      </c>
+      <c r="T52">
+        <v>1</v>
+      </c>
+      <c r="U52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="s">
+        <v>40</v>
+      </c>
+      <c r="D53" t="s">
+        <v>87</v>
+      </c>
+      <c r="E53" t="s">
+        <v>125</v>
+      </c>
+      <c r="F53">
+        <v>1.3</v>
+      </c>
+      <c r="G53">
+        <v>9.5</v>
+      </c>
+      <c r="H53">
+        <v>0.92</v>
+      </c>
+      <c r="I53">
+        <v>0.08</v>
+      </c>
+      <c r="J53" t="s">
+        <v>87</v>
+      </c>
+      <c r="K53">
+        <v>0.92</v>
+      </c>
+      <c r="L53">
+        <v>1.3</v>
+      </c>
+      <c r="M53" t="s">
+        <v>126</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>29</v>
+      </c>
+      <c r="P53" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>125</v>
+      </c>
+      <c r="R53" t="s">
+        <v>127</v>
+      </c>
+      <c r="S53" t="s">
+        <v>87</v>
+      </c>
+      <c r="T53">
+        <v>1</v>
+      </c>
+      <c r="U53">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U53"/>
+  <dimension ref="A1:U67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5059,6 +5059,1220 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I54" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N54" t="n">
+        <v>3</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>Bahia</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>Palmeiras</t>
+        </is>
+      </c>
+      <c r="T54" t="n">
+        <v>1</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="G55" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H55" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I55" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Nantes</t>
+        </is>
+      </c>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S55" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="T55" t="n">
+        <v>1</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G56" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H56" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N56" t="n">
+        <v>3</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Juventus</t>
+        </is>
+      </c>
+      <c r="T56" t="n">
+        <v>1</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H57" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I57" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L57" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N57" t="n">
+        <v>3</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="Q57" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="T57" t="n">
+        <v>1</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G58" t="n">
+        <v>7</v>
+      </c>
+      <c r="H58" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N58" t="n">
+        <v>3</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>Internacional</t>
+        </is>
+      </c>
+      <c r="Q58" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S58" t="inlineStr">
+        <is>
+          <t>Coritiba</t>
+        </is>
+      </c>
+      <c r="T58" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G59" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="H59" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I59" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N59" t="n">
+        <v>3</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>Nottingham Forest</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S59" t="inlineStr">
+        <is>
+          <t>Liverpool</t>
+        </is>
+      </c>
+      <c r="T59" t="n">
+        <v>1</v>
+      </c>
+      <c r="U59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="G60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H60" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I60" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N60" t="n">
+        <v>3</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>Brest</t>
+        </is>
+      </c>
+      <c r="Q60" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S60" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="T60" t="n">
+        <v>1</v>
+      </c>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="G61" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I61" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N61" t="n">
+        <v>3</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>Rennes</t>
+        </is>
+      </c>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>Strasbourg</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="T61" t="n">
+        <v>0</v>
+      </c>
+      <c r="U61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G62" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>NEC Nijmegen</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="T62" t="n">
+        <v>1</v>
+      </c>
+      <c r="U62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>7</v>
+      </c>
+      <c r="G63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H63" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N63" t="n">
+        <v>3</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="T63" t="n">
+        <v>1</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Koln</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="H64" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>Koln</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S64" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="T64" t="n">
+        <v>1</v>
+      </c>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G65" t="n">
+        <v>15</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I65" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N65" t="n">
+        <v>3</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>2023-10-28</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="T65" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Macarthur FC</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G66" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I66" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N66" t="n">
+        <v>3</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>Central Coast Mariners</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>Macarthur FC</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Macarthur FC</t>
+        </is>
+      </c>
+      <c r="T66" t="n">
+        <v>0</v>
+      </c>
+      <c r="U66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="G67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I67" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N67" t="n">
+        <v>3</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>2023-10-29</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="T67" t="n">
+        <v>1</v>
+      </c>
+      <c r="U67" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U67"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6273,6 +6273,789 @@
         <v>1</v>
       </c>
     </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G68" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I68" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N68" t="n">
+        <v>3</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>2023-11-02</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>Cruzeiro</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
+      </c>
+      <c r="T68" t="n">
+        <v>1</v>
+      </c>
+      <c r="U68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="G69" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L69" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N69" t="n">
+        <v>3</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="T69" t="n">
+        <v>1</v>
+      </c>
+      <c r="U69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="I70" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N70" t="n">
+        <v>3</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="T70" t="n">
+        <v>0</v>
+      </c>
+      <c r="U70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>5</v>
+      </c>
+      <c r="G71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I71" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>0</v>
+      </c>
+      <c r="U71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="G72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>Salernitana</t>
+        </is>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>1</v>
+      </c>
+      <c r="U72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="G73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I73" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="L73" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>1</v>
+      </c>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="G74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I74" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>0</v>
+      </c>
+      <c r="U74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>10</v>
+      </c>
+      <c r="G75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H75" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="L75" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>Chaves</t>
+        </is>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1</v>
+      </c>
+      <c r="U75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G76" t="n">
+        <v>11</v>
+      </c>
+      <c r="H76" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="I76" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>Portimonense</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>1</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U76"/>
+  <dimension ref="A1:U82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7056,6 +7056,528 @@
         <v>1</v>
       </c>
     </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Standard Liege</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G77" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="H77" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>Standard Liege</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L77" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>Standard Liege</t>
+        </is>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>0</v>
+      </c>
+      <c r="U77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="G78" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I78" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>Lyon</t>
+        </is>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>0</v>
+      </c>
+      <c r="U78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G79" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H79" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="L79" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>Lecce</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>1</v>
+      </c>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="L80" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>3</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>1</v>
+      </c>
+      <c r="U80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G81" t="n">
+        <v>12</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="L81" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>1</v>
+      </c>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="G82" t="n">
+        <v>10</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I82" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="L82" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>2023-11-05</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>Rayo Vallecano</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>0</v>
+      </c>
+      <c r="U82" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U82"/>
+  <dimension ref="A1:V81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,45 +491,50 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>Winning_bet_final</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
           <t>bet_type</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>bet_type_order</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>team</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>opponent</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>Winning_team_actual</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>bet_right</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>bet_right_win_draw</t>
         </is>
@@ -582,43 +587,46 @@
       <c r="L2" t="n">
         <v>1.35</v>
       </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N2" t="n">
-        <v>3</v>
-      </c>
-      <c r="O2" t="inlineStr">
+      <c r="M2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>3</v>
+      </c>
+      <c r="P2" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Goias</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="T2" t="n">
-        <v>1</v>
-      </c>
       <c r="U2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -669,43 +677,46 @@
       <c r="L3" t="n">
         <v>1.36</v>
       </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N3" t="n">
-        <v>3</v>
-      </c>
-      <c r="O3" t="inlineStr">
+      <c r="M3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>3</v>
+      </c>
+      <c r="P3" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Estrela</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="T3" t="n">
-        <v>1</v>
-      </c>
       <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -756,43 +767,46 @@
       <c r="L4" t="n">
         <v>1.48</v>
       </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="inlineStr">
+      <c r="M4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>3</v>
+      </c>
+      <c r="P4" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>West Ham United</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="T4" t="n">
-        <v>1</v>
-      </c>
       <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -843,43 +857,46 @@
       <c r="L5" t="n">
         <v>1.52</v>
       </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N5" t="n">
-        <v>3</v>
-      </c>
-      <c r="O5" t="inlineStr">
+      <c r="M5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>Metz</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Metz</t>
         </is>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -930,43 +947,46 @@
       <c r="L6" t="n">
         <v>1.24</v>
       </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
-      <c r="O6" t="inlineStr">
+      <c r="M6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>3</v>
+      </c>
+      <c r="P6" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Augsburg</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="T6" t="n">
-        <v>1</v>
-      </c>
       <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1017,43 +1037,46 @@
       <c r="L7" t="n">
         <v>1.24</v>
       </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>3</v>
-      </c>
-      <c r="O7" t="inlineStr">
+      <c r="M7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Feyenoord</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Heerenveen</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Feyenoord</t>
         </is>
       </c>
-      <c r="T7" t="n">
-        <v>1</v>
-      </c>
       <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1104,43 +1127,46 @@
       <c r="L8" t="n">
         <v>1.33</v>
       </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>3</v>
-      </c>
-      <c r="O8" t="inlineStr">
+      <c r="M8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O8" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Vizela</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="T8" t="n">
-        <v>1</v>
-      </c>
       <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1191,43 +1217,46 @@
       <c r="L9" t="n">
         <v>1.52</v>
       </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>3</v>
-      </c>
-      <c r="O9" t="inlineStr">
+      <c r="M9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O9" t="n">
+        <v>3</v>
+      </c>
+      <c r="P9" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Everton</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="T9" t="n">
-        <v>1</v>
-      </c>
       <c r="U9" t="n">
+        <v>1</v>
+      </c>
+      <c r="V9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1278,43 +1307,46 @@
       <c r="L10" t="n">
         <v>1.53</v>
       </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N10" t="n">
-        <v>3</v>
-      </c>
-      <c r="O10" t="inlineStr">
+      <c r="M10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O10" t="n">
+        <v>3</v>
+      </c>
+      <c r="P10" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Vitoria Guimaraes</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Portimonense</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Portimonense</t>
         </is>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1365,43 +1397,46 @@
       <c r="L11" t="n">
         <v>1.22</v>
       </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" t="inlineStr">
+      <c r="M11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O11" t="n">
+        <v>3</v>
+      </c>
+      <c r="P11" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Moreirense</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="T11" t="n">
-        <v>1</v>
-      </c>
       <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1452,43 +1487,46 @@
       <c r="L12" t="n">
         <v>1.78</v>
       </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" t="inlineStr">
+      <c r="M12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O12" t="n">
+        <v>3</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Cruzeiro</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="T12" t="n">
-        <v>1</v>
-      </c>
       <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1539,43 +1577,46 @@
       <c r="L13" t="n">
         <v>1.35</v>
       </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N13" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" t="inlineStr">
+      <c r="M13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O13" t="n">
+        <v>3</v>
+      </c>
+      <c r="P13" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Antwerp</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>RWD Molenbeek</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>0</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1626,43 +1667,46 @@
       <c r="L14" t="n">
         <v>1.58</v>
       </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N14" t="n">
-        <v>3</v>
-      </c>
-      <c r="O14" t="inlineStr">
+      <c r="M14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O14" t="n">
+        <v>3</v>
+      </c>
+      <c r="P14" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="T14" t="n">
-        <v>1</v>
-      </c>
       <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1713,43 +1757,46 @@
       <c r="L15" t="n">
         <v>1.5</v>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N15" t="n">
-        <v>3</v>
-      </c>
-      <c r="O15" t="inlineStr">
+      <c r="M15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O15" t="n">
+        <v>3</v>
+      </c>
+      <c r="P15" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Boavista</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="T15" t="n">
-        <v>1</v>
-      </c>
       <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1800,43 +1847,46 @@
       <c r="L16" t="n">
         <v>1.25</v>
       </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N16" t="n">
-        <v>3</v>
-      </c>
-      <c r="O16" t="inlineStr">
+      <c r="M16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>3</v>
+      </c>
+      <c r="P16" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Portimonense</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="T16" t="n">
-        <v>1</v>
-      </c>
       <c r="U16" t="n">
+        <v>1</v>
+      </c>
+      <c r="V16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1887,43 +1937,46 @@
       <c r="L17" t="n">
         <v>1.52</v>
       </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N17" t="n">
-        <v>3</v>
-      </c>
-      <c r="O17" t="inlineStr">
+      <c r="M17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>3</v>
+      </c>
+      <c r="P17" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>RKC Waalwijk</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Twente</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>RKC Waalwijk</t>
         </is>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>0</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1974,43 +2027,46 @@
       <c r="L18" t="n">
         <v>1.33</v>
       </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N18" t="n">
-        <v>3</v>
-      </c>
-      <c r="O18" t="inlineStr">
+      <c r="M18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>3</v>
+      </c>
+      <c r="P18" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Cagliari</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="T18" t="n">
-        <v>1</v>
-      </c>
       <c r="U18" t="n">
+        <v>1</v>
+      </c>
+      <c r="V18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2061,43 +2117,46 @@
       <c r="L19" t="n">
         <v>1.34</v>
       </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N19" t="n">
-        <v>3</v>
-      </c>
-      <c r="O19" t="inlineStr">
+      <c r="M19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>3</v>
+      </c>
+      <c r="P19" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Empoli</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="T19" t="n">
-        <v>1</v>
-      </c>
       <c r="U19" t="n">
+        <v>1</v>
+      </c>
+      <c r="V19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2148,43 +2207,46 @@
       <c r="L20" t="n">
         <v>1.65</v>
       </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>3</v>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="M20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O20" t="n">
+        <v>3</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="T20" t="n">
-        <v>1</v>
-      </c>
       <c r="U20" t="n">
+        <v>1</v>
+      </c>
+      <c r="V20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2235,43 +2297,46 @@
       <c r="L21" t="n">
         <v>1.43</v>
       </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>3</v>
-      </c>
-      <c r="O21" t="inlineStr">
+      <c r="M21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O21" t="n">
+        <v>3</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>West Ham United</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="T21" t="n">
-        <v>1</v>
-      </c>
       <c r="U21" t="n">
+        <v>1</v>
+      </c>
+      <c r="V21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2322,43 +2387,46 @@
       <c r="L22" t="n">
         <v>1.36</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N22" t="n">
-        <v>3</v>
-      </c>
-      <c r="O22" t="inlineStr">
+      <c r="M22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O22" t="n">
+        <v>3</v>
+      </c>
+      <c r="P22" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Brighton and Hove Albion</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>Brighton and Hove Albion</t>
         </is>
       </c>
-      <c r="T22" t="n">
-        <v>1</v>
-      </c>
       <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2409,43 +2477,46 @@
       <c r="L23" t="n">
         <v>1.28</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>3</v>
-      </c>
-      <c r="O23" t="inlineStr">
+      <c r="M23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O23" t="n">
+        <v>3</v>
+      </c>
+      <c r="P23" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Gent</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Eupen</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>Gent</t>
         </is>
       </c>
-      <c r="T23" t="n">
-        <v>1</v>
-      </c>
       <c r="U23" t="n">
+        <v>1</v>
+      </c>
+      <c r="V23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2496,43 +2567,46 @@
       <c r="L24" t="n">
         <v>1.63</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N24" t="n">
-        <v>3</v>
-      </c>
-      <c r="O24" t="inlineStr">
+      <c r="M24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>3</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Genk</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Sint Truiden</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="T24" t="n">
-        <v>0</v>
-      </c>
       <c r="U24" t="n">
+        <v>1</v>
+      </c>
+      <c r="V24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,43 +2657,46 @@
       <c r="L25" t="n">
         <v>1.35</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N25" t="n">
-        <v>3</v>
-      </c>
-      <c r="O25" t="inlineStr">
+      <c r="M25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>3</v>
+      </c>
+      <c r="P25" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Celta Vigo</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="T25" t="n">
-        <v>1</v>
-      </c>
       <c r="U25" t="n">
+        <v>1</v>
+      </c>
+      <c r="V25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,43 +2747,46 @@
       <c r="L26" t="n">
         <v>1.25</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N26" t="n">
-        <v>3</v>
-      </c>
-      <c r="O26" t="inlineStr">
+      <c r="M26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>3</v>
+      </c>
+      <c r="P26" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Gil Vicente FC</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="T26" t="n">
-        <v>1</v>
-      </c>
       <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,43 +2837,46 @@
       <c r="L27" t="n">
         <v>1.23</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N27" t="n">
-        <v>3</v>
-      </c>
-      <c r="O27" t="inlineStr">
+      <c r="M27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O27" t="n">
+        <v>3</v>
+      </c>
+      <c r="P27" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Almere City</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>PSV Eindhoven</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>PSV Eindhoven</t>
         </is>
       </c>
-      <c r="T27" t="n">
-        <v>1</v>
-      </c>
       <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2844,43 +2927,46 @@
       <c r="L28" t="n">
         <v>1.85</v>
       </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N28" t="n">
-        <v>3</v>
-      </c>
-      <c r="O28" t="inlineStr">
+      <c r="M28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O28" t="n">
+        <v>3</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Lazio</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Monza</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
       <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2931,43 +3017,46 @@
       <c r="L29" t="n">
         <v>1.37</v>
       </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N29" t="n">
-        <v>3</v>
-      </c>
-      <c r="O29" t="inlineStr">
+      <c r="M29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>3</v>
+      </c>
+      <c r="P29" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Milan</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Hellas Verona</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>Milan</t>
         </is>
       </c>
-      <c r="T29" t="n">
-        <v>1</v>
-      </c>
       <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3018,43 +3107,46 @@
       <c r="L30" t="n">
         <v>1.57</v>
       </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N30" t="n">
-        <v>3</v>
-      </c>
-      <c r="O30" t="inlineStr">
+      <c r="M30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O30" t="n">
+        <v>3</v>
+      </c>
+      <c r="P30" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Atletico Mineiro</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Cuiaba</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>Atletico Mineiro</t>
         </is>
       </c>
-      <c r="T30" t="n">
-        <v>1</v>
-      </c>
       <c r="U30" t="n">
+        <v>1</v>
+      </c>
+      <c r="V30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3105,43 +3197,46 @@
       <c r="L31" t="n">
         <v>1.2</v>
       </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N31" t="n">
-        <v>3</v>
-      </c>
-      <c r="O31" t="inlineStr">
+      <c r="M31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O31" t="n">
+        <v>3</v>
+      </c>
+      <c r="P31" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>Rio Ave</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="T31" t="n">
-        <v>1</v>
-      </c>
       <c r="U31" t="n">
+        <v>1</v>
+      </c>
+      <c r="V31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3192,43 +3287,46 @@
       <c r="L32" t="n">
         <v>1.52</v>
       </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N32" t="n">
-        <v>3</v>
-      </c>
-      <c r="O32" t="inlineStr">
+      <c r="M32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>3</v>
+      </c>
+      <c r="P32" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Lecce</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="T32" t="n">
-        <v>1</v>
-      </c>
       <c r="U32" t="n">
+        <v>1</v>
+      </c>
+      <c r="V32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3279,43 +3377,46 @@
       <c r="L33" t="n">
         <v>1.32</v>
       </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N33" t="n">
-        <v>3</v>
-      </c>
-      <c r="O33" t="inlineStr">
+      <c r="M33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>3</v>
+      </c>
+      <c r="P33" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Sassuolo</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>Sassuolo</t>
         </is>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>0</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3366,43 +3467,46 @@
       <c r="L34" t="n">
         <v>1.25</v>
       </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N34" t="n">
-        <v>3</v>
-      </c>
-      <c r="O34" t="inlineStr">
+      <c r="M34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>3</v>
+      </c>
+      <c r="P34" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Fortuna Sittard</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="T34" t="n">
-        <v>1</v>
-      </c>
       <c r="U34" t="n">
+        <v>1</v>
+      </c>
+      <c r="V34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3453,43 +3557,46 @@
       <c r="L35" t="n">
         <v>1.43</v>
       </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N35" t="n">
-        <v>3</v>
-      </c>
-      <c r="O35" t="inlineStr">
+      <c r="M35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>3</v>
+      </c>
+      <c r="P35" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Frosinone</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="T35" t="n">
-        <v>1</v>
-      </c>
       <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3540,43 +3647,46 @@
       <c r="L36" t="n">
         <v>1.72</v>
       </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N36" t="n">
-        <v>3</v>
-      </c>
-      <c r="O36" t="inlineStr">
+      <c r="M36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O36" t="n">
+        <v>3</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="Q36" t="inlineStr">
         <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>Augsburg</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="T36" t="n">
-        <v>1</v>
-      </c>
       <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3627,43 +3737,46 @@
       <c r="L37" t="n">
         <v>1.52</v>
       </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N37" t="n">
-        <v>3</v>
-      </c>
-      <c r="O37" t="inlineStr">
+      <c r="M37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>3</v>
+      </c>
+      <c r="P37" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>Nantes</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="T37" t="n">
-        <v>1</v>
-      </c>
       <c r="U37" t="n">
+        <v>1</v>
+      </c>
+      <c r="V37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3714,43 +3827,46 @@
       <c r="L38" t="n">
         <v>1.63</v>
       </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N38" t="n">
-        <v>3</v>
-      </c>
-      <c r="O38" t="inlineStr">
+      <c r="M38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>3</v>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>RWD Molenbeek</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Gent</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
       <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3801,43 +3917,46 @@
       <c r="L39" t="n">
         <v>1.66</v>
       </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N39" t="n">
-        <v>3</v>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="M39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O39" t="n">
+        <v>3</v>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Union SG</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>Charleroi</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>Union SG</t>
         </is>
       </c>
-      <c r="T39" t="n">
-        <v>1</v>
-      </c>
       <c r="U39" t="n">
+        <v>1</v>
+      </c>
+      <c r="V39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3888,43 +4007,46 @@
       <c r="L40" t="n">
         <v>1.4</v>
       </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N40" t="n">
-        <v>3</v>
-      </c>
-      <c r="O40" t="inlineStr">
+      <c r="M40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>3</v>
+      </c>
+      <c r="P40" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>Farense</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="T40" t="n">
-        <v>1</v>
-      </c>
       <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3975,43 +4097,46 @@
       <c r="L41" t="n">
         <v>1.58</v>
       </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N41" t="n">
-        <v>3</v>
-      </c>
-      <c r="O41" t="inlineStr">
+      <c r="M41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>3</v>
+      </c>
+      <c r="P41" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>RKC Waalwijk</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="T41" t="n">
-        <v>1</v>
-      </c>
       <c r="U41" t="n">
+        <v>1</v>
+      </c>
+      <c r="V41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4062,43 +4187,46 @@
       <c r="L42" t="n">
         <v>1.44</v>
       </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N42" t="n">
-        <v>3</v>
-      </c>
-      <c r="O42" t="inlineStr">
+      <c r="M42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O42" t="n">
+        <v>3</v>
+      </c>
+      <c r="P42" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>Salernitana</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="T42" t="n">
-        <v>1</v>
-      </c>
       <c r="U42" t="n">
+        <v>1</v>
+      </c>
+      <c r="V42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4149,43 +4277,46 @@
       <c r="L43" t="n">
         <v>1.35</v>
       </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N43" t="n">
-        <v>3</v>
-      </c>
-      <c r="O43" t="inlineStr">
+      <c r="M43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
+        <v>3</v>
+      </c>
+      <c r="P43" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>Wolverhampton Wanderers</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>Wolverhampton Wanderers</t>
         </is>
       </c>
-      <c r="T43" t="n">
+      <c r="U43" t="n">
         <v>0</v>
       </c>
-      <c r="U43" t="n">
+      <c r="V43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4236,43 +4367,46 @@
       <c r="L44" t="n">
         <v>1.31</v>
       </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N44" t="n">
-        <v>3</v>
-      </c>
-      <c r="O44" t="inlineStr">
+      <c r="M44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O44" t="n">
+        <v>3</v>
+      </c>
+      <c r="P44" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>Burnley</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="T44" t="n">
-        <v>1</v>
-      </c>
       <c r="U44" t="n">
+        <v>1</v>
+      </c>
+      <c r="V44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4323,43 +4457,46 @@
       <c r="L45" t="n">
         <v>1.58</v>
       </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N45" t="n">
-        <v>3</v>
-      </c>
-      <c r="O45" t="inlineStr">
+      <c r="M45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>3</v>
+      </c>
+      <c r="P45" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>Manchester United</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="T45" t="n">
+      <c r="U45" t="n">
         <v>0</v>
       </c>
-      <c r="U45" t="n">
+      <c r="V45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4410,43 +4547,46 @@
       <c r="L46" t="n">
         <v>1.52</v>
       </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N46" t="n">
-        <v>3</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="M46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
+        <v>3</v>
+      </c>
+      <c r="P46" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="T46" t="n">
-        <v>1</v>
-      </c>
       <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4497,43 +4637,46 @@
       <c r="L47" t="n">
         <v>1.55</v>
       </c>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N47" t="n">
-        <v>3</v>
-      </c>
-      <c r="O47" t="inlineStr">
+      <c r="M47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O47" t="n">
+        <v>3</v>
+      </c>
+      <c r="P47" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Bahia</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="T47" t="n">
-        <v>1</v>
-      </c>
       <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4584,43 +4727,46 @@
       <c r="L48" t="n">
         <v>1.36</v>
       </c>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N48" t="n">
-        <v>3</v>
-      </c>
-      <c r="O48" t="inlineStr">
+      <c r="M48" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
+        <v>3</v>
+      </c>
+      <c r="P48" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>Sevilla</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="T48" t="n">
-        <v>1</v>
-      </c>
       <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4671,43 +4817,46 @@
       <c r="L49" t="n">
         <v>1.27</v>
       </c>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N49" t="n">
-        <v>3</v>
-      </c>
-      <c r="O49" t="inlineStr">
+      <c r="M49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
+        <v>3</v>
+      </c>
+      <c r="P49" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Heracles Almelo</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="T49" t="n">
+      <c r="U49" t="n">
         <v>0</v>
       </c>
-      <c r="U49" t="n">
+      <c r="V49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4758,43 +4907,46 @@
       <c r="L50" t="n">
         <v>1.22</v>
       </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N50" t="n">
-        <v>3</v>
-      </c>
-      <c r="O50" t="inlineStr">
+      <c r="M50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
+        <v>3</v>
+      </c>
+      <c r="P50" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>Las Palmas</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="T50" t="n">
-        <v>1</v>
-      </c>
       <c r="U50" t="n">
+        <v>1</v>
+      </c>
+      <c r="V50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4845,43 +4997,46 @@
       <c r="L51" t="n">
         <v>1.39</v>
       </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N51" t="n">
-        <v>3</v>
-      </c>
-      <c r="O51" t="inlineStr">
+      <c r="M51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>3</v>
+      </c>
+      <c r="P51" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>Twente</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>Vitesse</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>Twente</t>
         </is>
       </c>
-      <c r="T51" t="n">
-        <v>1</v>
-      </c>
       <c r="U51" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4932,43 +5087,46 @@
       <c r="L52" t="n">
         <v>1.38</v>
       </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N52" t="n">
-        <v>3</v>
-      </c>
-      <c r="O52" t="inlineStr">
+      <c r="M52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O52" t="n">
+        <v>3</v>
+      </c>
+      <c r="P52" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="Q52" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>Udinese</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="T52" t="n">
-        <v>1</v>
-      </c>
       <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5019,43 +5177,46 @@
       <c r="L53" t="n">
         <v>1.3</v>
       </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N53" t="n">
-        <v>3</v>
-      </c>
-      <c r="O53" t="inlineStr">
+      <c r="M53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O53" t="n">
+        <v>3</v>
+      </c>
+      <c r="P53" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="Q53" t="inlineStr">
         <is>
           <t>Atletico Madrid</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>Cadiz</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>Atletico Madrid</t>
         </is>
       </c>
-      <c r="T53" t="n">
-        <v>1</v>
-      </c>
       <c r="U53" t="n">
+        <v>1</v>
+      </c>
+      <c r="V53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5106,43 +5267,46 @@
       <c r="L54" t="n">
         <v>1.52</v>
       </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N54" t="n">
-        <v>3</v>
-      </c>
-      <c r="O54" t="inlineStr">
+      <c r="M54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>3</v>
+      </c>
+      <c r="P54" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="Q54" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>Bahia</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="T54" t="n">
-        <v>1</v>
-      </c>
       <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5193,43 +5357,46 @@
       <c r="L55" t="n">
         <v>1.55</v>
       </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N55" t="n">
-        <v>3</v>
-      </c>
-      <c r="O55" t="inlineStr">
+      <c r="M55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
+        <v>3</v>
+      </c>
+      <c r="P55" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="Q55" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>Nantes</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="T55" t="n">
-        <v>1</v>
-      </c>
       <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5280,43 +5447,46 @@
       <c r="L56" t="n">
         <v>1.36</v>
       </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N56" t="n">
-        <v>3</v>
-      </c>
-      <c r="O56" t="inlineStr">
+      <c r="M56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
+        <v>3</v>
+      </c>
+      <c r="P56" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="Q56" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>Hellas Verona</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="T56" t="n">
-        <v>1</v>
-      </c>
       <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5367,43 +5537,46 @@
       <c r="L57" t="n">
         <v>1.5</v>
       </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N57" t="n">
-        <v>3</v>
-      </c>
-      <c r="O57" t="inlineStr">
+      <c r="M57" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>3</v>
+      </c>
+      <c r="P57" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="Q57" t="inlineStr">
         <is>
           <t>Kortrijk</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>Genk</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>Genk</t>
         </is>
       </c>
-      <c r="T57" t="n">
-        <v>1</v>
-      </c>
       <c r="U57" t="n">
+        <v>1</v>
+      </c>
+      <c r="V57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5454,43 +5627,46 @@
       <c r="L58" t="n">
         <v>1.45</v>
       </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N58" t="n">
-        <v>3</v>
-      </c>
-      <c r="O58" t="inlineStr">
+      <c r="M58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O58" t="n">
+        <v>3</v>
+      </c>
+      <c r="P58" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="Q58" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>Coritiba</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>Coritiba</t>
         </is>
       </c>
-      <c r="T58" t="n">
+      <c r="U58" t="n">
         <v>0</v>
       </c>
-      <c r="U58" t="n">
+      <c r="V58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5541,43 +5717,46 @@
       <c r="L59" t="n">
         <v>1.29</v>
       </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N59" t="n">
-        <v>3</v>
-      </c>
-      <c r="O59" t="inlineStr">
+      <c r="M59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>3</v>
+      </c>
+      <c r="P59" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="Q59" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>Nottingham Forest</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="T59" t="n">
-        <v>1</v>
-      </c>
       <c r="U59" t="n">
+        <v>1</v>
+      </c>
+      <c r="V59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5628,43 +5807,46 @@
       <c r="L60" t="n">
         <v>1.55</v>
       </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N60" t="n">
-        <v>3</v>
-      </c>
-      <c r="O60" t="inlineStr">
+      <c r="M60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O60" t="n">
+        <v>3</v>
+      </c>
+      <c r="P60" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="Q60" t="inlineStr">
         <is>
           <t>Brest</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>Paris Saint Germain</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>Paris Saint Germain</t>
         </is>
       </c>
-      <c r="T60" t="n">
-        <v>1</v>
-      </c>
       <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5715,43 +5897,46 @@
       <c r="L61" t="n">
         <v>1.6</v>
       </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N61" t="n">
-        <v>3</v>
-      </c>
-      <c r="O61" t="inlineStr">
+      <c r="M61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O61" t="n">
+        <v>3</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="Q61" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>Strasbourg</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="T61" t="n">
-        <v>0</v>
-      </c>
       <c r="U61" t="n">
+        <v>1</v>
+      </c>
+      <c r="V61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5766,168 +5951,178 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>1.32</v>
+        <v>7</v>
       </c>
       <c r="G62" t="n">
-        <v>9.199999999999999</v>
+        <v>1.45</v>
       </c>
       <c r="H62" t="n">
-        <v>0.85</v>
+        <v>0.3</v>
       </c>
       <c r="I62" t="n">
-        <v>0.15</v>
+        <v>0.7</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="K62" t="n">
-        <v>0.85</v>
+        <v>0.7</v>
       </c>
       <c r="L62" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N62" t="n">
-        <v>3</v>
-      </c>
-      <c r="O62" t="inlineStr">
+        <v>1.45</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>3</v>
+      </c>
+      <c r="P62" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>NEC Nijmegen</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr"/>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
-        </is>
-      </c>
-      <c r="T62" t="n">
-        <v>1</v>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T62" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
       </c>
       <c r="U62" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>7</v>
+        <v>1.42</v>
       </c>
       <c r="G63" t="n">
-        <v>1.45</v>
+        <v>7.5</v>
       </c>
       <c r="H63" t="n">
-        <v>0.3</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I63" t="n">
-        <v>0.7</v>
+        <v>0.19</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="K63" t="n">
-        <v>0.7</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L63" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N63" t="n">
-        <v>3</v>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>2023-10-29</t>
-        </is>
+        <v>1.42</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>3</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>Porto</t>
-        </is>
-      </c>
-      <c r="T63" t="n">
-        <v>1</v>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T63" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
       </c>
       <c r="U63" t="n">
+        <v>1</v>
+      </c>
+      <c r="V63" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
@@ -5936,172 +6131,178 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.42</v>
+        <v>1.2</v>
       </c>
       <c r="G64" t="n">
-        <v>7.5</v>
+        <v>15</v>
       </c>
       <c r="H64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="I64" t="n">
-        <v>0.19</v>
+        <v>0.09</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="K64" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="L64" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>3</v>
-      </c>
-      <c r="O64" t="inlineStr">
+        <v>1.2</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>3</v>
+      </c>
+      <c r="P64" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
-        </is>
-      </c>
-      <c r="T64" t="n">
-        <v>1</v>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T64" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
       </c>
       <c r="U64" t="n">
+        <v>0</v>
+      </c>
+      <c r="V64" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t>A</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.2</v>
+        <v>1.62</v>
       </c>
       <c r="G65" t="n">
-        <v>15</v>
+        <v>4.75</v>
       </c>
       <c r="H65" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="I65" t="n">
-        <v>0.09</v>
+        <v>0.16</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="K65" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="L65" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>3</v>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>2023-10-28</t>
-        </is>
+        <v>1.62</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O65" t="n">
+        <v>3</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="T65" t="n">
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T65" t="inlineStr">
+        <is>
+          <t>Macarthur FC</t>
+        </is>
+      </c>
+      <c r="U65" t="n">
         <v>0</v>
       </c>
-      <c r="U65" t="n">
-        <v>1</v>
+      <c r="V65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -6110,259 +6311,268 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>1.62</v>
+        <v>4.75</v>
       </c>
       <c r="G66" t="n">
-        <v>4.75</v>
+        <v>1.6</v>
       </c>
       <c r="H66" t="n">
-        <v>0.84</v>
+        <v>0.33</v>
       </c>
       <c r="I66" t="n">
-        <v>0.16</v>
+        <v>0.67</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="K66" t="n">
-        <v>0.84</v>
+        <v>0.67</v>
       </c>
       <c r="L66" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>3</v>
-      </c>
-      <c r="O66" t="inlineStr">
+        <v>1.6</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>3</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>Central Coast Mariners</t>
-        </is>
-      </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Macarthur FC</t>
-        </is>
-      </c>
-      <c r="T66" t="n">
-        <v>0</v>
+      <c r="T66" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
       </c>
       <c r="U66" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G67" t="n">
         <v>4.75</v>
       </c>
-      <c r="G67" t="n">
-        <v>1.6</v>
-      </c>
       <c r="H67" t="n">
-        <v>0.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I67" t="n">
-        <v>0.67</v>
+        <v>0.19</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="K67" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L67" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>3</v>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>2023-10-29</t>
-        </is>
+        <v>1.75</v>
+      </c>
+      <c r="M67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>3</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Union SG</t>
-        </is>
-      </c>
-      <c r="T67" t="n">
-        <v>1</v>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T67" t="inlineStr">
+        <is>
+          <t>Sao Paulo</t>
+        </is>
       </c>
       <c r="U67" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.75</v>
+        <v>1.26</v>
       </c>
       <c r="G68" t="n">
-        <v>4.75</v>
+        <v>9.6</v>
       </c>
       <c r="H68" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I68" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="K68" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L68" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>3</v>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>2023-11-02</t>
-        </is>
+        <v>1.26</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>3</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
+          <t>Montpellier</t>
+        </is>
+      </c>
+      <c r="S68" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>Sao Paulo</t>
-        </is>
-      </c>
-      <c r="T68" t="n">
-        <v>1</v>
+      <c r="T68" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
       </c>
       <c r="U68" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
@@ -6371,172 +6581,178 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>1.26</v>
+        <v>5.5</v>
       </c>
       <c r="G69" t="n">
-        <v>9.6</v>
+        <v>1.65</v>
       </c>
       <c r="H69" t="n">
-        <v>0.8</v>
+        <v>0.34</v>
       </c>
       <c r="I69" t="n">
-        <v>0.2</v>
+        <v>0.66</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="K69" t="n">
-        <v>0.8</v>
+        <v>0.66</v>
       </c>
       <c r="L69" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>3</v>
-      </c>
-      <c r="O69" t="inlineStr">
+        <v>1.65</v>
+      </c>
+      <c r="M69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O69" t="n">
+        <v>3</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Paris Saint Germain</t>
-        </is>
-      </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="S69" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>Paris Saint Germain</t>
-        </is>
-      </c>
-      <c r="T69" t="n">
-        <v>1</v>
+      <c r="T69" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
       </c>
       <c r="U69" t="n">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="G70" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H70" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="I70" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="K70" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="L70" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>3</v>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>2023-11-03</t>
-        </is>
+        <v>1.62</v>
+      </c>
+      <c r="M70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O70" t="n">
+        <v>3</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="S70" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>Las Palmas</t>
-        </is>
-      </c>
-      <c r="T70" t="n">
-        <v>0</v>
+      <c r="T70" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
       </c>
       <c r="U70" t="n">
         <v>0</v>
       </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
@@ -6545,24 +6761,24 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>5</v>
+        <v>6.9</v>
       </c>
       <c r="G71" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="H71" t="n">
         <v>0.16</v>
@@ -6572,58 +6788,61 @@
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="K71" t="n">
         <v>0.84</v>
       </c>
       <c r="L71" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>3</v>
-      </c>
-      <c r="O71" t="inlineStr">
+        <v>1.44</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O71" t="n">
+        <v>3</v>
+      </c>
+      <c r="P71" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Mainz 05</t>
-        </is>
-      </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>0</v>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T71" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
       </c>
       <c r="U71" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
@@ -6632,85 +6851,88 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>6.9</v>
+        <v>11.5</v>
       </c>
       <c r="G72" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="H72" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="I72" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="K72" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="L72" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>3</v>
-      </c>
-      <c r="O72" t="inlineStr">
+        <v>1.21</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O72" t="n">
+        <v>3</v>
+      </c>
+      <c r="P72" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Salernitana</t>
-        </is>
-      </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
           <t>L</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
-      </c>
-      <c r="T72" t="n">
-        <v>1</v>
+      <c r="T72" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
       </c>
       <c r="U72" t="n">
+        <v>1</v>
+      </c>
+      <c r="V72" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
@@ -6724,80 +6946,83 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>11.5</v>
+        <v>7.3</v>
       </c>
       <c r="G73" t="n">
-        <v>1.21</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="I73" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="K73" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="L73" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>3</v>
-      </c>
-      <c r="O73" t="inlineStr">
+        <v>1.4</v>
+      </c>
+      <c r="M73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O73" t="n">
+        <v>3</v>
+      </c>
+      <c r="P73" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Heracles Almelo</t>
-        </is>
-      </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>1</v>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T73" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
       </c>
       <c r="U73" t="n">
+        <v>0</v>
+      </c>
+      <c r="V73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
@@ -6806,85 +7031,88 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>7.3</v>
+        <v>10</v>
       </c>
       <c r="G74" t="n">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="H74" t="n">
-        <v>0.22</v>
+        <v>0.3</v>
       </c>
       <c r="I74" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="K74" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="L74" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>3</v>
-      </c>
-      <c r="O74" t="inlineStr">
+        <v>1.25</v>
+      </c>
+      <c r="M74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O74" t="n">
+        <v>3</v>
+      </c>
+      <c r="P74" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Excelsior</t>
-        </is>
-      </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="T74" t="n">
-        <v>0</v>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="T74" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
       </c>
       <c r="U74" t="n">
+        <v>1</v>
+      </c>
+      <c r="V74" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
@@ -6898,167 +7126,173 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="G75" t="n">
-        <v>1.25</v>
+        <v>11</v>
       </c>
       <c r="H75" t="n">
-        <v>0.3</v>
+        <v>0.91</v>
       </c>
       <c r="I75" t="n">
-        <v>0.7</v>
+        <v>0.09</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="K75" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="L75" t="n">
         <v>1.25</v>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>3</v>
-      </c>
-      <c r="O75" t="inlineStr">
+      <c r="M75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O75" t="n">
+        <v>3</v>
+      </c>
+      <c r="P75" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Chaves</t>
-        </is>
-      </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>1</v>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T75" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
       </c>
       <c r="U75" t="n">
+        <v>1</v>
+      </c>
+      <c r="V75" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.25</v>
+        <v>1.78</v>
       </c>
       <c r="G76" t="n">
-        <v>11</v>
+        <v>4.2</v>
       </c>
       <c r="H76" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I76" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="K76" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L76" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>3</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>2023-11-04</t>
-        </is>
+        <v>1.78</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O76" t="n">
+        <v>3</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>1</v>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T76" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
       </c>
       <c r="U76" t="n">
+        <v>1</v>
+      </c>
+      <c r="V76" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
@@ -7067,85 +7301,88 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.78</v>
+        <v>1.68</v>
       </c>
       <c r="G77" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="H77" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="I77" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="K77" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="L77" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>3</v>
-      </c>
-      <c r="O77" t="inlineStr">
+        <v>1.68</v>
+      </c>
+      <c r="M77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O77" t="n">
+        <v>3</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Standard Liege</t>
-        </is>
-      </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
           <t>D</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="T77" t="n">
-        <v>0</v>
-      </c>
       <c r="U77" t="n">
+        <v>1</v>
+      </c>
+      <c r="V77" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
@@ -7154,85 +7391,88 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F78" t="n">
-        <v>1.68</v>
+        <v>1.58</v>
       </c>
       <c r="G78" t="n">
-        <v>4.7</v>
+        <v>5.9</v>
       </c>
       <c r="H78" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="I78" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="K78" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="L78" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>3</v>
-      </c>
-      <c r="O78" t="inlineStr">
+        <v>1.58</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O78" t="n">
+        <v>3</v>
+      </c>
+      <c r="P78" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Lyon</t>
-        </is>
-      </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>0</v>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="T78" t="inlineStr">
+        <is>
+          <t>Roma</t>
+        </is>
       </c>
       <c r="U78" t="n">
+        <v>1</v>
+      </c>
+      <c r="V78" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
@@ -7241,85 +7481,88 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>1.58</v>
+        <v>1.48</v>
       </c>
       <c r="G79" t="n">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="H79" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="I79" t="n">
-        <v>0.12</v>
+        <v>0.19</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="K79" t="n">
-        <v>0.88</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="L79" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>3</v>
-      </c>
-      <c r="O79" t="inlineStr">
+        <v>1.48</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O79" t="n">
+        <v>3</v>
+      </c>
+      <c r="P79" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
+          <t>Heerenveen</t>
+        </is>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>Roma</t>
-        </is>
-      </c>
-      <c r="T79" t="n">
-        <v>1</v>
+      <c r="T79" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
       </c>
       <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
@@ -7328,85 +7571,88 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.48</v>
+        <v>1.22</v>
       </c>
       <c r="G80" t="n">
-        <v>5.85</v>
+        <v>12</v>
       </c>
       <c r="H80" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="I80" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="K80" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="L80" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>3</v>
-      </c>
-      <c r="O80" t="inlineStr">
+        <v>1.22</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O80" t="n">
+        <v>3</v>
+      </c>
+      <c r="P80" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
-        <is>
-          <t>Ajax</t>
-        </is>
-      </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
+          <t>Estrela</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
           <t>W</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
-        <is>
-          <t>Ajax</t>
-        </is>
-      </c>
-      <c r="T80" t="n">
-        <v>1</v>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
       </c>
       <c r="U80" t="n">
+        <v>1</v>
+      </c>
+      <c r="V80" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
@@ -7415,166 +7661,82 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="G81" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H81" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="I81" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="K81" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="L81" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N81" t="n">
-        <v>3</v>
-      </c>
-      <c r="O81" t="inlineStr">
+        <v>1.3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="O81" t="n">
+        <v>3</v>
+      </c>
+      <c r="P81" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>Sporting CP</t>
-        </is>
-      </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
-        </is>
-      </c>
-      <c r="T81" t="n">
-        <v>1</v>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
       </c>
       <c r="U81" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2023-11-05</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t xml:space="preserve">LALIGA </t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="F82" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="G82" t="n">
-        <v>10</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="I82" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="J82" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="K82" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="L82" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M82" t="inlineStr">
-        <is>
-          <t>safest_bet</t>
-        </is>
-      </c>
-      <c r="N82" t="n">
-        <v>3</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>2023-11-05</t>
-        </is>
-      </c>
-      <c r="P82" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="R82" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
         <v>0</v>
       </c>
-      <c r="U82" t="n">
+      <c r="V81" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -588,7 +588,7 @@
         <v>1.35</v>
       </c>
       <c r="M2" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -678,7 +678,7 @@
         <v>1.36</v>
       </c>
       <c r="M3" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -768,7 +768,7 @@
         <v>1.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>1.52</v>
       </c>
       <c r="M5" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -948,7 +948,7 @@
         <v>1.24</v>
       </c>
       <c r="M6" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -1038,7 +1038,7 @@
         <v>1.24</v>
       </c>
       <c r="M7" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
@@ -1128,7 +1128,7 @@
         <v>1.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
@@ -1218,7 +1218,7 @@
         <v>1.52</v>
       </c>
       <c r="M9" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>1.53</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.53</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1398,7 +1398,7 @@
         <v>1.22</v>
       </c>
       <c r="M11" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         <v>1.35</v>
       </c>
       <c r="M13" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="N13" t="inlineStr">
         <is>
@@ -1668,7 +1668,7 @@
         <v>1.58</v>
       </c>
       <c r="M14" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="N14" t="inlineStr">
         <is>
@@ -1758,7 +1758,7 @@
         <v>1.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="N15" t="inlineStr">
         <is>
@@ -1848,7 +1848,7 @@
         <v>1.25</v>
       </c>
       <c r="M16" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="N16" t="inlineStr">
         <is>
@@ -1938,7 +1938,7 @@
         <v>1.52</v>
       </c>
       <c r="M17" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="N17" t="inlineStr">
         <is>
@@ -2028,7 +2028,7 @@
         <v>1.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="N18" t="inlineStr">
         <is>
@@ -2118,7 +2118,7 @@
         <v>1.34</v>
       </c>
       <c r="M19" t="n">
-        <v>1.17</v>
+        <v>1.34</v>
       </c>
       <c r="N19" t="inlineStr">
         <is>
@@ -2298,7 +2298,7 @@
         <v>1.43</v>
       </c>
       <c r="M21" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="N21" t="inlineStr">
         <is>
@@ -2388,7 +2388,7 @@
         <v>1.36</v>
       </c>
       <c r="M22" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="N22" t="inlineStr">
         <is>
@@ -2478,7 +2478,7 @@
         <v>1.28</v>
       </c>
       <c r="M23" t="n">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="N23" t="inlineStr">
         <is>
@@ -2658,7 +2658,7 @@
         <v>1.35</v>
       </c>
       <c r="M25" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="N25" t="inlineStr">
         <is>
@@ -2748,7 +2748,7 @@
         <v>1.25</v>
       </c>
       <c r="M26" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="N26" t="inlineStr">
         <is>
@@ -2838,7 +2838,7 @@
         <v>1.23</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="N27" t="inlineStr">
         <is>
@@ -3018,7 +3018,7 @@
         <v>1.37</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="N29" t="inlineStr">
         <is>
@@ -3108,7 +3108,7 @@
         <v>1.57</v>
       </c>
       <c r="M30" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="N30" t="inlineStr">
         <is>
@@ -3198,7 +3198,7 @@
         <v>1.2</v>
       </c>
       <c r="M31" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="N31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         <v>1.52</v>
       </c>
       <c r="M32" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="N32" t="inlineStr">
         <is>
@@ -3378,7 +3378,7 @@
         <v>1.32</v>
       </c>
       <c r="M33" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="N33" t="inlineStr">
         <is>
@@ -3468,7 +3468,7 @@
         <v>1.25</v>
       </c>
       <c r="M34" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="N34" t="inlineStr">
         <is>
@@ -3558,7 +3558,7 @@
         <v>1.43</v>
       </c>
       <c r="M35" t="n">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="N35" t="inlineStr">
         <is>
@@ -3738,7 +3738,7 @@
         <v>1.52</v>
       </c>
       <c r="M37" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="N37" t="inlineStr">
         <is>
@@ -4008,7 +4008,7 @@
         <v>1.4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="N40" t="inlineStr">
         <is>
@@ -4098,7 +4098,7 @@
         <v>1.58</v>
       </c>
       <c r="M41" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="N41" t="inlineStr">
         <is>
@@ -4188,7 +4188,7 @@
         <v>1.44</v>
       </c>
       <c r="M42" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="N42" t="inlineStr">
         <is>
@@ -4278,7 +4278,7 @@
         <v>1.35</v>
       </c>
       <c r="M43" t="n">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="N43" t="inlineStr">
         <is>
@@ -4368,7 +4368,7 @@
         <v>1.31</v>
       </c>
       <c r="M44" t="n">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="N44" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>1.58</v>
       </c>
       <c r="M45" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="N45" t="inlineStr">
         <is>
@@ -4548,7 +4548,7 @@
         <v>1.52</v>
       </c>
       <c r="M46" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="N46" t="inlineStr">
         <is>
@@ -4638,7 +4638,7 @@
         <v>1.55</v>
       </c>
       <c r="M47" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="N47" t="inlineStr">
         <is>
@@ -4728,7 +4728,7 @@
         <v>1.36</v>
       </c>
       <c r="M48" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="N48" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         <v>1.27</v>
       </c>
       <c r="M49" t="n">
-        <v>1.17</v>
+        <v>1.27</v>
       </c>
       <c r="N49" t="inlineStr">
         <is>
@@ -4908,7 +4908,7 @@
         <v>1.22</v>
       </c>
       <c r="M50" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N50" t="inlineStr">
         <is>
@@ -4998,7 +4998,7 @@
         <v>1.39</v>
       </c>
       <c r="M51" t="n">
-        <v>1.17</v>
+        <v>1.39</v>
       </c>
       <c r="N51" t="inlineStr">
         <is>
@@ -5088,7 +5088,7 @@
         <v>1.38</v>
       </c>
       <c r="M52" t="n">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="N52" t="inlineStr">
         <is>
@@ -5178,7 +5178,7 @@
         <v>1.3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="N53" t="inlineStr">
         <is>
@@ -5268,7 +5268,7 @@
         <v>1.52</v>
       </c>
       <c r="M54" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="N54" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>1.55</v>
       </c>
       <c r="M55" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="N55" t="inlineStr">
         <is>
@@ -5448,7 +5448,7 @@
         <v>1.36</v>
       </c>
       <c r="M56" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="N56" t="inlineStr">
         <is>
@@ -5538,7 +5538,7 @@
         <v>1.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="N57" t="inlineStr">
         <is>
@@ -5628,7 +5628,7 @@
         <v>1.45</v>
       </c>
       <c r="M58" t="n">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="N58" t="inlineStr">
         <is>
@@ -5718,7 +5718,7 @@
         <v>1.29</v>
       </c>
       <c r="M59" t="n">
-        <v>1.17</v>
+        <v>1.29</v>
       </c>
       <c r="N59" t="inlineStr">
         <is>
@@ -5808,7 +5808,7 @@
         <v>1.55</v>
       </c>
       <c r="M60" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="N60" t="inlineStr">
         <is>
@@ -5988,7 +5988,7 @@
         <v>1.45</v>
       </c>
       <c r="M62" t="n">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="N62" t="inlineStr">
         <is>
@@ -6078,7 +6078,7 @@
         <v>1.42</v>
       </c>
       <c r="M63" t="n">
-        <v>1.17</v>
+        <v>1.42</v>
       </c>
       <c r="N63" t="inlineStr">
         <is>
@@ -6168,7 +6168,7 @@
         <v>1.2</v>
       </c>
       <c r="M64" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="N64" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>1.26</v>
       </c>
       <c r="M68" t="n">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="N68" t="inlineStr">
         <is>
@@ -6798,7 +6798,7 @@
         <v>1.44</v>
       </c>
       <c r="M71" t="n">
-        <v>1.17</v>
+        <v>1.44</v>
       </c>
       <c r="N71" t="inlineStr">
         <is>
@@ -6888,7 +6888,7 @@
         <v>1.21</v>
       </c>
       <c r="M72" t="n">
-        <v>1.17</v>
+        <v>1.21</v>
       </c>
       <c r="N72" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>1.4</v>
       </c>
       <c r="M73" t="n">
-        <v>1.17</v>
+        <v>1.4</v>
       </c>
       <c r="N73" t="inlineStr">
         <is>
@@ -7068,7 +7068,7 @@
         <v>1.25</v>
       </c>
       <c r="M74" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="N74" t="inlineStr">
         <is>
@@ -7158,7 +7158,7 @@
         <v>1.25</v>
       </c>
       <c r="M75" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="N75" t="inlineStr">
         <is>
@@ -7428,7 +7428,7 @@
         <v>1.58</v>
       </c>
       <c r="M78" t="n">
-        <v>1.17</v>
+        <v>1.58</v>
       </c>
       <c r="N78" t="inlineStr">
         <is>
@@ -7518,7 +7518,7 @@
         <v>1.48</v>
       </c>
       <c r="M79" t="n">
-        <v>1.17</v>
+        <v>1.48</v>
       </c>
       <c r="N79" t="inlineStr">
         <is>
@@ -7608,7 +7608,7 @@
         <v>1.22</v>
       </c>
       <c r="M80" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="N80" t="inlineStr">
         <is>
@@ -7698,7 +7698,7 @@
         <v>1.3</v>
       </c>
       <c r="M81" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="N81" t="inlineStr">
         <is>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V81"/>
+  <dimension ref="A1:X81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,75 +466,85 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>Odds_H_X</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Odds_X_A</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Pred_H</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Pred_A</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Winning_team</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Winning_prob</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Winning_bet</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Winning_bet_final</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>bet_type</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>bet_type_order</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>team</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>opponent</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>result</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>Winning_team_actual</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>bet_right</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>bet_right_win_draw</t>
         </is>
@@ -571,62 +581,68 @@
         <v>9</v>
       </c>
       <c r="H2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J2" t="n">
         <v>0.84</v>
       </c>
-      <c r="I2" t="n">
+      <c r="K2" t="n">
         <v>0.16</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="M2" t="n">
         <v>0.84</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>1.35</v>
       </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>1.35</v>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O2" t="n">
+      <c r="Q2" t="n">
         <v>3</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>Goias</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="U2" t="n">
-        <v>1</v>
-      </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -661,62 +677,68 @@
         <v>1.36</v>
       </c>
       <c r="H3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.3</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
       </c>
       <c r="K3" t="n">
         <v>0.7</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N3" t="n">
         <v>1.36</v>
       </c>
-      <c r="M3" t="n">
+      <c r="O3" t="n">
         <v>1.36</v>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O3" t="n">
+      <c r="Q3" t="n">
         <v>3</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2023-09-15</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>Estrela</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
+        <v>1</v>
+      </c>
+      <c r="X3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -751,62 +773,68 @@
         <v>1.48</v>
       </c>
       <c r="H4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.32</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>Manchester City</t>
-        </is>
       </c>
       <c r="K4" t="n">
         <v>0.68</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N4" t="n">
         <v>1.48</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>1.48</v>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O4" t="n">
+      <c r="Q4" t="n">
         <v>3</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>West Ham United</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
+        <v>1</v>
+      </c>
+      <c r="X4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -841,62 +869,68 @@
         <v>5.9</v>
       </c>
       <c r="H5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J5" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>0.06</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>1.52</v>
       </c>
-      <c r="M5" t="n">
+      <c r="O5" t="n">
         <v>1.52</v>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O5" t="n">
+      <c r="Q5" t="n">
         <v>3</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>Metz</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>Metz</t>
         </is>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>0</v>
       </c>
-      <c r="V5" t="n">
+      <c r="X5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -931,62 +965,68 @@
         <v>12</v>
       </c>
       <c r="H6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I6" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J6" t="n">
         <v>0.9</v>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>0.1</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.9</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>1.24</v>
       </c>
-      <c r="M6" t="n">
+      <c r="O6" t="n">
         <v>1.24</v>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O6" t="n">
+      <c r="Q6" t="n">
         <v>3</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>Augsburg</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="U6" t="n">
-        <v>1</v>
-      </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
+        <v>1</v>
+      </c>
+      <c r="X6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1021,62 +1061,68 @@
         <v>11.5</v>
       </c>
       <c r="H7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J7" t="n">
         <v>0.84</v>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>0.16</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Feyenoord</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.84</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>1.24</v>
       </c>
-      <c r="M7" t="n">
+      <c r="O7" t="n">
         <v>1.24</v>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O7" t="n">
+      <c r="Q7" t="n">
         <v>3</v>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>Feyenoord</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>Heerenveen</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>Feyenoord</t>
         </is>
       </c>
-      <c r="U7" t="n">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
+        <v>1</v>
+      </c>
+      <c r="X7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1111,62 +1157,68 @@
         <v>1.33</v>
       </c>
       <c r="H8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J8" t="n">
         <v>0.31</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
       </c>
       <c r="K8" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="L8" t="n">
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N8" t="n">
         <v>1.33</v>
       </c>
-      <c r="M8" t="n">
+      <c r="O8" t="n">
         <v>1.33</v>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>3</v>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>2023-09-16</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>Vizela</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
+        <v>1</v>
+      </c>
+      <c r="X8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1201,62 +1253,68 @@
         <v>1.52</v>
       </c>
       <c r="H9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J9" t="n">
         <v>0.29</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
       </c>
       <c r="K9" t="n">
         <v>0.71</v>
       </c>
-      <c r="L9" t="n">
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="N9" t="n">
         <v>1.52</v>
       </c>
-      <c r="M9" t="n">
+      <c r="O9" t="n">
         <v>1.52</v>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O9" t="n">
+      <c r="Q9" t="n">
         <v>3</v>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>Everton</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
+        <v>1</v>
+      </c>
+      <c r="X9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1291,62 +1349,68 @@
         <v>6</v>
       </c>
       <c r="H10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J10" t="n">
         <v>0.85</v>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>0.15</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Vitoria Guimaraes</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0.85</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>1.53</v>
       </c>
-      <c r="M10" t="n">
+      <c r="O10" t="n">
         <v>1.53</v>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O10" t="n">
+      <c r="Q10" t="n">
         <v>3</v>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>Vitoria Guimaraes</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>Portimonense</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>Portimonense</t>
         </is>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>0</v>
       </c>
-      <c r="V10" t="n">
+      <c r="X10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1381,62 +1445,68 @@
         <v>13</v>
       </c>
       <c r="H11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J11" t="n">
         <v>0.87</v>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>0.13</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>0.87</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>1.22</v>
       </c>
-      <c r="M11" t="n">
+      <c r="O11" t="n">
         <v>1.22</v>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O11" t="n">
+      <c r="Q11" t="n">
         <v>3</v>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>2023-09-17</t>
         </is>
       </c>
-      <c r="Q11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>Moreirense</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="V11" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="U11" t="n">
-        <v>1</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
+        <v>1</v>
+      </c>
+      <c r="X11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1471,62 +1541,68 @@
         <v>4.5</v>
       </c>
       <c r="H12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J12" t="n">
         <v>0.88</v>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>0.12</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.88</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>1.78</v>
       </c>
-      <c r="M12" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O12" t="n">
+      <c r="Q12" t="n">
         <v>3</v>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>2023-09-20</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>Cruzeiro</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="V12" t="inlineStr">
         <is>
           <t>Fluminense</t>
         </is>
       </c>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
+        <v>1</v>
+      </c>
+      <c r="X12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1561,62 +1637,68 @@
         <v>8.5</v>
       </c>
       <c r="H13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J13" t="n">
         <v>0.88</v>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>0.12</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Antwerp</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.88</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>1.35</v>
       </c>
-      <c r="M13" t="n">
+      <c r="O13" t="n">
         <v>1.35</v>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O13" t="n">
+      <c r="Q13" t="n">
         <v>3</v>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>Antwerp</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>RWD Molenbeek</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="V13" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U13" t="n">
+      <c r="W13" t="n">
         <v>0</v>
       </c>
-      <c r="V13" t="n">
+      <c r="X13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1651,62 +1733,68 @@
         <v>7</v>
       </c>
       <c r="H14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I14" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J14" t="n">
         <v>0.88</v>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>0.12</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0.88</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>1.58</v>
       </c>
-      <c r="M14" t="n">
+      <c r="O14" t="n">
         <v>1.58</v>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O14" t="n">
+      <c r="Q14" t="n">
         <v>3</v>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>Getafe</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="V14" t="inlineStr">
         <is>
           <t>Real Sociedad</t>
         </is>
       </c>
-      <c r="U14" t="n">
-        <v>1</v>
-      </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
+        <v>1</v>
+      </c>
+      <c r="X14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1741,62 +1829,68 @@
         <v>6</v>
       </c>
       <c r="H15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J15" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>0.19</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>1.5</v>
       </c>
-      <c r="M15" t="n">
+      <c r="O15" t="n">
         <v>1.5</v>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O15" t="n">
+      <c r="Q15" t="n">
         <v>3</v>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>Boavista</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T15" t="inlineStr">
+      <c r="V15" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="U15" t="n">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
+        <v>1</v>
+      </c>
+      <c r="X15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1831,62 +1925,68 @@
         <v>1.25</v>
       </c>
       <c r="H16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J16" t="n">
         <v>0.26</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
       </c>
       <c r="K16" t="n">
         <v>0.74</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="N16" t="n">
         <v>1.25</v>
       </c>
-      <c r="M16" t="n">
+      <c r="O16" t="n">
         <v>1.25</v>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O16" t="n">
+      <c r="Q16" t="n">
         <v>3</v>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>Portimonense</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="V16" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="U16" t="n">
-        <v>1</v>
-      </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
+        <v>1</v>
+      </c>
+      <c r="X16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1921,62 +2021,68 @@
         <v>1.52</v>
       </c>
       <c r="H17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J17" t="n">
         <v>0.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Twente</t>
-        </is>
       </c>
       <c r="K17" t="n">
         <v>0.8</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N17" t="n">
         <v>1.52</v>
       </c>
-      <c r="M17" t="n">
+      <c r="O17" t="n">
         <v>1.52</v>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O17" t="n">
+      <c r="Q17" t="n">
         <v>3</v>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>RKC Waalwijk</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>Twente</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="V17" t="inlineStr">
         <is>
           <t>RKC Waalwijk</t>
         </is>
       </c>
-      <c r="U17" t="n">
+      <c r="W17" t="n">
         <v>0</v>
       </c>
-      <c r="V17" t="n">
+      <c r="X17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2011,62 +2117,68 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.93</v>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.93</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>1.33</v>
       </c>
-      <c r="M18" t="n">
+      <c r="O18" t="n">
         <v>1.33</v>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O18" t="n">
+      <c r="Q18" t="n">
         <v>3</v>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>Cagliari</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="V18" t="inlineStr">
         <is>
           <t>Atalanta</t>
         </is>
       </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
+        <v>1</v>
+      </c>
+      <c r="X18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2101,62 +2213,68 @@
         <v>1.34</v>
       </c>
       <c r="H19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J19" t="n">
         <v>0.35</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Internazionale</t>
-        </is>
       </c>
       <c r="K19" t="n">
         <v>0.65</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.34</v>
       </c>
-      <c r="M19" t="n">
+      <c r="O19" t="n">
         <v>1.34</v>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O19" t="n">
+      <c r="Q19" t="n">
         <v>3</v>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>Empoli</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="V19" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="U19" t="n">
-        <v>1</v>
-      </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
+        <v>1</v>
+      </c>
+      <c r="X19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2191,62 +2309,68 @@
         <v>4.65</v>
       </c>
       <c r="H20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J20" t="n">
         <v>0.85</v>
       </c>
-      <c r="I20" t="n">
+      <c r="K20" t="n">
         <v>0.15</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.85</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>1.65</v>
       </c>
-      <c r="M20" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="O20" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O20" t="n">
+      <c r="Q20" t="n">
         <v>3</v>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>Toulouse</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="V20" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="U20" t="n">
-        <v>1</v>
-      </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
+        <v>1</v>
+      </c>
+      <c r="X20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,62 +2405,68 @@
         <v>7.1</v>
       </c>
       <c r="H21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J21" t="n">
         <v>0.82</v>
       </c>
-      <c r="I21" t="n">
+      <c r="K21" t="n">
         <v>0.18</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.82</v>
       </c>
-      <c r="L21" t="n">
+      <c r="N21" t="n">
         <v>1.43</v>
       </c>
-      <c r="M21" t="n">
+      <c r="O21" t="n">
         <v>1.43</v>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O21" t="n">
+      <c r="Q21" t="n">
         <v>3</v>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>West Ham United</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="U21" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T21" t="inlineStr">
+      <c r="V21" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="U21" t="n">
-        <v>1</v>
-      </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
+        <v>1</v>
+      </c>
+      <c r="X21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2371,62 +2501,68 @@
         <v>8.1</v>
       </c>
       <c r="H22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J22" t="n">
         <v>0.83</v>
       </c>
-      <c r="I22" t="n">
+      <c r="K22" t="n">
         <v>0.17</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Brighton and Hove Albion</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.83</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>1.36</v>
       </c>
-      <c r="M22" t="n">
+      <c r="O22" t="n">
         <v>1.36</v>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O22" t="n">
+      <c r="Q22" t="n">
         <v>3</v>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>Brighton and Hove Albion</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="V22" t="inlineStr">
         <is>
           <t>Brighton and Hove Albion</t>
         </is>
       </c>
-      <c r="U22" t="n">
-        <v>1</v>
-      </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
+        <v>1</v>
+      </c>
+      <c r="X22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,62 +2597,68 @@
         <v>10</v>
       </c>
       <c r="H23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J23" t="n">
         <v>0.86</v>
       </c>
-      <c r="I23" t="n">
+      <c r="K23" t="n">
         <v>0.14</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Gent</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.86</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>1.28</v>
       </c>
-      <c r="M23" t="n">
+      <c r="O23" t="n">
         <v>1.28</v>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O23" t="n">
+      <c r="Q23" t="n">
         <v>3</v>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>Gent</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>Eupen</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>Gent</t>
         </is>
       </c>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
+        <v>1</v>
+      </c>
+      <c r="X23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2551,62 +2693,68 @@
         <v>4.75</v>
       </c>
       <c r="H24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J24" t="n">
         <v>0.8</v>
       </c>
-      <c r="I24" t="n">
+      <c r="K24" t="n">
         <v>0.2</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Genk</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.8</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>1.63</v>
       </c>
-      <c r="M24" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="O24" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P24" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O24" t="n">
+      <c r="Q24" t="n">
         <v>3</v>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>2023-09-24</t>
         </is>
       </c>
-      <c r="Q24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>Genk</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>Sint Truiden</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="V24" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U24" t="n">
-        <v>1</v>
-      </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
+        <v>1</v>
+      </c>
+      <c r="X24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,62 +2789,68 @@
         <v>8.5</v>
       </c>
       <c r="H25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J25" t="n">
         <v>0.9</v>
       </c>
-      <c r="I25" t="n">
+      <c r="K25" t="n">
         <v>0.1</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.9</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>1.35</v>
       </c>
-      <c r="M25" t="n">
+      <c r="O25" t="n">
         <v>1.35</v>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O25" t="n">
+      <c r="Q25" t="n">
         <v>3</v>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="Q25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>Celta Vigo</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="V25" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="U25" t="n">
-        <v>1</v>
-      </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
+        <v>1</v>
+      </c>
+      <c r="X25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2731,62 +2885,68 @@
         <v>11</v>
       </c>
       <c r="H26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J26" t="n">
         <v>0.95</v>
       </c>
-      <c r="I26" t="n">
+      <c r="K26" t="n">
         <v>0.05</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
         <v>0.95</v>
       </c>
-      <c r="L26" t="n">
+      <c r="N26" t="n">
         <v>1.25</v>
       </c>
-      <c r="M26" t="n">
+      <c r="O26" t="n">
         <v>1.25</v>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O26" t="n">
+      <c r="Q26" t="n">
         <v>3</v>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="Q26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>Gil Vicente FC</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="V26" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="U26" t="n">
-        <v>1</v>
-      </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
+        <v>1</v>
+      </c>
+      <c r="X26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2821,62 +2981,68 @@
         <v>1.23</v>
       </c>
       <c r="H27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J27" t="n">
         <v>0.24</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>PSV Eindhoven</t>
-        </is>
       </c>
       <c r="K27" t="n">
         <v>0.76</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N27" t="n">
         <v>1.23</v>
       </c>
-      <c r="M27" t="n">
+      <c r="O27" t="n">
         <v>1.23</v>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O27" t="n">
+      <c r="Q27" t="n">
         <v>3</v>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="Q27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>Almere City</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>PSV Eindhoven</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="V27" t="inlineStr">
         <is>
           <t>PSV Eindhoven</t>
         </is>
       </c>
-      <c r="U27" t="n">
-        <v>1</v>
-      </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
+        <v>1</v>
+      </c>
+      <c r="X27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2911,62 +3077,68 @@
         <v>4.1</v>
       </c>
       <c r="H28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J28" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I28" t="n">
+      <c r="K28" t="n">
         <v>0.19</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Lazio</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>1.85</v>
       </c>
-      <c r="M28" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="O28" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P28" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O28" t="n">
+      <c r="Q28" t="n">
         <v>3</v>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="Q28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>Lazio</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>Monza</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="V28" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U28" t="n">
-        <v>1</v>
-      </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
+        <v>1</v>
+      </c>
+      <c r="X28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3001,62 +3173,68 @@
         <v>8.300000000000001</v>
       </c>
       <c r="H29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I29" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J29" t="n">
         <v>0.93</v>
       </c>
-      <c r="I29" t="n">
+      <c r="K29" t="n">
         <v>0.07000000000000001</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Milan</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>0.93</v>
       </c>
-      <c r="L29" t="n">
+      <c r="N29" t="n">
         <v>1.37</v>
       </c>
-      <c r="M29" t="n">
+      <c r="O29" t="n">
         <v>1.37</v>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O29" t="n">
+      <c r="Q29" t="n">
         <v>3</v>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="Q29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>Milan</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>Hellas Verona</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="V29" t="inlineStr">
         <is>
           <t>Milan</t>
         </is>
       </c>
-      <c r="U29" t="n">
-        <v>1</v>
-      </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
+        <v>1</v>
+      </c>
+      <c r="X29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3091,62 +3269,68 @@
         <v>6.5</v>
       </c>
       <c r="H30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J30" t="n">
         <v>0.83</v>
       </c>
-      <c r="I30" t="n">
+      <c r="K30" t="n">
         <v>0.17</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Atletico Mineiro</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.83</v>
       </c>
-      <c r="L30" t="n">
+      <c r="N30" t="n">
         <v>1.57</v>
       </c>
-      <c r="M30" t="n">
+      <c r="O30" t="n">
         <v>1.57</v>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O30" t="n">
+      <c r="Q30" t="n">
         <v>3</v>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>2023-09-23</t>
         </is>
       </c>
-      <c r="Q30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>Atletico Mineiro</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>Cuiaba</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="U30" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T30" t="inlineStr">
+      <c r="V30" t="inlineStr">
         <is>
           <t>Atletico Mineiro</t>
         </is>
       </c>
-      <c r="U30" t="n">
-        <v>1</v>
-      </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
+        <v>1</v>
+      </c>
+      <c r="X30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3181,62 +3365,68 @@
         <v>15</v>
       </c>
       <c r="H31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J31" t="n">
         <v>0.9</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
         <v>0.1</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.9</v>
       </c>
-      <c r="L31" t="n">
+      <c r="N31" t="n">
         <v>1.2</v>
       </c>
-      <c r="M31" t="n">
+      <c r="O31" t="n">
         <v>1.2</v>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O31" t="n">
+      <c r="Q31" t="n">
         <v>3</v>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>2023-09-25</t>
         </is>
       </c>
-      <c r="Q31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>Rio Ave</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="U31" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T31" t="inlineStr">
+      <c r="V31" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="U31" t="n">
-        <v>1</v>
-      </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
+        <v>1</v>
+      </c>
+      <c r="X31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3271,62 +3461,68 @@
         <v>6.3</v>
       </c>
       <c r="H32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I32" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J32" t="n">
         <v>0.82</v>
       </c>
-      <c r="I32" t="n">
+      <c r="K32" t="n">
         <v>0.18</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>0.82</v>
       </c>
-      <c r="L32" t="n">
+      <c r="N32" t="n">
         <v>1.52</v>
       </c>
-      <c r="M32" t="n">
+      <c r="O32" t="n">
         <v>1.52</v>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O32" t="n">
+      <c r="Q32" t="n">
         <v>3</v>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>2023-09-26</t>
         </is>
       </c>
-      <c r="Q32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>Lecce</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="V32" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="U32" t="n">
-        <v>1</v>
-      </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
+        <v>1</v>
+      </c>
+      <c r="X32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3361,62 +3557,68 @@
         <v>8.9</v>
       </c>
       <c r="H33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J33" t="n">
         <v>0.85</v>
       </c>
-      <c r="I33" t="n">
+      <c r="K33" t="n">
         <v>0.15</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.85</v>
       </c>
-      <c r="L33" t="n">
+      <c r="N33" t="n">
         <v>1.32</v>
       </c>
-      <c r="M33" t="n">
+      <c r="O33" t="n">
         <v>1.32</v>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O33" t="n">
+      <c r="Q33" t="n">
         <v>3</v>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="Q33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>Sassuolo</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="V33" t="inlineStr">
         <is>
           <t>Sassuolo</t>
         </is>
       </c>
-      <c r="U33" t="n">
+      <c r="W33" t="n">
         <v>0</v>
       </c>
-      <c r="V33" t="n">
+      <c r="X33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3451,62 +3653,68 @@
         <v>10.5</v>
       </c>
       <c r="H34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I34" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J34" t="n">
         <v>0.89</v>
       </c>
-      <c r="I34" t="n">
+      <c r="K34" t="n">
         <v>0.11</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.89</v>
       </c>
-      <c r="L34" t="n">
+      <c r="N34" t="n">
         <v>1.25</v>
       </c>
-      <c r="M34" t="n">
+      <c r="O34" t="n">
         <v>1.25</v>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O34" t="n">
+      <c r="Q34" t="n">
         <v>3</v>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Q34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>Fortuna Sittard</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="V34" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="U34" t="n">
-        <v>1</v>
-      </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
+        <v>1</v>
+      </c>
+      <c r="X34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3541,62 +3749,68 @@
         <v>7.8</v>
       </c>
       <c r="H35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J35" t="n">
         <v>0.9</v>
       </c>
-      <c r="I35" t="n">
+      <c r="K35" t="n">
         <v>0.1</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.9</v>
       </c>
-      <c r="L35" t="n">
+      <c r="N35" t="n">
         <v>1.43</v>
       </c>
-      <c r="M35" t="n">
+      <c r="O35" t="n">
         <v>1.43</v>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O35" t="n">
+      <c r="Q35" t="n">
         <v>3</v>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Q35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>Frosinone</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="V35" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="U35" t="n">
-        <v>1</v>
-      </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
+        <v>1</v>
+      </c>
+      <c r="X35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3631,62 +3845,68 @@
         <v>4.5</v>
       </c>
       <c r="H36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J36" t="n">
         <v>0.89</v>
       </c>
-      <c r="I36" t="n">
+      <c r="K36" t="n">
         <v>0.11</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="L36" t="inlineStr">
         <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>0.89</v>
       </c>
-      <c r="L36" t="n">
+      <c r="N36" t="n">
         <v>1.72</v>
       </c>
-      <c r="M36" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="O36" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P36" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O36" t="n">
+      <c r="Q36" t="n">
         <v>3</v>
       </c>
-      <c r="P36" t="inlineStr">
+      <c r="R36" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Q36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>Augsburg</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="V36" t="inlineStr">
         <is>
           <t>Freiburg</t>
         </is>
       </c>
-      <c r="U36" t="n">
-        <v>1</v>
-      </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
+        <v>1</v>
+      </c>
+      <c r="X36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3721,62 +3941,68 @@
         <v>5.9</v>
       </c>
       <c r="H37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J37" t="n">
         <v>0.89</v>
       </c>
-      <c r="I37" t="n">
+      <c r="K37" t="n">
         <v>0.11</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>0.89</v>
       </c>
-      <c r="L37" t="n">
+      <c r="N37" t="n">
         <v>1.52</v>
       </c>
-      <c r="M37" t="n">
+      <c r="O37" t="n">
         <v>1.52</v>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O37" t="n">
+      <c r="Q37" t="n">
         <v>3</v>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Q37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>Nantes</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="V37" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="U37" t="n">
-        <v>1</v>
-      </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
+        <v>1</v>
+      </c>
+      <c r="X37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3811,62 +4037,68 @@
         <v>1.63</v>
       </c>
       <c r="H38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J38" t="n">
         <v>0.32</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Gent</t>
-        </is>
       </c>
       <c r="K38" t="n">
         <v>0.68</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Gent</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N38" t="n">
         <v>1.63</v>
       </c>
-      <c r="M38" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="O38" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P38" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O38" t="n">
+      <c r="Q38" t="n">
         <v>3</v>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Q38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>RWD Molenbeek</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>Gent</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="V38" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U38" t="n">
-        <v>1</v>
-      </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
+        <v>1</v>
+      </c>
+      <c r="X38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3901,62 +4133,68 @@
         <v>4.75</v>
       </c>
       <c r="H39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J39" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I39" t="n">
+      <c r="K39" t="n">
         <v>0.19</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Union SG</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L39" t="n">
+      <c r="N39" t="n">
         <v>1.66</v>
       </c>
-      <c r="M39" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="O39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P39" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O39" t="n">
+      <c r="Q39" t="n">
         <v>3</v>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>Union SG</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>Charleroi</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="V39" t="inlineStr">
         <is>
           <t>Union SG</t>
         </is>
       </c>
-      <c r="U39" t="n">
-        <v>1</v>
-      </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
+        <v>1</v>
+      </c>
+      <c r="X39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3991,62 +4229,68 @@
         <v>1.4</v>
       </c>
       <c r="H40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I40" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J40" t="n">
         <v>0.31</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J40" t="inlineStr">
-        <is>
-          <t>Sporting CP</t>
-        </is>
       </c>
       <c r="K40" t="n">
         <v>0.6899999999999999</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N40" t="n">
         <v>1.4</v>
       </c>
-      <c r="M40" t="n">
+      <c r="O40" t="n">
         <v>1.4</v>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O40" t="n">
+      <c r="Q40" t="n">
         <v>3</v>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Q40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>Farense</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="V40" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="U40" t="n">
-        <v>1</v>
-      </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
+        <v>1</v>
+      </c>
+      <c r="X40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4081,62 +4325,68 @@
         <v>1.58</v>
       </c>
       <c r="H41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J41" t="n">
         <v>0.33</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>Ajax</t>
-        </is>
       </c>
       <c r="K41" t="n">
         <v>0.67</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N41" t="n">
         <v>1.58</v>
       </c>
-      <c r="M41" t="n">
+      <c r="O41" t="n">
         <v>1.58</v>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O41" t="n">
+      <c r="Q41" t="n">
         <v>3</v>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Q41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>RKC Waalwijk</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="V41" t="inlineStr">
         <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="U41" t="n">
-        <v>1</v>
-      </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
+        <v>1</v>
+      </c>
+      <c r="X41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,62 +4421,68 @@
         <v>1.44</v>
       </c>
       <c r="H42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I42" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J42" t="n">
         <v>0.23</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>Internazionale</t>
-        </is>
       </c>
       <c r="K42" t="n">
         <v>0.77</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Internazionale</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="N42" t="n">
         <v>1.44</v>
       </c>
-      <c r="M42" t="n">
+      <c r="O42" t="n">
         <v>1.44</v>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O42" t="n">
+      <c r="Q42" t="n">
         <v>3</v>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Q42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>Salernitana</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="V42" t="inlineStr">
         <is>
           <t>Internazionale</t>
         </is>
       </c>
-      <c r="U42" t="n">
-        <v>1</v>
-      </c>
-      <c r="V42" t="n">
+      <c r="W42" t="n">
+        <v>1</v>
+      </c>
+      <c r="X42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4261,62 +4517,68 @@
         <v>1.35</v>
       </c>
       <c r="H43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I43" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J43" t="n">
         <v>0.21</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>Manchester City</t>
-        </is>
       </c>
       <c r="K43" t="n">
         <v>0.79</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Manchester City</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="N43" t="n">
         <v>1.35</v>
       </c>
-      <c r="M43" t="n">
+      <c r="O43" t="n">
         <v>1.35</v>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O43" t="n">
+      <c r="Q43" t="n">
         <v>3</v>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Q43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>Wolverhampton Wanderers</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>Manchester City</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="V43" t="inlineStr">
         <is>
           <t>Wolverhampton Wanderers</t>
         </is>
       </c>
-      <c r="U43" t="n">
+      <c r="W43" t="n">
         <v>0</v>
       </c>
-      <c r="V43" t="n">
+      <c r="X43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4351,62 +4613,68 @@
         <v>10.5</v>
       </c>
       <c r="H44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I44" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J44" t="n">
         <v>0.92</v>
       </c>
-      <c r="I44" t="n">
+      <c r="K44" t="n">
         <v>0.08</v>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>0.92</v>
       </c>
-      <c r="L44" t="n">
+      <c r="N44" t="n">
         <v>1.31</v>
       </c>
-      <c r="M44" t="n">
+      <c r="O44" t="n">
         <v>1.31</v>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O44" t="n">
+      <c r="Q44" t="n">
         <v>3</v>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Q44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>Burnley</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="V44" t="inlineStr">
         <is>
           <t>Newcastle United</t>
         </is>
       </c>
-      <c r="U44" t="n">
-        <v>1</v>
-      </c>
-      <c r="V44" t="n">
+      <c r="W44" t="n">
+        <v>1</v>
+      </c>
+      <c r="X44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4441,62 +4709,68 @@
         <v>5.9</v>
       </c>
       <c r="H45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I45" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J45" t="n">
         <v>0.8</v>
       </c>
-      <c r="I45" t="n">
+      <c r="K45" t="n">
         <v>0.2</v>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>Manchester United</t>
         </is>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.8</v>
       </c>
-      <c r="L45" t="n">
+      <c r="N45" t="n">
         <v>1.58</v>
       </c>
-      <c r="M45" t="n">
+      <c r="O45" t="n">
         <v>1.58</v>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O45" t="n">
+      <c r="Q45" t="n">
         <v>3</v>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Q45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>Manchester United</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>Crystal Palace</t>
         </is>
       </c>
-      <c r="U45" t="n">
+      <c r="W45" t="n">
         <v>0</v>
       </c>
-      <c r="V45" t="n">
+      <c r="X45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4531,62 +4805,68 @@
         <v>1.52</v>
       </c>
       <c r="H46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I46" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J46" t="n">
         <v>0.24</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>Arsenal</t>
-        </is>
       </c>
       <c r="K46" t="n">
         <v>0.76</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="N46" t="n">
         <v>1.52</v>
       </c>
-      <c r="M46" t="n">
+      <c r="O46" t="n">
         <v>1.52</v>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O46" t="n">
+      <c r="Q46" t="n">
         <v>3</v>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Q46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>Bournemouth</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="V46" t="inlineStr">
         <is>
           <t>Arsenal</t>
         </is>
       </c>
-      <c r="U46" t="n">
-        <v>1</v>
-      </c>
-      <c r="V46" t="n">
+      <c r="W46" t="n">
+        <v>1</v>
+      </c>
+      <c r="X46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4621,62 +4901,68 @@
         <v>5.5</v>
       </c>
       <c r="H47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J47" t="n">
         <v>0.83</v>
       </c>
-      <c r="I47" t="n">
+      <c r="K47" t="n">
         <v>0.17</v>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>0.83</v>
       </c>
-      <c r="L47" t="n">
+      <c r="N47" t="n">
         <v>1.55</v>
       </c>
-      <c r="M47" t="n">
+      <c r="O47" t="n">
         <v>1.55</v>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O47" t="n">
+      <c r="Q47" t="n">
         <v>3</v>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>2023-09-30</t>
         </is>
       </c>
-      <c r="Q47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>Bahia</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="V47" t="inlineStr">
         <is>
           <t>Flamengo</t>
         </is>
       </c>
-      <c r="U47" t="n">
-        <v>1</v>
-      </c>
-      <c r="V47" t="n">
+      <c r="W47" t="n">
+        <v>1</v>
+      </c>
+      <c r="X47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4711,62 +4997,68 @@
         <v>8.5</v>
       </c>
       <c r="H48" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I48" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J48" t="n">
         <v>0.88</v>
       </c>
-      <c r="I48" t="n">
+      <c r="K48" t="n">
         <v>0.12</v>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.88</v>
       </c>
-      <c r="L48" t="n">
+      <c r="N48" t="n">
         <v>1.36</v>
       </c>
-      <c r="M48" t="n">
+      <c r="O48" t="n">
         <v>1.36</v>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O48" t="n">
+      <c r="Q48" t="n">
         <v>3</v>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>2023-09-29</t>
         </is>
       </c>
-      <c r="Q48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>Sevilla</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="V48" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="U48" t="n">
-        <v>1</v>
-      </c>
-      <c r="V48" t="n">
+      <c r="W48" t="n">
+        <v>1</v>
+      </c>
+      <c r="X48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4801,62 +5093,68 @@
         <v>10.5</v>
       </c>
       <c r="H49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J49" t="n">
         <v>0.87</v>
       </c>
-      <c r="I49" t="n">
+      <c r="K49" t="n">
         <v>0.13</v>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.87</v>
       </c>
-      <c r="L49" t="n">
+      <c r="N49" t="n">
         <v>1.27</v>
       </c>
-      <c r="M49" t="n">
+      <c r="O49" t="n">
         <v>1.27</v>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O49" t="n">
+      <c r="Q49" t="n">
         <v>3</v>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>2023-09-28</t>
         </is>
       </c>
-      <c r="Q49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>Heracles Almelo</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U49" t="n">
+      <c r="W49" t="n">
         <v>0</v>
       </c>
-      <c r="V49" t="n">
+      <c r="X49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4891,62 +5189,68 @@
         <v>13</v>
       </c>
       <c r="H50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I50" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J50" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="I50" t="n">
+      <c r="K50" t="n">
         <v>0.06</v>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.9399999999999999</v>
       </c>
-      <c r="L50" t="n">
+      <c r="N50" t="n">
         <v>1.22</v>
       </c>
-      <c r="M50" t="n">
+      <c r="O50" t="n">
         <v>1.22</v>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O50" t="n">
+      <c r="Q50" t="n">
         <v>3</v>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="Q50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>Las Palmas</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="V50" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="U50" t="n">
-        <v>1</v>
-      </c>
-      <c r="V50" t="n">
+      <c r="W50" t="n">
+        <v>1</v>
+      </c>
+      <c r="X50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4981,62 +5285,68 @@
         <v>7.8</v>
       </c>
       <c r="H51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I51" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J51" t="n">
         <v>0.8</v>
       </c>
-      <c r="I51" t="n">
+      <c r="K51" t="n">
         <v>0.2</v>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Twente</t>
         </is>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.8</v>
       </c>
-      <c r="L51" t="n">
+      <c r="N51" t="n">
         <v>1.39</v>
       </c>
-      <c r="M51" t="n">
+      <c r="O51" t="n">
         <v>1.39</v>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O51" t="n">
+      <c r="Q51" t="n">
         <v>3</v>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="Q51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>Twente</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>Vitesse</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="V51" t="inlineStr">
         <is>
           <t>Twente</t>
         </is>
       </c>
-      <c r="U51" t="n">
-        <v>1</v>
-      </c>
-      <c r="V51" t="n">
+      <c r="W51" t="n">
+        <v>1</v>
+      </c>
+      <c r="X51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5071,62 +5381,68 @@
         <v>8.5</v>
       </c>
       <c r="H52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I52" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J52" t="n">
         <v>0.87</v>
       </c>
-      <c r="I52" t="n">
+      <c r="K52" t="n">
         <v>0.13</v>
       </c>
-      <c r="J52" t="inlineStr">
+      <c r="L52" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.87</v>
       </c>
-      <c r="L52" t="n">
+      <c r="N52" t="n">
         <v>1.38</v>
       </c>
-      <c r="M52" t="n">
+      <c r="O52" t="n">
         <v>1.38</v>
       </c>
-      <c r="N52" t="inlineStr">
+      <c r="P52" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O52" t="n">
+      <c r="Q52" t="n">
         <v>3</v>
       </c>
-      <c r="P52" t="inlineStr">
+      <c r="R52" t="inlineStr">
         <is>
           <t>2023-09-27</t>
         </is>
       </c>
-      <c r="Q52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>Udinese</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="U52" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T52" t="inlineStr">
+      <c r="V52" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="U52" t="n">
-        <v>1</v>
-      </c>
-      <c r="V52" t="n">
+      <c r="W52" t="n">
+        <v>1</v>
+      </c>
+      <c r="X52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5161,62 +5477,68 @@
         <v>9.5</v>
       </c>
       <c r="H53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I53" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J53" t="n">
         <v>0.92</v>
       </c>
-      <c r="I53" t="n">
+      <c r="K53" t="n">
         <v>0.08</v>
       </c>
-      <c r="J53" t="inlineStr">
+      <c r="L53" t="inlineStr">
         <is>
           <t>Atletico Madrid</t>
         </is>
       </c>
-      <c r="K53" t="n">
+      <c r="M53" t="n">
         <v>0.92</v>
       </c>
-      <c r="L53" t="n">
+      <c r="N53" t="n">
         <v>1.3</v>
       </c>
-      <c r="M53" t="n">
+      <c r="O53" t="n">
         <v>1.3</v>
       </c>
-      <c r="N53" t="inlineStr">
+      <c r="P53" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O53" t="n">
+      <c r="Q53" t="n">
         <v>3</v>
       </c>
-      <c r="P53" t="inlineStr">
+      <c r="R53" t="inlineStr">
         <is>
           <t>2023-10-01</t>
         </is>
       </c>
-      <c r="Q53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>Atletico Madrid</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>Cadiz</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="U53" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T53" t="inlineStr">
+      <c r="V53" t="inlineStr">
         <is>
           <t>Atletico Madrid</t>
         </is>
       </c>
-      <c r="U53" t="n">
-        <v>1</v>
-      </c>
-      <c r="V53" t="n">
+      <c r="W53" t="n">
+        <v>1</v>
+      </c>
+      <c r="X53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5251,62 +5573,68 @@
         <v>6.5</v>
       </c>
       <c r="H54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J54" t="n">
         <v>0.91</v>
       </c>
-      <c r="I54" t="n">
+      <c r="K54" t="n">
         <v>0.09</v>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="L54" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.91</v>
       </c>
-      <c r="L54" t="n">
+      <c r="N54" t="n">
         <v>1.52</v>
       </c>
-      <c r="M54" t="n">
+      <c r="O54" t="n">
         <v>1.52</v>
       </c>
-      <c r="N54" t="inlineStr">
+      <c r="P54" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O54" t="n">
+      <c r="Q54" t="n">
         <v>3</v>
       </c>
-      <c r="P54" t="inlineStr">
+      <c r="R54" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="Q54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="T54" t="inlineStr">
         <is>
           <t>Bahia</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="U54" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T54" t="inlineStr">
+      <c r="V54" t="inlineStr">
         <is>
           <t>Palmeiras</t>
         </is>
       </c>
-      <c r="U54" t="n">
-        <v>1</v>
-      </c>
-      <c r="V54" t="n">
+      <c r="W54" t="n">
+        <v>1</v>
+      </c>
+      <c r="X54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5341,62 +5669,68 @@
         <v>5.4</v>
       </c>
       <c r="H55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I55" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J55" t="n">
         <v>0.92</v>
       </c>
-      <c r="I55" t="n">
+      <c r="K55" t="n">
         <v>0.08</v>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="L55" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.92</v>
       </c>
-      <c r="L55" t="n">
+      <c r="N55" t="n">
         <v>1.55</v>
       </c>
-      <c r="M55" t="n">
+      <c r="O55" t="n">
         <v>1.55</v>
       </c>
-      <c r="N55" t="inlineStr">
+      <c r="P55" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O55" t="n">
+      <c r="Q55" t="n">
         <v>3</v>
       </c>
-      <c r="P55" t="inlineStr">
+      <c r="R55" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="Q55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="T55" t="inlineStr">
         <is>
           <t>Nantes</t>
         </is>
       </c>
-      <c r="S55" t="inlineStr">
+      <c r="U55" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T55" t="inlineStr">
+      <c r="V55" t="inlineStr">
         <is>
           <t>Lens</t>
         </is>
       </c>
-      <c r="U55" t="n">
-        <v>1</v>
-      </c>
-      <c r="V55" t="n">
+      <c r="W55" t="n">
+        <v>1</v>
+      </c>
+      <c r="X55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5431,62 +5765,68 @@
         <v>8.699999999999999</v>
       </c>
       <c r="H56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I56" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J56" t="n">
         <v>0.91</v>
       </c>
-      <c r="I56" t="n">
+      <c r="K56" t="n">
         <v>0.09</v>
       </c>
-      <c r="J56" t="inlineStr">
+      <c r="L56" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.91</v>
       </c>
-      <c r="L56" t="n">
+      <c r="N56" t="n">
         <v>1.36</v>
       </c>
-      <c r="M56" t="n">
+      <c r="O56" t="n">
         <v>1.36</v>
       </c>
-      <c r="N56" t="inlineStr">
+      <c r="P56" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O56" t="n">
+      <c r="Q56" t="n">
         <v>3</v>
       </c>
-      <c r="P56" t="inlineStr">
+      <c r="R56" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="Q56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="T56" t="inlineStr">
         <is>
           <t>Hellas Verona</t>
         </is>
       </c>
-      <c r="S56" t="inlineStr">
+      <c r="U56" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T56" t="inlineStr">
+      <c r="V56" t="inlineStr">
         <is>
           <t>Juventus</t>
         </is>
       </c>
-      <c r="U56" t="n">
-        <v>1</v>
-      </c>
-      <c r="V56" t="n">
+      <c r="W56" t="n">
+        <v>1</v>
+      </c>
+      <c r="X56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5521,62 +5861,68 @@
         <v>1.5</v>
       </c>
       <c r="H57" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I57" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J57" t="n">
         <v>0.33</v>
-      </c>
-      <c r="I57" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Genk</t>
-        </is>
       </c>
       <c r="K57" t="n">
         <v>0.67</v>
       </c>
-      <c r="L57" t="n">
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N57" t="n">
         <v>1.5</v>
       </c>
-      <c r="M57" t="n">
+      <c r="O57" t="n">
         <v>1.5</v>
       </c>
-      <c r="N57" t="inlineStr">
+      <c r="P57" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O57" t="n">
+      <c r="Q57" t="n">
         <v>3</v>
       </c>
-      <c r="P57" t="inlineStr">
+      <c r="R57" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="Q57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>Kortrijk</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="T57" t="inlineStr">
         <is>
           <t>Genk</t>
         </is>
       </c>
-      <c r="S57" t="inlineStr">
+      <c r="U57" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T57" t="inlineStr">
+      <c r="V57" t="inlineStr">
         <is>
           <t>Genk</t>
         </is>
       </c>
-      <c r="U57" t="n">
-        <v>1</v>
-      </c>
-      <c r="V57" t="n">
+      <c r="W57" t="n">
+        <v>1</v>
+      </c>
+      <c r="X57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5611,62 +5957,68 @@
         <v>7</v>
       </c>
       <c r="H58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I58" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J58" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I58" t="n">
+      <c r="K58" t="n">
         <v>0.19</v>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="L58" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L58" t="n">
+      <c r="N58" t="n">
         <v>1.45</v>
       </c>
-      <c r="M58" t="n">
+      <c r="O58" t="n">
         <v>1.45</v>
       </c>
-      <c r="N58" t="inlineStr">
+      <c r="P58" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O58" t="n">
+      <c r="Q58" t="n">
         <v>3</v>
       </c>
-      <c r="P58" t="inlineStr">
+      <c r="R58" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="Q58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>Internacional</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>Coritiba</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="U58" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T58" t="inlineStr">
+      <c r="V58" t="inlineStr">
         <is>
           <t>Coritiba</t>
         </is>
       </c>
-      <c r="U58" t="n">
+      <c r="W58" t="n">
         <v>0</v>
       </c>
-      <c r="V58" t="n">
+      <c r="X58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5701,62 +6053,68 @@
         <v>9.9</v>
       </c>
       <c r="H59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I59" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J59" t="n">
         <v>0.92</v>
       </c>
-      <c r="I59" t="n">
+      <c r="K59" t="n">
         <v>0.08</v>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="L59" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="K59" t="n">
+      <c r="M59" t="n">
         <v>0.92</v>
       </c>
-      <c r="L59" t="n">
+      <c r="N59" t="n">
         <v>1.29</v>
       </c>
-      <c r="M59" t="n">
+      <c r="O59" t="n">
         <v>1.29</v>
       </c>
-      <c r="N59" t="inlineStr">
+      <c r="P59" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O59" t="n">
+      <c r="Q59" t="n">
         <v>3</v>
       </c>
-      <c r="P59" t="inlineStr">
+      <c r="R59" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="Q59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>Nottingham Forest</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="U59" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T59" t="inlineStr">
+      <c r="V59" t="inlineStr">
         <is>
           <t>Liverpool</t>
         </is>
       </c>
-      <c r="U59" t="n">
-        <v>1</v>
-      </c>
-      <c r="V59" t="n">
+      <c r="W59" t="n">
+        <v>1</v>
+      </c>
+      <c r="X59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5791,62 +6149,68 @@
         <v>1.55</v>
       </c>
       <c r="H60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J60" t="n">
         <v>0.34</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Paris Saint Germain</t>
-        </is>
       </c>
       <c r="K60" t="n">
         <v>0.66</v>
       </c>
-      <c r="L60" t="n">
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Paris Saint Germain</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N60" t="n">
         <v>1.55</v>
       </c>
-      <c r="M60" t="n">
+      <c r="O60" t="n">
         <v>1.55</v>
       </c>
-      <c r="N60" t="inlineStr">
+      <c r="P60" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O60" t="n">
+      <c r="Q60" t="n">
         <v>3</v>
       </c>
-      <c r="P60" t="inlineStr">
+      <c r="R60" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="Q60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>Brest</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>Paris Saint Germain</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="U60" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T60" t="inlineStr">
+      <c r="V60" t="inlineStr">
         <is>
           <t>Paris Saint Germain</t>
         </is>
       </c>
-      <c r="U60" t="n">
-        <v>1</v>
-      </c>
-      <c r="V60" t="n">
+      <c r="W60" t="n">
+        <v>1</v>
+      </c>
+      <c r="X60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5881,62 +6245,68 @@
         <v>5.4</v>
       </c>
       <c r="H61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J61" t="n">
         <v>0.84</v>
       </c>
-      <c r="I61" t="n">
+      <c r="K61" t="n">
         <v>0.16</v>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="L61" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.84</v>
       </c>
-      <c r="L61" t="n">
+      <c r="N61" t="n">
         <v>1.6</v>
       </c>
-      <c r="M61" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N61" t="inlineStr">
+      <c r="O61" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P61" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O61" t="n">
+      <c r="Q61" t="n">
         <v>3</v>
       </c>
-      <c r="P61" t="inlineStr">
+      <c r="R61" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="Q61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>Rennes</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>Strasbourg</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="U61" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T61" t="inlineStr">
+      <c r="V61" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U61" t="n">
-        <v>1</v>
-      </c>
-      <c r="V61" t="n">
+      <c r="W61" t="n">
+        <v>1</v>
+      </c>
+      <c r="X61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5971,62 +6341,68 @@
         <v>1.45</v>
       </c>
       <c r="H62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J62" t="n">
         <v>0.3</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Porto</t>
-        </is>
       </c>
       <c r="K62" t="n">
         <v>0.7</v>
       </c>
-      <c r="L62" t="n">
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N62" t="n">
         <v>1.45</v>
       </c>
-      <c r="M62" t="n">
+      <c r="O62" t="n">
         <v>1.45</v>
       </c>
-      <c r="N62" t="inlineStr">
+      <c r="P62" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O62" t="n">
+      <c r="Q62" t="n">
         <v>3</v>
       </c>
-      <c r="P62" t="inlineStr">
+      <c r="R62" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="Q62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>Vizela</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="U62" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T62" t="inlineStr">
+      <c r="V62" t="inlineStr">
         <is>
           <t>Porto</t>
         </is>
       </c>
-      <c r="U62" t="n">
-        <v>1</v>
-      </c>
-      <c r="V62" t="n">
+      <c r="W62" t="n">
+        <v>1</v>
+      </c>
+      <c r="X62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6061,62 +6437,68 @@
         <v>7.5</v>
       </c>
       <c r="H63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I63" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J63" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I63" t="n">
+      <c r="K63" t="n">
         <v>0.19</v>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="L63" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L63" t="n">
+      <c r="N63" t="n">
         <v>1.42</v>
       </c>
-      <c r="M63" t="n">
+      <c r="O63" t="n">
         <v>1.42</v>
       </c>
-      <c r="N63" t="inlineStr">
+      <c r="P63" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O63" t="n">
+      <c r="Q63" t="n">
         <v>3</v>
       </c>
-      <c r="P63" t="inlineStr">
+      <c r="R63" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="Q63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>Koln</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="U63" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T63" t="inlineStr">
+      <c r="V63" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="U63" t="n">
-        <v>1</v>
-      </c>
-      <c r="V63" t="n">
+      <c r="W63" t="n">
+        <v>1</v>
+      </c>
+      <c r="X63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6151,62 +6533,68 @@
         <v>15</v>
       </c>
       <c r="H64" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I64" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J64" t="n">
         <v>0.91</v>
       </c>
-      <c r="I64" t="n">
+      <c r="K64" t="n">
         <v>0.09</v>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="L64" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>0.91</v>
       </c>
-      <c r="L64" t="n">
+      <c r="N64" t="n">
         <v>1.2</v>
       </c>
-      <c r="M64" t="n">
+      <c r="O64" t="n">
         <v>1.2</v>
       </c>
-      <c r="N64" t="inlineStr">
+      <c r="P64" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O64" t="n">
+      <c r="Q64" t="n">
         <v>3</v>
       </c>
-      <c r="P64" t="inlineStr">
+      <c r="R64" t="inlineStr">
         <is>
           <t>2023-10-28</t>
         </is>
       </c>
-      <c r="Q64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>Casa Pia</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="U64" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T64" t="inlineStr">
+      <c r="V64" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U64" t="n">
+      <c r="W64" t="n">
         <v>0</v>
       </c>
-      <c r="V64" t="n">
+      <c r="X64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6241,62 +6629,68 @@
         <v>4.75</v>
       </c>
       <c r="H65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J65" t="n">
         <v>0.84</v>
       </c>
-      <c r="I65" t="n">
+      <c r="K65" t="n">
         <v>0.16</v>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="L65" t="inlineStr">
         <is>
           <t>Central Coast Mariners</t>
         </is>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>0.84</v>
       </c>
-      <c r="L65" t="n">
+      <c r="N65" t="n">
         <v>1.62</v>
       </c>
-      <c r="M65" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N65" t="inlineStr">
+      <c r="O65" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P65" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O65" t="n">
+      <c r="Q65" t="n">
         <v>3</v>
       </c>
-      <c r="P65" t="inlineStr">
+      <c r="R65" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="Q65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>Central Coast Mariners</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>Macarthur FC</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="U65" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T65" t="inlineStr">
+      <c r="V65" t="inlineStr">
         <is>
           <t>Macarthur FC</t>
         </is>
       </c>
-      <c r="U65" t="n">
+      <c r="W65" t="n">
         <v>0</v>
       </c>
-      <c r="V65" t="n">
+      <c r="X65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6331,62 +6725,68 @@
         <v>1.6</v>
       </c>
       <c r="H66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J66" t="n">
         <v>0.33</v>
-      </c>
-      <c r="I66" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Union SG</t>
-        </is>
       </c>
       <c r="K66" t="n">
         <v>0.67</v>
       </c>
-      <c r="L66" t="n">
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N66" t="n">
         <v>1.6</v>
       </c>
-      <c r="M66" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N66" t="inlineStr">
+      <c r="O66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P66" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O66" t="n">
+      <c r="Q66" t="n">
         <v>3</v>
       </c>
-      <c r="P66" t="inlineStr">
+      <c r="R66" t="inlineStr">
         <is>
           <t>2023-10-29</t>
         </is>
       </c>
-      <c r="Q66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>Westerlo</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>Union SG</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="U66" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T66" t="inlineStr">
+      <c r="V66" t="inlineStr">
         <is>
           <t>Union SG</t>
         </is>
       </c>
-      <c r="U66" t="n">
-        <v>1</v>
-      </c>
-      <c r="V66" t="n">
+      <c r="W66" t="n">
+        <v>1</v>
+      </c>
+      <c r="X66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6421,62 +6821,68 @@
         <v>4.75</v>
       </c>
       <c r="H67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J67" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I67" t="n">
+      <c r="K67" t="n">
         <v>0.19</v>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="L67" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="K67" t="n">
+      <c r="M67" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L67" t="n">
+      <c r="N67" t="n">
         <v>1.75</v>
       </c>
-      <c r="M67" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N67" t="inlineStr">
+      <c r="O67" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P67" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O67" t="n">
+      <c r="Q67" t="n">
         <v>3</v>
       </c>
-      <c r="P67" t="inlineStr">
+      <c r="R67" t="inlineStr">
         <is>
           <t>2023-11-02</t>
         </is>
       </c>
-      <c r="Q67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>Cruzeiro</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="U67" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T67" t="inlineStr">
+      <c r="V67" t="inlineStr">
         <is>
           <t>Sao Paulo</t>
         </is>
       </c>
-      <c r="U67" t="n">
-        <v>1</v>
-      </c>
-      <c r="V67" t="n">
+      <c r="W67" t="n">
+        <v>1</v>
+      </c>
+      <c r="X67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6511,62 +6917,68 @@
         <v>9.6</v>
       </c>
       <c r="H68" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I68" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J68" t="n">
         <v>0.8</v>
       </c>
-      <c r="I68" t="n">
+      <c r="K68" t="n">
         <v>0.2</v>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="L68" t="inlineStr">
         <is>
           <t>Paris Saint Germain</t>
         </is>
       </c>
-      <c r="K68" t="n">
+      <c r="M68" t="n">
         <v>0.8</v>
       </c>
-      <c r="L68" t="n">
+      <c r="N68" t="n">
         <v>1.26</v>
       </c>
-      <c r="M68" t="n">
+      <c r="O68" t="n">
         <v>1.26</v>
       </c>
-      <c r="N68" t="inlineStr">
+      <c r="P68" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O68" t="n">
+      <c r="Q68" t="n">
         <v>3</v>
       </c>
-      <c r="P68" t="inlineStr">
+      <c r="R68" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="Q68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>Paris Saint Germain</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>Montpellier</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="U68" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T68" t="inlineStr">
+      <c r="V68" t="inlineStr">
         <is>
           <t>Paris Saint Germain</t>
         </is>
       </c>
-      <c r="U68" t="n">
-        <v>1</v>
-      </c>
-      <c r="V68" t="n">
+      <c r="W68" t="n">
+        <v>1</v>
+      </c>
+      <c r="X68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6601,62 +7013,68 @@
         <v>1.65</v>
       </c>
       <c r="H69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J69" t="n">
         <v>0.34</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0.66</v>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Atletico Madrid</t>
-        </is>
       </c>
       <c r="K69" t="n">
         <v>0.66</v>
       </c>
-      <c r="L69" t="n">
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N69" t="n">
         <v>1.65</v>
       </c>
-      <c r="M69" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N69" t="inlineStr">
+      <c r="O69" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P69" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O69" t="n">
+      <c r="Q69" t="n">
         <v>3</v>
       </c>
-      <c r="P69" t="inlineStr">
+      <c r="R69" t="inlineStr">
         <is>
           <t>2023-11-03</t>
         </is>
       </c>
-      <c r="Q69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>Las Palmas</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>Atletico Madrid</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="U69" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T69" t="inlineStr">
+      <c r="V69" t="inlineStr">
         <is>
           <t>Las Palmas</t>
         </is>
       </c>
-      <c r="U69" t="n">
+      <c r="W69" t="n">
         <v>0</v>
       </c>
-      <c r="V69" t="n">
+      <c r="X69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6691,62 +7109,68 @@
         <v>1.62</v>
       </c>
       <c r="H70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J70" t="n">
         <v>0.16</v>
-      </c>
-      <c r="I70" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>RB Leipzig</t>
-        </is>
       </c>
       <c r="K70" t="n">
         <v>0.84</v>
       </c>
-      <c r="L70" t="n">
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N70" t="n">
         <v>1.62</v>
       </c>
-      <c r="M70" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N70" t="inlineStr">
+      <c r="O70" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P70" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O70" t="n">
+      <c r="Q70" t="n">
         <v>3</v>
       </c>
-      <c r="P70" t="inlineStr">
+      <c r="R70" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="Q70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>Mainz 05</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>RB Leipzig</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="U70" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T70" t="inlineStr">
+      <c r="V70" t="inlineStr">
         <is>
           <t>Mainz 05</t>
         </is>
       </c>
-      <c r="U70" t="n">
+      <c r="W70" t="n">
         <v>0</v>
       </c>
-      <c r="V70" t="n">
+      <c r="X70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6781,62 +7205,68 @@
         <v>1.44</v>
       </c>
       <c r="H71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I71" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J71" t="n">
         <v>0.16</v>
-      </c>
-      <c r="I71" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Napoli</t>
-        </is>
       </c>
       <c r="K71" t="n">
         <v>0.84</v>
       </c>
-      <c r="L71" t="n">
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N71" t="n">
         <v>1.44</v>
       </c>
-      <c r="M71" t="n">
+      <c r="O71" t="n">
         <v>1.44</v>
       </c>
-      <c r="N71" t="inlineStr">
+      <c r="P71" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O71" t="n">
+      <c r="Q71" t="n">
         <v>3</v>
       </c>
-      <c r="P71" t="inlineStr">
+      <c r="R71" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="Q71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>Salernitana</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="U71" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T71" t="inlineStr">
+      <c r="V71" t="inlineStr">
         <is>
           <t>Napoli</t>
         </is>
       </c>
-      <c r="U71" t="n">
-        <v>1</v>
-      </c>
-      <c r="V71" t="n">
+      <c r="W71" t="n">
+        <v>1</v>
+      </c>
+      <c r="X71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6871,62 +7301,68 @@
         <v>1.21</v>
       </c>
       <c r="H72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J72" t="n">
         <v>0.18</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>PSV Eindhoven</t>
-        </is>
       </c>
       <c r="K72" t="n">
         <v>0.82</v>
       </c>
-      <c r="L72" t="n">
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>PSV Eindhoven</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N72" t="n">
         <v>1.21</v>
       </c>
-      <c r="M72" t="n">
+      <c r="O72" t="n">
         <v>1.21</v>
       </c>
-      <c r="N72" t="inlineStr">
+      <c r="P72" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O72" t="n">
+      <c r="Q72" t="n">
         <v>3</v>
       </c>
-      <c r="P72" t="inlineStr">
+      <c r="R72" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="Q72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>Heracles Almelo</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>PSV Eindhoven</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="U72" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T72" t="inlineStr">
+      <c r="V72" t="inlineStr">
         <is>
           <t>PSV Eindhoven</t>
         </is>
       </c>
-      <c r="U72" t="n">
-        <v>1</v>
-      </c>
-      <c r="V72" t="n">
+      <c r="W72" t="n">
+        <v>1</v>
+      </c>
+      <c r="X72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6961,62 +7397,68 @@
         <v>1.4</v>
       </c>
       <c r="H73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I73" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J73" t="n">
         <v>0.22</v>
-      </c>
-      <c r="I73" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>AZ Alkmaar</t>
-        </is>
       </c>
       <c r="K73" t="n">
         <v>0.78</v>
       </c>
-      <c r="L73" t="n">
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>AZ Alkmaar</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="N73" t="n">
         <v>1.4</v>
       </c>
-      <c r="M73" t="n">
+      <c r="O73" t="n">
         <v>1.4</v>
       </c>
-      <c r="N73" t="inlineStr">
+      <c r="P73" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O73" t="n">
+      <c r="Q73" t="n">
         <v>3</v>
       </c>
-      <c r="P73" t="inlineStr">
+      <c r="R73" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="Q73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>Excelsior</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>AZ Alkmaar</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="U73" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T73" t="inlineStr">
+      <c r="V73" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U73" t="n">
+      <c r="W73" t="n">
         <v>0</v>
       </c>
-      <c r="V73" t="n">
+      <c r="X73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7051,62 +7493,68 @@
         <v>1.25</v>
       </c>
       <c r="H74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I74" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J74" t="n">
         <v>0.3</v>
-      </c>
-      <c r="I74" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
       </c>
       <c r="K74" t="n">
         <v>0.7</v>
       </c>
-      <c r="L74" t="n">
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="N74" t="n">
         <v>1.25</v>
       </c>
-      <c r="M74" t="n">
+      <c r="O74" t="n">
         <v>1.25</v>
       </c>
-      <c r="N74" t="inlineStr">
+      <c r="P74" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O74" t="n">
+      <c r="Q74" t="n">
         <v>3</v>
       </c>
-      <c r="P74" t="inlineStr">
+      <c r="R74" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="Q74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>Chaves</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="U74" t="inlineStr">
         <is>
           <t>L</t>
         </is>
       </c>
-      <c r="T74" t="inlineStr">
+      <c r="V74" t="inlineStr">
         <is>
           <t>Benfica</t>
         </is>
       </c>
-      <c r="U74" t="n">
-        <v>1</v>
-      </c>
-      <c r="V74" t="n">
+      <c r="W74" t="n">
+        <v>1</v>
+      </c>
+      <c r="X74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7141,62 +7589,68 @@
         <v>11</v>
       </c>
       <c r="H75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J75" t="n">
         <v>0.91</v>
       </c>
-      <c r="I75" t="n">
+      <c r="K75" t="n">
         <v>0.09</v>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="L75" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="K75" t="n">
+      <c r="M75" t="n">
         <v>0.91</v>
       </c>
-      <c r="L75" t="n">
+      <c r="N75" t="n">
         <v>1.25</v>
       </c>
-      <c r="M75" t="n">
+      <c r="O75" t="n">
         <v>1.25</v>
       </c>
-      <c r="N75" t="inlineStr">
+      <c r="P75" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O75" t="n">
+      <c r="Q75" t="n">
         <v>3</v>
       </c>
-      <c r="P75" t="inlineStr">
+      <c r="R75" t="inlineStr">
         <is>
           <t>2023-11-04</t>
         </is>
       </c>
-      <c r="Q75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>Portimonense</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="U75" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T75" t="inlineStr">
+      <c r="V75" t="inlineStr">
         <is>
           <t>Braga</t>
         </is>
       </c>
-      <c r="U75" t="n">
-        <v>1</v>
-      </c>
-      <c r="V75" t="n">
+      <c r="W75" t="n">
+        <v>1</v>
+      </c>
+      <c r="X75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7231,62 +7685,68 @@
         <v>4.2</v>
       </c>
       <c r="H76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J76" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I76" t="n">
+      <c r="K76" t="n">
         <v>0.19</v>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="L76" t="inlineStr">
         <is>
           <t>Standard Liege</t>
         </is>
       </c>
-      <c r="K76" t="n">
+      <c r="M76" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L76" t="n">
+      <c r="N76" t="n">
         <v>1.78</v>
       </c>
-      <c r="M76" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N76" t="inlineStr">
+      <c r="O76" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P76" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O76" t="n">
+      <c r="Q76" t="n">
         <v>3</v>
       </c>
-      <c r="P76" t="inlineStr">
+      <c r="R76" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="Q76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>Standard Liege</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>Mechelen</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="U76" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T76" t="inlineStr">
+      <c r="V76" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U76" t="n">
-        <v>1</v>
-      </c>
-      <c r="V76" t="n">
+      <c r="W76" t="n">
+        <v>1</v>
+      </c>
+      <c r="X76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7321,62 +7781,68 @@
         <v>4.7</v>
       </c>
       <c r="H77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J77" t="n">
         <v>0.8</v>
       </c>
-      <c r="I77" t="n">
+      <c r="K77" t="n">
         <v>0.2</v>
       </c>
-      <c r="J77" t="inlineStr">
+      <c r="L77" t="inlineStr">
         <is>
           <t>Lyon</t>
         </is>
       </c>
-      <c r="K77" t="n">
+      <c r="M77" t="n">
         <v>0.8</v>
       </c>
-      <c r="L77" t="n">
+      <c r="N77" t="n">
         <v>1.68</v>
       </c>
-      <c r="M77" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="N77" t="inlineStr">
+      <c r="O77" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P77" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O77" t="n">
+      <c r="Q77" t="n">
         <v>3</v>
       </c>
-      <c r="P77" t="inlineStr">
+      <c r="R77" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="Q77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>Lyon</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>Metz</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="U77" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T77" t="inlineStr">
+      <c r="V77" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U77" t="n">
-        <v>1</v>
-      </c>
-      <c r="V77" t="n">
+      <c r="W77" t="n">
+        <v>1</v>
+      </c>
+      <c r="X77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7411,62 +7877,68 @@
         <v>5.9</v>
       </c>
       <c r="H78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I78" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J78" t="n">
         <v>0.88</v>
       </c>
-      <c r="I78" t="n">
+      <c r="K78" t="n">
         <v>0.12</v>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="L78" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="K78" t="n">
+      <c r="M78" t="n">
         <v>0.88</v>
       </c>
-      <c r="L78" t="n">
+      <c r="N78" t="n">
         <v>1.58</v>
       </c>
-      <c r="M78" t="n">
+      <c r="O78" t="n">
         <v>1.58</v>
       </c>
-      <c r="N78" t="inlineStr">
+      <c r="P78" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O78" t="n">
+      <c r="Q78" t="n">
         <v>3</v>
       </c>
-      <c r="P78" t="inlineStr">
+      <c r="R78" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="Q78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>Lecce</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="U78" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T78" t="inlineStr">
+      <c r="V78" t="inlineStr">
         <is>
           <t>Roma</t>
         </is>
       </c>
-      <c r="U78" t="n">
-        <v>1</v>
-      </c>
-      <c r="V78" t="n">
+      <c r="W78" t="n">
+        <v>1</v>
+      </c>
+      <c r="X78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7501,62 +7973,68 @@
         <v>5.85</v>
       </c>
       <c r="H79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I79" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J79" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="I79" t="n">
+      <c r="K79" t="n">
         <v>0.19</v>
       </c>
-      <c r="J79" t="inlineStr">
+      <c r="L79" t="inlineStr">
         <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="K79" t="n">
+      <c r="M79" t="n">
         <v>0.8100000000000001</v>
       </c>
-      <c r="L79" t="n">
+      <c r="N79" t="n">
         <v>1.48</v>
       </c>
-      <c r="M79" t="n">
+      <c r="O79" t="n">
         <v>1.48</v>
       </c>
-      <c r="N79" t="inlineStr">
+      <c r="P79" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O79" t="n">
+      <c r="Q79" t="n">
         <v>3</v>
       </c>
-      <c r="P79" t="inlineStr">
+      <c r="R79" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="Q79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>Heerenveen</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="U79" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
+      <c r="V79" t="inlineStr">
         <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="U79" t="n">
-        <v>1</v>
-      </c>
-      <c r="V79" t="n">
+      <c r="W79" t="n">
+        <v>1</v>
+      </c>
+      <c r="X79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7591,62 +8069,68 @@
         <v>12</v>
       </c>
       <c r="H80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I80" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J80" t="n">
         <v>0.89</v>
       </c>
-      <c r="I80" t="n">
+      <c r="K80" t="n">
         <v>0.11</v>
       </c>
-      <c r="J80" t="inlineStr">
+      <c r="L80" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="K80" t="n">
+      <c r="M80" t="n">
         <v>0.89</v>
       </c>
-      <c r="L80" t="n">
+      <c r="N80" t="n">
         <v>1.22</v>
       </c>
-      <c r="M80" t="n">
+      <c r="O80" t="n">
         <v>1.22</v>
       </c>
-      <c r="N80" t="inlineStr">
+      <c r="P80" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O80" t="n">
+      <c r="Q80" t="n">
         <v>3</v>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="R80" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>Estrela</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="U80" t="inlineStr">
         <is>
           <t>W</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
+      <c r="V80" t="inlineStr">
         <is>
           <t>Sporting CP</t>
         </is>
       </c>
-      <c r="U80" t="n">
-        <v>1</v>
-      </c>
-      <c r="V80" t="n">
+      <c r="W80" t="n">
+        <v>1</v>
+      </c>
+      <c r="X80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7681,62 +8165,68 @@
         <v>10</v>
       </c>
       <c r="H81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I81" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J81" t="n">
         <v>0.8</v>
       </c>
-      <c r="I81" t="n">
+      <c r="K81" t="n">
         <v>0.2</v>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="L81" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="K81" t="n">
+      <c r="M81" t="n">
         <v>0.8</v>
       </c>
-      <c r="L81" t="n">
+      <c r="N81" t="n">
         <v>1.3</v>
       </c>
-      <c r="M81" t="n">
+      <c r="O81" t="n">
         <v>1.3</v>
       </c>
-      <c r="N81" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="O81" t="n">
+      <c r="Q81" t="n">
         <v>3</v>
       </c>
-      <c r="P81" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>2023-11-05</t>
         </is>
       </c>
-      <c r="Q81" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>Real Madrid</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>Rayo Vallecano</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="U81" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="T81" t="inlineStr">
+      <c r="V81" t="inlineStr">
         <is>
           <t>Draw</t>
         </is>
       </c>
-      <c r="U81" t="n">
+      <c r="W81" t="n">
         <v>0</v>
       </c>
-      <c r="V81" t="n">
+      <c r="X81" t="n">
         <v>1</v>
       </c>
     </row>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -556,29 +556,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="G2" t="n">
-        <v>9</v>
+        <v>4.5</v>
       </c>
       <c r="H2" t="n">
         <v>1.17</v>
@@ -587,24 +587,24 @@
         <v>1.17</v>
       </c>
       <c r="J2" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="K2" t="n">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="N2" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="O2" t="n">
-        <v>1.35</v>
+        <v>1.72</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
@@ -616,17 +616,17 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Goias</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Freiburg</t>
         </is>
       </c>
       <c r="W2" t="n">
@@ -652,29 +652,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>8</v>
+        <v>1.78</v>
       </c>
       <c r="G3" t="n">
-        <v>1.36</v>
+        <v>4.5</v>
       </c>
       <c r="H3" t="n">
         <v>1.17</v>
@@ -683,24 +683,24 @@
         <v>1.17</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3</v>
+        <v>0.88</v>
       </c>
       <c r="K3" t="n">
-        <v>0.7</v>
+        <v>0.12</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="N3" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="O3" t="n">
-        <v>1.36</v>
+        <v>1.78</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
@@ -712,27 +712,27 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2023-09-15</t>
+          <t>2023-09-20</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Fluminense</t>
         </is>
       </c>
       <c r="W3" t="n">
@@ -748,29 +748,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>6.7</v>
+        <v>1.65</v>
       </c>
       <c r="G4" t="n">
-        <v>1.48</v>
+        <v>4.65</v>
       </c>
       <c r="H4" t="n">
         <v>1.17</v>
@@ -779,24 +779,24 @@
         <v>1.17</v>
       </c>
       <c r="J4" t="n">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
       <c r="K4" t="n">
-        <v>0.68</v>
+        <v>0.15</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="M4" t="n">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="N4" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="O4" t="n">
-        <v>1.48</v>
+        <v>1.65</v>
       </c>
       <c r="P4" t="inlineStr">
         <is>
@@ -808,27 +808,27 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Toulouse</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="W4" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -854,19 +854,19 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="G5" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H5" t="n">
         <v>1.17</v>
@@ -875,24 +875,24 @@
         <v>1.17</v>
       </c>
       <c r="J5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="K5" t="n">
-        <v>0.06</v>
+        <v>0.16</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="M5" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.84</v>
       </c>
       <c r="N5" t="n">
-        <v>1.52</v>
+        <v>1.6</v>
       </c>
       <c r="O5" t="n">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
       <c r="P5" t="inlineStr">
         <is>
@@ -904,65 +904,65 @@
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Strasbourg</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t>A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="G6" t="n">
-        <v>12</v>
+        <v>4.75</v>
       </c>
       <c r="H6" t="n">
         <v>1.17</v>
@@ -971,24 +971,24 @@
         <v>1.17</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="M6" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="N6" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -1000,65 +1000,65 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Central Coast Mariners</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Macarthur FC</t>
         </is>
       </c>
       <c r="W6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2023-11-04</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Mainz 05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2023-09-16</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EREDIVISIE </t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Feyenoord</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Heerenveen</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>1.24</v>
-      </c>
       <c r="G7" t="n">
-        <v>11.5</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>1.17</v>
@@ -1067,24 +1067,24 @@
         <v>1.17</v>
       </c>
       <c r="J7" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="K7" t="n">
         <v>0.84</v>
       </c>
-      <c r="K7" t="n">
-        <v>0.16</v>
-      </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="M7" t="n">
         <v>0.84</v>
       </c>
       <c r="N7" t="n">
-        <v>1.24</v>
+        <v>1.62</v>
       </c>
       <c r="O7" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="P7" t="inlineStr">
         <is>
@@ -1096,17 +1096,17 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Heerenveen</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1116,45 +1116,45 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Feyenoord</t>
+          <t>Mainz 05</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>8</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>1.33</v>
+        <v>4.1</v>
       </c>
       <c r="H8" t="n">
         <v>1.17</v>
@@ -1163,24 +1163,24 @@
         <v>1.17</v>
       </c>
       <c r="J8" t="n">
-        <v>0.31</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.19</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="M8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N8" t="n">
-        <v>1.33</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="P8" t="inlineStr">
         <is>
@@ -1192,27 +1192,27 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2023-09-16</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Monza</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W8" t="n">
@@ -1224,33 +1224,33 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>6.3</v>
+        <v>1.66</v>
       </c>
       <c r="G9" t="n">
-        <v>1.52</v>
+        <v>4.75</v>
       </c>
       <c r="H9" t="n">
         <v>1.17</v>
@@ -1259,24 +1259,24 @@
         <v>1.17</v>
       </c>
       <c r="J9" t="n">
-        <v>0.29</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.71</v>
+        <v>0.19</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="M9" t="n">
-        <v>0.71</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N9" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="O9" t="n">
-        <v>1.52</v>
+        <v>1.17</v>
       </c>
       <c r="P9" t="inlineStr">
         <is>
@@ -1288,27 +1288,27 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Everton</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Charleroi</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="W9" t="n">
@@ -1320,33 +1320,33 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>4.75</v>
       </c>
       <c r="H10" t="n">
         <v>1.17</v>
@@ -1355,24 +1355,24 @@
         <v>1.17</v>
       </c>
       <c r="J10" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="M10" t="n">
-        <v>0.85</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N10" t="n">
-        <v>1.53</v>
+        <v>1.75</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="P10" t="inlineStr">
         <is>
@@ -1384,65 +1384,65 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-11-02</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Vitoria Guimaraes</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Cruzeiro</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Sao Paulo</t>
         </is>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="G11" t="n">
-        <v>13</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
         <v>1.17</v>
@@ -1451,24 +1451,24 @@
         <v>1.17</v>
       </c>
       <c r="J11" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.13</v>
+        <v>0.19</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="M11" t="n">
-        <v>0.87</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N11" t="n">
-        <v>1.22</v>
+        <v>1.78</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
@@ -1480,27 +1480,27 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>2023-09-17</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Standard Liege</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Moreirense</t>
+          <t>Mechelen</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W11" t="n">
@@ -1512,33 +1512,33 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H12" t="n">
         <v>1.17</v>
@@ -1547,21 +1547,21 @@
         <v>1.17</v>
       </c>
       <c r="J12" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="K12" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="M12" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="N12" t="n">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="O12" t="n">
         <v>1.17</v>
@@ -1576,27 +1576,27 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>2023-09-20</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Sint Truiden</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Fluminense</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W12" t="n">
@@ -1608,33 +1608,33 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="G13" t="n">
-        <v>8.5</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>1.17</v>
@@ -1643,24 +1643,24 @@
         <v>1.17</v>
       </c>
       <c r="J13" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.12</v>
+        <v>0.2</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="M13" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="N13" t="n">
-        <v>1.35</v>
+        <v>1.68</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
@@ -1672,17 +1672,17 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Lyon</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13" t="n">
         <v>1</v>
@@ -1704,33 +1704,33 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>1.58</v>
+        <v>5</v>
       </c>
       <c r="G14" t="n">
-        <v>7</v>
+        <v>1.63</v>
       </c>
       <c r="H14" t="n">
         <v>1.17</v>
@@ -1739,24 +1739,24 @@
         <v>1.17</v>
       </c>
       <c r="J14" t="n">
-        <v>0.88</v>
+        <v>0.32</v>
       </c>
       <c r="K14" t="n">
-        <v>0.12</v>
+        <v>0.68</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>0.88</v>
+        <v>0.68</v>
       </c>
       <c r="N14" t="n">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="O14" t="n">
-        <v>1.58</v>
+        <v>1.17</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
@@ -1768,27 +1768,27 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W14" t="n">
@@ -1800,33 +1800,33 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="G15" t="n">
-        <v>6</v>
+        <v>1.6</v>
       </c>
       <c r="H15" t="n">
         <v>1.17</v>
@@ -1835,24 +1835,24 @@
         <v>1.17</v>
       </c>
       <c r="J15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="K15" t="n">
-        <v>0.19</v>
+        <v>0.67</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
@@ -1864,27 +1864,27 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Westerlo</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Boavista</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Union SG</t>
         </is>
       </c>
       <c r="W15" t="n">
@@ -1896,33 +1896,33 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>5.5</v>
       </c>
       <c r="G16" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="H16" t="n">
         <v>1.17</v>
@@ -1931,24 +1931,24 @@
         <v>1.17</v>
       </c>
       <c r="J16" t="n">
-        <v>0.26</v>
+        <v>0.34</v>
       </c>
       <c r="K16" t="n">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="N16" t="n">
-        <v>1.25</v>
+        <v>1.65</v>
       </c>
       <c r="O16" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
@@ -1960,66 +1960,66 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2023-09-25</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Sporting CP</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="G17" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2023-09-24</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">EREDIVISIE </t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>RKC Waalwijk</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Twente</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>1.52</v>
-      </c>
       <c r="H17" t="n">
         <v>1.17</v>
       </c>
@@ -2027,24 +2027,24 @@
         <v>1.17</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2</v>
+        <v>0.9</v>
       </c>
       <c r="K17" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N17" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="O17" t="n">
-        <v>1.52</v>
+        <v>1.2</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-25</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
@@ -2076,45 +2076,45 @@
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="G18" t="n">
-        <v>8.699999999999999</v>
+        <v>15</v>
       </c>
       <c r="H18" t="n">
         <v>1.17</v>
@@ -2123,24 +2123,24 @@
         <v>1.17</v>
       </c>
       <c r="J18" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="K18" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.09</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="M18" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="N18" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
@@ -2152,31 +2152,31 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>1</v>
@@ -2184,33 +2184,33 @@
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>8.300000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="G19" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="H19" t="n">
         <v>1.17</v>
@@ -2219,24 +2219,24 @@
         <v>1.17</v>
       </c>
       <c r="J19" t="n">
-        <v>0.35</v>
+        <v>0.18</v>
       </c>
       <c r="K19" t="n">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>0.65</v>
+        <v>0.82</v>
       </c>
       <c r="N19" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="O19" t="n">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
@@ -2248,17 +2248,17 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Empoli</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
@@ -2268,7 +2268,7 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="W19" t="n">
@@ -2280,33 +2280,33 @@
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="G20" t="n">
-        <v>4.65</v>
+        <v>13</v>
       </c>
       <c r="H20" t="n">
         <v>1.17</v>
@@ -2315,24 +2315,24 @@
         <v>1.17</v>
       </c>
       <c r="J20" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="K20" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="N20" t="n">
-        <v>1.65</v>
+        <v>1.22</v>
       </c>
       <c r="O20" t="n">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
@@ -2344,17 +2344,17 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>Toulouse</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="U20" t="inlineStr">
@@ -2364,7 +2364,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="W20" t="n">
@@ -2376,33 +2376,33 @@
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="G21" t="n">
-        <v>7.1</v>
+        <v>13</v>
       </c>
       <c r="H21" t="n">
         <v>1.17</v>
@@ -2411,24 +2411,24 @@
         <v>1.17</v>
       </c>
       <c r="J21" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K21" t="n">
-        <v>0.18</v>
+        <v>0.06</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N21" t="n">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="O21" t="n">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
@@ -2440,17 +2440,17 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>West Ham United</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="U21" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="W21" t="n">
@@ -2472,33 +2472,33 @@
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="G22" t="n">
-        <v>8.1</v>
+        <v>12</v>
       </c>
       <c r="H22" t="n">
         <v>1.17</v>
@@ -2507,24 +2507,24 @@
         <v>1.17</v>
       </c>
       <c r="J22" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="K22" t="n">
-        <v>0.17</v>
+        <v>0.11</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>0.83</v>
+        <v>0.89</v>
       </c>
       <c r="N22" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
@@ -2536,17 +2536,17 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
@@ -2556,7 +2556,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Brighton and Hove Albion</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="W22" t="n">
@@ -2568,33 +2568,33 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>1.28</v>
+        <v>12</v>
       </c>
       <c r="G23" t="n">
-        <v>10</v>
+        <v>1.23</v>
       </c>
       <c r="H23" t="n">
         <v>1.17</v>
@@ -2603,24 +2603,24 @@
         <v>1.17</v>
       </c>
       <c r="J23" t="n">
-        <v>0.86</v>
+        <v>0.24</v>
       </c>
       <c r="K23" t="n">
-        <v>0.14</v>
+        <v>0.76</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>0.86</v>
+        <v>0.76</v>
       </c>
       <c r="N23" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="O23" t="n">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="P23" t="inlineStr">
         <is>
@@ -2632,27 +2632,27 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Almere City</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>PSV Eindhoven</t>
         </is>
       </c>
       <c r="W23" t="n">
@@ -2664,33 +2664,33 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="G24" t="n">
-        <v>4.75</v>
+        <v>12</v>
       </c>
       <c r="H24" t="n">
         <v>1.17</v>
@@ -2699,24 +2699,24 @@
         <v>1.17</v>
       </c>
       <c r="J24" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K24" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="M24" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N24" t="n">
-        <v>1.63</v>
+        <v>1.24</v>
       </c>
       <c r="O24" t="n">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
@@ -2728,27 +2728,27 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2023-09-24</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>Sint Truiden</t>
+          <t>Augsburg</t>
         </is>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="W24" t="n">
@@ -2760,33 +2760,33 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="G25" t="n">
-        <v>8.5</v>
+        <v>11.5</v>
       </c>
       <c r="H25" t="n">
         <v>1.17</v>
@@ -2795,24 +2795,24 @@
         <v>1.17</v>
       </c>
       <c r="J25" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="K25" t="n">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="M25" t="n">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="N25" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="O25" t="n">
-        <v>1.35</v>
+        <v>1.24</v>
       </c>
       <c r="P25" t="inlineStr">
         <is>
@@ -2824,17 +2824,17 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="U25" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Feyenoord</t>
         </is>
       </c>
       <c r="W25" t="n">
@@ -2856,11 +2856,11 @@
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2870,20 +2870,20 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F26" t="n">
+        <v>11</v>
+      </c>
+      <c r="G26" t="n">
         <v>1.25</v>
       </c>
-      <c r="G26" t="n">
-        <v>11</v>
-      </c>
       <c r="H26" t="n">
         <v>1.17</v>
       </c>
@@ -2891,18 +2891,18 @@
         <v>1.17</v>
       </c>
       <c r="J26" t="n">
-        <v>0.95</v>
+        <v>0.26</v>
       </c>
       <c r="K26" t="n">
-        <v>0.05</v>
+        <v>0.74</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="M26" t="n">
-        <v>0.95</v>
+        <v>0.74</v>
       </c>
       <c r="N26" t="n">
         <v>1.25</v>
@@ -2920,27 +2920,27 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>Gil Vicente FC</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="W26" t="n">
@@ -2952,7 +2952,7 @@
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -2961,24 +2961,24 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="F27" t="n">
-        <v>12</v>
+        <v>1.25</v>
       </c>
       <c r="G27" t="n">
-        <v>1.23</v>
+        <v>11</v>
       </c>
       <c r="H27" t="n">
         <v>1.17</v>
@@ -2987,24 +2987,24 @@
         <v>1.17</v>
       </c>
       <c r="J27" t="n">
-        <v>0.24</v>
+        <v>0.95</v>
       </c>
       <c r="K27" t="n">
-        <v>0.76</v>
+        <v>0.05</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="M27" t="n">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="N27" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="O27" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="P27" t="inlineStr">
         <is>
@@ -3021,22 +3021,22 @@
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>Almere City</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Gil Vicente FC</t>
         </is>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="W27" t="n">
@@ -3048,33 +3048,33 @@
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="F28" t="n">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="G28" t="n">
-        <v>4.1</v>
+        <v>10.5</v>
       </c>
       <c r="H28" t="n">
         <v>1.17</v>
@@ -3083,24 +3083,24 @@
         <v>1.17</v>
       </c>
       <c r="J28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="K28" t="n">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="M28" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="N28" t="n">
-        <v>1.85</v>
+        <v>1.25</v>
       </c>
       <c r="O28" t="n">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="P28" t="inlineStr">
         <is>
@@ -3112,27 +3112,27 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>Monza</t>
+          <t>Fortuna Sittard</t>
         </is>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="W28" t="n">
@@ -3144,33 +3144,33 @@
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>1.37</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
-        <v>8.300000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="H29" t="n">
         <v>1.17</v>
@@ -3179,24 +3179,24 @@
         <v>1.17</v>
       </c>
       <c r="J29" t="n">
-        <v>0.93</v>
+        <v>0.3</v>
       </c>
       <c r="K29" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="N29" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="O29" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
@@ -3208,27 +3208,27 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Chaves</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="W29" t="n">
@@ -3240,33 +3240,33 @@
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="G30" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="H30" t="n">
         <v>1.17</v>
@@ -3275,24 +3275,24 @@
         <v>1.17</v>
       </c>
       <c r="J30" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="K30" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>0.83</v>
+        <v>0.91</v>
       </c>
       <c r="N30" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="O30" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
@@ -3304,17 +3304,17 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>2023-09-23</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="U30" t="inlineStr">
@@ -3324,7 +3324,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>Atletico Mineiro</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="W30" t="n">
@@ -3336,33 +3336,33 @@
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="G31" t="n">
-        <v>15</v>
+        <v>9.6</v>
       </c>
       <c r="H31" t="n">
         <v>1.17</v>
@@ -3371,24 +3371,24 @@
         <v>1.17</v>
       </c>
       <c r="J31" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="K31" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="M31" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="N31" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="O31" t="n">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="P31" t="inlineStr">
         <is>
@@ -3400,17 +3400,17 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>2023-09-25</t>
+          <t>2023-11-03</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>Montpellier</t>
         </is>
       </c>
       <c r="U31" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="W31" t="n">
@@ -3432,33 +3432,33 @@
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="G32" t="n">
-        <v>6.3</v>
+        <v>10.5</v>
       </c>
       <c r="H32" t="n">
         <v>1.17</v>
@@ -3467,24 +3467,24 @@
         <v>1.17</v>
       </c>
       <c r="J32" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="K32" t="n">
-        <v>0.18</v>
+        <v>0.13</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="M32" t="n">
-        <v>0.82</v>
+        <v>0.87</v>
       </c>
       <c r="N32" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="O32" t="n">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
       <c r="P32" t="inlineStr">
         <is>
@@ -3496,31 +3496,31 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>2023-09-26</t>
+          <t>2023-09-28</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Heracles Almelo</t>
         </is>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>1</v>
@@ -3528,33 +3528,33 @@
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="G33" t="n">
-        <v>8.9</v>
+        <v>10.5</v>
       </c>
       <c r="H33" t="n">
         <v>1.17</v>
@@ -3563,24 +3563,24 @@
         <v>1.17</v>
       </c>
       <c r="J33" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="K33" t="n">
-        <v>0.15</v>
+        <v>0.11</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>0.85</v>
+        <v>0.89</v>
       </c>
       <c r="N33" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="O33" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
@@ -3592,65 +3592,65 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>Internazionale</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Nottingham Forest</t>
         </is>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="G34" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>1.17</v>
@@ -3659,24 +3659,24 @@
         <v>1.17</v>
       </c>
       <c r="J34" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="K34" t="n">
-        <v>0.11</v>
+        <v>0.14</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="N34" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="O34" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
@@ -3688,17 +3688,17 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>Fortuna Sittard</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="U34" t="inlineStr">
@@ -3708,7 +3708,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Gent</t>
         </is>
       </c>
       <c r="W34" t="n">
@@ -3720,7 +3720,7 @@
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
@@ -3729,24 +3729,24 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="G35" t="n">
-        <v>7.8</v>
+        <v>9.5</v>
       </c>
       <c r="H35" t="n">
         <v>1.17</v>
@@ -3755,24 +3755,24 @@
         <v>1.17</v>
       </c>
       <c r="J35" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="K35" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="N35" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="O35" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
@@ -3789,12 +3789,12 @@
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="U35" t="inlineStr">
@@ -3804,7 +3804,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="W35" t="n">
@@ -3816,33 +3816,33 @@
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="G36" t="n">
-        <v>4.5</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>1.17</v>
@@ -3851,24 +3851,24 @@
         <v>1.17</v>
       </c>
       <c r="J36" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="K36" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="M36" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="N36" t="n">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="O36" t="n">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
@@ -3880,31 +3880,31 @@
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>Augsburg</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Freiburg</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>1</v>
@@ -3912,33 +3912,33 @@
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="G37" t="n">
-        <v>5.9</v>
+        <v>10.5</v>
       </c>
       <c r="H37" t="n">
         <v>1.17</v>
@@ -3947,24 +3947,24 @@
         <v>1.17</v>
       </c>
       <c r="J37" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="K37" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="N37" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="O37" t="n">
-        <v>1.52</v>
+        <v>1.31</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
@@ -3976,17 +3976,17 @@
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>Burnley</t>
         </is>
       </c>
       <c r="U37" t="inlineStr">
@@ -3996,7 +3996,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Newcastle United</t>
         </is>
       </c>
       <c r="W37" t="n">
@@ -4008,33 +4008,33 @@
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>1.32</v>
       </c>
       <c r="G38" t="n">
-        <v>1.63</v>
+        <v>8.9</v>
       </c>
       <c r="H38" t="n">
         <v>1.17</v>
@@ -4043,24 +4043,24 @@
         <v>1.17</v>
       </c>
       <c r="J38" t="n">
-        <v>0.32</v>
+        <v>0.85</v>
       </c>
       <c r="K38" t="n">
-        <v>0.68</v>
+        <v>0.15</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="N38" t="n">
-        <v>1.63</v>
+        <v>1.32</v>
       </c>
       <c r="O38" t="n">
-        <v>1.17</v>
+        <v>1.32</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
@@ -4072,65 +4072,65 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>RWD Molenbeek</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>Gent</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>1.66</v>
+        <v>8</v>
       </c>
       <c r="G39" t="n">
-        <v>4.75</v>
+        <v>1.33</v>
       </c>
       <c r="H39" t="n">
         <v>1.17</v>
@@ -4139,24 +4139,24 @@
         <v>1.17</v>
       </c>
       <c r="J39" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.31</v>
       </c>
       <c r="K39" t="n">
-        <v>0.19</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="M39" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N39" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="P39" t="inlineStr">
         <is>
@@ -4168,27 +4168,27 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>Charleroi</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="W39" t="n">
@@ -4200,33 +4200,33 @@
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>7.5</v>
+        <v>1.33</v>
       </c>
       <c r="G40" t="n">
-        <v>1.4</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H40" t="n">
         <v>1.17</v>
@@ -4235,24 +4235,24 @@
         <v>1.17</v>
       </c>
       <c r="J40" t="n">
-        <v>0.31</v>
+        <v>0.93</v>
       </c>
       <c r="K40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="N40" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="O40" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="P40" t="inlineStr">
         <is>
@@ -4264,27 +4264,27 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="W40" t="n">
@@ -4296,33 +4296,33 @@
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>4.7</v>
+        <v>1.33</v>
       </c>
       <c r="G41" t="n">
-        <v>1.58</v>
+        <v>9.5</v>
       </c>
       <c r="H41" t="n">
         <v>1.17</v>
@@ -4331,24 +4331,24 @@
         <v>1.17</v>
       </c>
       <c r="J41" t="n">
-        <v>0.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>0.67</v>
+        <v>0.19</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N41" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="O41" t="n">
-        <v>1.58</v>
+        <v>1.33</v>
       </c>
       <c r="P41" t="inlineStr">
         <is>
@@ -4360,17 +4360,17 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Internacional</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="U41" t="inlineStr">
@@ -4380,23 +4380,23 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Coritiba</t>
         </is>
       </c>
       <c r="W41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -4415,10 +4415,10 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>6.9</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="H42" t="n">
         <v>1.17</v>
@@ -4427,10 +4427,10 @@
         <v>1.17</v>
       </c>
       <c r="J42" t="n">
-        <v>0.23</v>
+        <v>0.35</v>
       </c>
       <c r="K42" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -4438,13 +4438,13 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="N42" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="O42" t="n">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
@@ -4456,12 +4456,12 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Empoli</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4488,33 +4488,33 @@
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="F43" t="n">
-        <v>8.800000000000001</v>
+        <v>1.35</v>
       </c>
       <c r="G43" t="n">
-        <v>1.35</v>
+        <v>9</v>
       </c>
       <c r="H43" t="n">
         <v>1.17</v>
@@ -4523,18 +4523,18 @@
         <v>1.17</v>
       </c>
       <c r="J43" t="n">
-        <v>0.21</v>
+        <v>0.84</v>
       </c>
       <c r="K43" t="n">
-        <v>0.79</v>
+        <v>0.16</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>0.79</v>
+        <v>0.84</v>
       </c>
       <c r="N43" t="n">
         <v>1.35</v>
@@ -4552,17 +4552,17 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>Manchester City</t>
+          <t>Goias</t>
         </is>
       </c>
       <c r="U43" t="inlineStr">
@@ -4572,45 +4572,45 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="G44" t="n">
-        <v>10.5</v>
+        <v>8.5</v>
       </c>
       <c r="H44" t="n">
         <v>1.17</v>
@@ -4619,24 +4619,24 @@
         <v>1.17</v>
       </c>
       <c r="J44" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="K44" t="n">
-        <v>0.08</v>
+        <v>0.12</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="N44" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="O44" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="P44" t="inlineStr">
         <is>
@@ -4648,31 +4648,31 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>Burnley</t>
+          <t>RWD Molenbeek</t>
         </is>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>Newcastle United</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>1</v>
@@ -4680,33 +4680,33 @@
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="G45" t="n">
-        <v>5.9</v>
+        <v>8.5</v>
       </c>
       <c r="H45" t="n">
         <v>1.17</v>
@@ -4715,24 +4715,24 @@
         <v>1.17</v>
       </c>
       <c r="J45" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="K45" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="N45" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="O45" t="n">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="P45" t="inlineStr">
         <is>
@@ -4744,39 +4744,39 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -4790,19 +4790,19 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>6.1</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="H46" t="n">
         <v>1.17</v>
@@ -4811,24 +4811,24 @@
         <v>1.17</v>
       </c>
       <c r="J46" t="n">
-        <v>0.24</v>
+        <v>0.21</v>
       </c>
       <c r="K46" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>0.76</v>
+        <v>0.79</v>
       </c>
       <c r="N46" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="O46" t="n">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="P46" t="inlineStr">
         <is>
@@ -4845,38 +4845,38 @@
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>Bournemouth</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4886,19 +4886,19 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="G47" t="n">
-        <v>5.5</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="H47" t="n">
         <v>1.17</v>
@@ -4907,24 +4907,24 @@
         <v>1.17</v>
       </c>
       <c r="J47" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="K47" t="n">
-        <v>0.17</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>0.83</v>
+        <v>0.93</v>
       </c>
       <c r="N47" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="O47" t="n">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="P47" t="inlineStr">
         <is>
@@ -4936,17 +4936,17 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="U47" t="inlineStr">
@@ -4956,7 +4956,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="W47" t="n">
@@ -4968,34 +4968,34 @@
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F48" t="n">
+        <v>8</v>
+      </c>
+      <c r="G48" t="n">
         <v>1.36</v>
       </c>
-      <c r="G48" t="n">
-        <v>8.5</v>
-      </c>
       <c r="H48" t="n">
         <v>1.17</v>
       </c>
@@ -5003,18 +5003,18 @@
         <v>1.17</v>
       </c>
       <c r="J48" t="n">
-        <v>0.88</v>
+        <v>0.3</v>
       </c>
       <c r="K48" t="n">
-        <v>0.12</v>
+        <v>0.7</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="N48" t="n">
         <v>1.36</v>
@@ -5032,27 +5032,27 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>2023-09-29</t>
+          <t>2023-09-15</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="U48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="W48" t="n">
@@ -5064,33 +5064,33 @@
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="G49" t="n">
-        <v>10.5</v>
+        <v>8.1</v>
       </c>
       <c r="H49" t="n">
         <v>1.17</v>
@@ -5099,24 +5099,24 @@
         <v>1.17</v>
       </c>
       <c r="J49" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="K49" t="n">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>0.87</v>
+        <v>0.83</v>
       </c>
       <c r="N49" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="O49" t="n">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="inlineStr">
         <is>
@@ -5128,31 +5128,31 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>2023-09-28</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Brighton and Hove Albion</t>
         </is>
       </c>
       <c r="W49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X49" t="n">
         <v>1</v>
@@ -5160,11 +5160,11 @@
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -5174,19 +5174,19 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="G50" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="H50" t="n">
         <v>1.17</v>
@@ -5195,24 +5195,24 @@
         <v>1.17</v>
       </c>
       <c r="J50" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="K50" t="n">
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="M50" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="N50" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="inlineStr">
         <is>
@@ -5224,17 +5224,17 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-29</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="U50" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="W50" t="n">
@@ -5256,33 +5256,33 @@
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="G51" t="n">
-        <v>7.8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H51" t="n">
         <v>1.17</v>
@@ -5291,24 +5291,24 @@
         <v>1.17</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="K51" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>0.8</v>
+        <v>0.93</v>
       </c>
       <c r="N51" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="O51" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="P51" t="inlineStr">
         <is>
@@ -5320,17 +5320,17 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>2023-09-27</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Hellas Verona</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -5340,7 +5340,7 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Twente</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="W51" t="n">
@@ -5352,7 +5352,7 @@
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -5448,33 +5448,33 @@
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F53" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="G53" t="n">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="H53" t="n">
         <v>1.17</v>
@@ -5483,24 +5483,24 @@
         <v>1.17</v>
       </c>
       <c r="J53" t="n">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="K53" t="n">
-        <v>0.08</v>
+        <v>0.2</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>0.92</v>
+        <v>0.8</v>
       </c>
       <c r="N53" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="O53" t="n">
-        <v>1.3</v>
+        <v>1.39</v>
       </c>
       <c r="P53" t="inlineStr">
         <is>
@@ -5512,17 +5512,17 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>2023-10-01</t>
+          <t>2023-09-27</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="U53" t="inlineStr">
@@ -5532,7 +5532,7 @@
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="W53" t="n">
@@ -5544,33 +5544,33 @@
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="F54" t="n">
-        <v>1.52</v>
+        <v>7.5</v>
       </c>
       <c r="G54" t="n">
-        <v>6.5</v>
+        <v>1.4</v>
       </c>
       <c r="H54" t="n">
         <v>1.17</v>
@@ -5579,24 +5579,24 @@
         <v>1.17</v>
       </c>
       <c r="J54" t="n">
-        <v>0.91</v>
+        <v>0.31</v>
       </c>
       <c r="K54" t="n">
-        <v>0.09</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>0.91</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N54" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="O54" t="n">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="P54" t="inlineStr">
         <is>
@@ -5608,27 +5608,27 @@
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>Bahia</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>Palmeiras</t>
+          <t>Sporting CP</t>
         </is>
       </c>
       <c r="W54" t="n">
@@ -5640,33 +5640,33 @@
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="F55" t="n">
-        <v>1.55</v>
+        <v>7.3</v>
       </c>
       <c r="G55" t="n">
-        <v>5.4</v>
+        <v>1.4</v>
       </c>
       <c r="H55" t="n">
         <v>1.17</v>
@@ -5675,24 +5675,24 @@
         <v>1.17</v>
       </c>
       <c r="J55" t="n">
-        <v>0.92</v>
+        <v>0.22</v>
       </c>
       <c r="K55" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="N55" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="O55" t="n">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="P55" t="inlineStr">
         <is>
@@ -5704,31 +5704,31 @@
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>Nantes</t>
+          <t>AZ Alkmaar</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Lens</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X55" t="n">
         <v>1</v>
@@ -5736,7 +5736,7 @@
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -5745,24 +5745,24 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="F56" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="G56" t="n">
-        <v>8.699999999999999</v>
+        <v>7.5</v>
       </c>
       <c r="H56" t="n">
         <v>1.17</v>
@@ -5771,24 +5771,24 @@
         <v>1.17</v>
       </c>
       <c r="J56" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K56" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N56" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="O56" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="P56" t="inlineStr">
         <is>
@@ -5805,12 +5805,12 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>Hellas Verona</t>
+          <t>Koln</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -5820,7 +5820,7 @@
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Juventus</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="W56" t="n">
@@ -5832,33 +5832,33 @@
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="F57" t="n">
-        <v>5.5</v>
+        <v>1.43</v>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="H57" t="n">
         <v>1.17</v>
@@ -5867,24 +5867,24 @@
         <v>1.17</v>
       </c>
       <c r="J57" t="n">
-        <v>0.33</v>
+        <v>0.82</v>
       </c>
       <c r="K57" t="n">
-        <v>0.67</v>
+        <v>0.18</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="N57" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="O57" t="n">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
       <c r="P57" t="inlineStr">
         <is>
@@ -5896,27 +5896,27 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>Kortrijk</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Genk</t>
+          <t>Liverpool</t>
         </is>
       </c>
       <c r="W57" t="n">
@@ -5932,7 +5932,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5942,19 +5942,19 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F58" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="G58" t="n">
-        <v>7</v>
+        <v>7.8</v>
       </c>
       <c r="H58" t="n">
         <v>1.17</v>
@@ -5963,24 +5963,24 @@
         <v>1.17</v>
       </c>
       <c r="J58" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="K58" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="N58" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="O58" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
@@ -5992,65 +5992,65 @@
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>Internacional</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>Coritiba</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="F59" t="n">
-        <v>1.29</v>
+        <v>6.9</v>
       </c>
       <c r="G59" t="n">
-        <v>9.9</v>
+        <v>1.44</v>
       </c>
       <c r="H59" t="n">
         <v>1.17</v>
@@ -6059,24 +6059,24 @@
         <v>1.17</v>
       </c>
       <c r="J59" t="n">
-        <v>0.92</v>
+        <v>0.23</v>
       </c>
       <c r="K59" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>0.92</v>
+        <v>0.77</v>
       </c>
       <c r="N59" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="O59" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="P59" t="inlineStr">
         <is>
@@ -6088,27 +6088,27 @@
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>Nottingham Forest</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>Liverpool</t>
+          <t>Internazionale</t>
         </is>
       </c>
       <c r="W59" t="n">
@@ -6120,33 +6120,33 @@
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F60" t="n">
-        <v>5.4</v>
+        <v>6.9</v>
       </c>
       <c r="G60" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="H60" t="n">
         <v>1.17</v>
@@ -6155,24 +6155,24 @@
         <v>1.17</v>
       </c>
       <c r="J60" t="n">
-        <v>0.34</v>
+        <v>0.16</v>
       </c>
       <c r="K60" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>0.66</v>
+        <v>0.84</v>
       </c>
       <c r="N60" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="O60" t="n">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
@@ -6184,17 +6184,17 @@
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-11-04</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>Brest</t>
+          <t>Salernitana</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
@@ -6204,7 +6204,7 @@
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="W60" t="n">
@@ -6216,7 +6216,7 @@
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -6225,24 +6225,24 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F61" t="n">
-        <v>1.6</v>
+        <v>7</v>
       </c>
       <c r="G61" t="n">
-        <v>5.4</v>
+        <v>1.45</v>
       </c>
       <c r="H61" t="n">
         <v>1.17</v>
@@ -6251,24 +6251,24 @@
         <v>1.17</v>
       </c>
       <c r="J61" t="n">
-        <v>0.84</v>
+        <v>0.3</v>
       </c>
       <c r="K61" t="n">
-        <v>0.16</v>
+        <v>0.7</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>0.84</v>
+        <v>0.7</v>
       </c>
       <c r="N61" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="O61" t="n">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="P61" t="inlineStr">
         <is>
@@ -6285,22 +6285,22 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>Rennes</t>
+          <t>Vizela</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>Strasbourg</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="W61" t="n">
@@ -6312,33 +6312,33 @@
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F62" t="n">
-        <v>7</v>
+        <v>1.47</v>
       </c>
       <c r="G62" t="n">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="H62" t="n">
         <v>1.17</v>
@@ -6347,24 +6347,24 @@
         <v>1.17</v>
       </c>
       <c r="J62" t="n">
-        <v>0.3</v>
+        <v>0.91</v>
       </c>
       <c r="K62" t="n">
-        <v>0.7</v>
+        <v>0.09</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="N62" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="O62" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="P62" t="inlineStr">
         <is>
@@ -6376,27 +6376,27 @@
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>Vizela</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="W62" t="n">
@@ -6408,33 +6408,33 @@
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="F63" t="n">
-        <v>1.42</v>
+        <v>6.7</v>
       </c>
       <c r="G63" t="n">
-        <v>7.5</v>
+        <v>1.48</v>
       </c>
       <c r="H63" t="n">
         <v>1.17</v>
@@ -6443,24 +6443,24 @@
         <v>1.17</v>
       </c>
       <c r="J63" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.32</v>
       </c>
       <c r="K63" t="n">
-        <v>0.19</v>
+        <v>0.68</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="N63" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="O63" t="n">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
@@ -6472,27 +6472,27 @@
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>West Ham United</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>Koln</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Manchester City</t>
         </is>
       </c>
       <c r="W63" t="n">
@@ -6504,33 +6504,33 @@
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="G64" t="n">
-        <v>15</v>
+        <v>5.85</v>
       </c>
       <c r="H64" t="n">
         <v>1.17</v>
@@ -6539,24 +6539,24 @@
         <v>1.17</v>
       </c>
       <c r="J64" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K64" t="n">
-        <v>0.09</v>
+        <v>0.19</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N64" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="O64" t="n">
-        <v>1.2</v>
+        <v>1.48</v>
       </c>
       <c r="P64" t="inlineStr">
         <is>
@@ -6568,31 +6568,31 @@
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>2023-10-28</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Heerenveen</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X64" t="n">
         <v>1</v>
@@ -6600,33 +6600,33 @@
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>A</t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="G65" t="n">
-        <v>4.75</v>
+        <v>6</v>
       </c>
       <c r="H65" t="n">
         <v>1.17</v>
@@ -6635,24 +6635,24 @@
         <v>1.17</v>
       </c>
       <c r="J65" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="K65" t="n">
-        <v>0.16</v>
+        <v>0.19</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>0.84</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N65" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="O65" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
@@ -6664,39 +6664,39 @@
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>2023-10-29</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>Central Coast Mariners</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Boavista</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>Macarthur FC</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="W65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
@@ -6710,19 +6710,19 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="F66" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="G66" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>1.17</v>
@@ -6738,17 +6738,17 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="M66" t="n">
         <v>0.67</v>
       </c>
       <c r="N66" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O66" t="n">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="P66" t="inlineStr">
         <is>
@@ -6765,12 +6765,12 @@
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>Westerlo</t>
+          <t>Kortrijk</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="U66" t="inlineStr">
@@ -6780,7 +6780,7 @@
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Union SG</t>
+          <t>Genk</t>
         </is>
       </c>
       <c r="W66" t="n">
@@ -6792,33 +6792,33 @@
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F67" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="G67" t="n">
-        <v>4.75</v>
+        <v>5.9</v>
       </c>
       <c r="H67" t="n">
         <v>1.17</v>
@@ -6827,24 +6827,24 @@
         <v>1.17</v>
       </c>
       <c r="J67" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K67" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N67" t="n">
-        <v>1.75</v>
+        <v>1.52</v>
       </c>
       <c r="O67" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="P67" t="inlineStr">
         <is>
@@ -6856,65 +6856,65 @@
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>2023-11-02</t>
+          <t>2023-09-16</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>Cruzeiro</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>Sao Paulo</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="W67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F68" t="n">
-        <v>1.26</v>
+        <v>6.3</v>
       </c>
       <c r="G68" t="n">
-        <v>9.6</v>
+        <v>1.52</v>
       </c>
       <c r="H68" t="n">
         <v>1.17</v>
@@ -6923,24 +6923,24 @@
         <v>1.17</v>
       </c>
       <c r="J68" t="n">
-        <v>0.8</v>
+        <v>0.29</v>
       </c>
       <c r="K68" t="n">
-        <v>0.2</v>
+        <v>0.71</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="N68" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="O68" t="n">
-        <v>1.26</v>
+        <v>1.52</v>
       </c>
       <c r="P68" t="inlineStr">
         <is>
@@ -6952,27 +6952,27 @@
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Everton</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>Montpellier</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Paris Saint Germain</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="W68" t="n">
@@ -6984,33 +6984,33 @@
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="F69" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="G69" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="H69" t="n">
         <v>1.17</v>
@@ -7019,24 +7019,24 @@
         <v>1.17</v>
       </c>
       <c r="J69" t="n">
-        <v>0.34</v>
+        <v>0.2</v>
       </c>
       <c r="K69" t="n">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>0.66</v>
+        <v>0.8</v>
       </c>
       <c r="N69" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="O69" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="P69" t="inlineStr">
         <is>
@@ -7048,17 +7048,17 @@
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>2023-11-03</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Twente</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
@@ -7068,7 +7068,7 @@
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>RKC Waalwijk</t>
         </is>
       </c>
       <c r="W69" t="n">
@@ -7080,33 +7080,33 @@
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F70" t="n">
-        <v>5</v>
+        <v>1.52</v>
       </c>
       <c r="G70" t="n">
-        <v>1.62</v>
+        <v>6.3</v>
       </c>
       <c r="H70" t="n">
         <v>1.17</v>
@@ -7115,24 +7115,24 @@
         <v>1.17</v>
       </c>
       <c r="J70" t="n">
-        <v>0.16</v>
+        <v>0.82</v>
       </c>
       <c r="K70" t="n">
-        <v>0.84</v>
+        <v>0.18</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="N70" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="O70" t="n">
-        <v>1.17</v>
+        <v>1.52</v>
       </c>
       <c r="P70" t="inlineStr">
         <is>
@@ -7144,17 +7144,17 @@
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-26</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
@@ -7164,45 +7164,45 @@
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Mainz 05</t>
+          <t>Juventus</t>
         </is>
       </c>
       <c r="W70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F71" t="n">
-        <v>6.9</v>
+        <v>1.52</v>
       </c>
       <c r="G71" t="n">
-        <v>1.44</v>
+        <v>5.9</v>
       </c>
       <c r="H71" t="n">
         <v>1.17</v>
@@ -7211,24 +7211,24 @@
         <v>1.17</v>
       </c>
       <c r="J71" t="n">
-        <v>0.16</v>
+        <v>0.89</v>
       </c>
       <c r="K71" t="n">
-        <v>0.84</v>
+        <v>0.11</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="N71" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="O71" t="n">
-        <v>1.44</v>
+        <v>1.52</v>
       </c>
       <c r="P71" t="inlineStr">
         <is>
@@ -7240,27 +7240,27 @@
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-10-01</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>Salernitana</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Rennes</t>
         </is>
       </c>
       <c r="W71" t="n">
@@ -7272,33 +7272,33 @@
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="F72" t="n">
-        <v>11.5</v>
+        <v>6.1</v>
       </c>
       <c r="G72" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="H72" t="n">
         <v>1.17</v>
@@ -7307,24 +7307,24 @@
         <v>1.17</v>
       </c>
       <c r="J72" t="n">
-        <v>0.18</v>
+        <v>0.24</v>
       </c>
       <c r="K72" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>0.82</v>
+        <v>0.76</v>
       </c>
       <c r="N72" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="O72" t="n">
-        <v>1.21</v>
+        <v>1.52</v>
       </c>
       <c r="P72" t="inlineStr">
         <is>
@@ -7336,17 +7336,17 @@
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>Heracles Almelo</t>
+          <t>Bournemouth</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
@@ -7356,7 +7356,7 @@
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>PSV Eindhoven</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="W72" t="n">
@@ -7368,33 +7368,33 @@
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="F73" t="n">
-        <v>7.3</v>
+        <v>1.53</v>
       </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="H73" t="n">
         <v>1.17</v>
@@ -7403,24 +7403,24 @@
         <v>1.17</v>
       </c>
       <c r="J73" t="n">
-        <v>0.22</v>
+        <v>0.85</v>
       </c>
       <c r="K73" t="n">
-        <v>0.78</v>
+        <v>0.15</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="N73" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="O73" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P73" t="inlineStr">
         <is>
@@ -7432,65 +7432,65 @@
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-17</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Vitoria Guimaraes</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>AZ Alkmaar</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Portimonense</t>
         </is>
       </c>
       <c r="W73" t="n">
         <v>0</v>
       </c>
       <c r="X73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="F74" t="n">
-        <v>10</v>
+        <v>1.55</v>
       </c>
       <c r="G74" t="n">
-        <v>1.25</v>
+        <v>5.5</v>
       </c>
       <c r="H74" t="n">
         <v>1.17</v>
@@ -7499,24 +7499,24 @@
         <v>1.17</v>
       </c>
       <c r="J74" t="n">
-        <v>0.3</v>
+        <v>0.83</v>
       </c>
       <c r="K74" t="n">
-        <v>0.7</v>
+        <v>0.17</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>0.7</v>
+        <v>0.83</v>
       </c>
       <c r="N74" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O74" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="P74" t="inlineStr">
         <is>
@@ -7528,27 +7528,27 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>Chaves</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="W74" t="n">
@@ -7560,33 +7560,33 @@
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="F75" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="G75" t="n">
-        <v>11</v>
+        <v>5.4</v>
       </c>
       <c r="H75" t="n">
         <v>1.17</v>
@@ -7595,24 +7595,24 @@
         <v>1.17</v>
       </c>
       <c r="J75" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="K75" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>0.91</v>
+        <v>0.92</v>
       </c>
       <c r="N75" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O75" t="n">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="P75" t="inlineStr">
         <is>
@@ -7624,17 +7624,17 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>2023-11-04</t>
+          <t>2023-10-28</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>Portimonense</t>
+          <t>Nantes</t>
         </is>
       </c>
       <c r="U75" t="inlineStr">
@@ -7644,7 +7644,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Lens</t>
         </is>
       </c>
       <c r="W75" t="n">
@@ -7660,29 +7660,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="F76" t="n">
-        <v>1.78</v>
+        <v>5.4</v>
       </c>
       <c r="G76" t="n">
-        <v>4.2</v>
+        <v>1.55</v>
       </c>
       <c r="H76" t="n">
         <v>1.17</v>
@@ -7691,24 +7691,24 @@
         <v>1.17</v>
       </c>
       <c r="J76" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.34</v>
       </c>
       <c r="K76" t="n">
-        <v>0.19</v>
+        <v>0.66</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.66</v>
       </c>
       <c r="N76" t="n">
-        <v>1.78</v>
+        <v>1.55</v>
       </c>
       <c r="O76" t="n">
-        <v>1.17</v>
+        <v>1.55</v>
       </c>
       <c r="P76" t="inlineStr">
         <is>
@@ -7720,27 +7720,27 @@
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-10-29</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>Standard Liege</t>
+          <t>Brest</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>Mechelen</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Paris Saint Germain</t>
         </is>
       </c>
       <c r="W76" t="n">
@@ -7756,29 +7756,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="F77" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="G77" t="n">
-        <v>4.7</v>
+        <v>6.5</v>
       </c>
       <c r="H77" t="n">
         <v>1.17</v>
@@ -7787,24 +7787,24 @@
         <v>1.17</v>
       </c>
       <c r="J77" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="K77" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="N77" t="n">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="O77" t="n">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="P77" t="inlineStr">
         <is>
@@ -7816,27 +7816,27 @@
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-09-23</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Cuiaba</t>
         </is>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Atletico Mineiro</t>
         </is>
       </c>
       <c r="W77" t="n">
@@ -7852,29 +7852,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="F78" t="n">
         <v>1.58</v>
       </c>
       <c r="G78" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H78" t="n">
         <v>1.17</v>
@@ -7890,7 +7890,7 @@
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="M78" t="n">
@@ -7912,17 +7912,17 @@
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-09-24</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="U78" t="inlineStr">
@@ -7932,7 +7932,7 @@
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="W78" t="n">
@@ -7948,7 +7948,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -7958,19 +7958,19 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>Heerenveen</t>
-        </is>
-      </c>
       <c r="F79" t="n">
-        <v>1.48</v>
+        <v>4.7</v>
       </c>
       <c r="G79" t="n">
-        <v>5.85</v>
+        <v>1.58</v>
       </c>
       <c r="H79" t="n">
         <v>1.17</v>
@@ -7979,10 +7979,10 @@
         <v>1.17</v>
       </c>
       <c r="J79" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.33</v>
       </c>
       <c r="K79" t="n">
-        <v>0.19</v>
+        <v>0.67</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -7990,13 +7990,13 @@
         </is>
       </c>
       <c r="M79" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.67</v>
       </c>
       <c r="N79" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="O79" t="n">
-        <v>1.48</v>
+        <v>1.58</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
@@ -8008,22 +8008,22 @@
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
+          <t>RKC Waalwijk</t>
+        </is>
+      </c>
+      <c r="T79" t="inlineStr">
+        <is>
           <t>Ajax</t>
         </is>
       </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t>Heerenveen</t>
-        </is>
-      </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -8044,29 +8044,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F80" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="G80" t="n">
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="H80" t="n">
         <v>1.17</v>
@@ -8075,24 +8075,24 @@
         <v>1.17</v>
       </c>
       <c r="J80" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="K80" t="n">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="N80" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="O80" t="n">
-        <v>1.22</v>
+        <v>1.58</v>
       </c>
       <c r="P80" t="inlineStr">
         <is>
@@ -8104,34 +8104,34 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-09-30</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Sporting CP</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -8145,24 +8145,24 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="G81" t="n">
-        <v>10</v>
+        <v>5.9</v>
       </c>
       <c r="H81" t="n">
         <v>1.17</v>
@@ -8171,24 +8171,24 @@
         <v>1.17</v>
       </c>
       <c r="J81" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="K81" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="N81" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="O81" t="n">
-        <v>1.3</v>
+        <v>1.58</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -8205,26 +8205,26 @@
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>D</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Draw</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="W81" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X81" t="n">
         <v>1</v>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X81"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8230,6 +8230,488 @@
         <v>1</v>
       </c>
     </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="G82" t="n">
+        <v>7</v>
+      </c>
+      <c r="H82" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I82" t="n">
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="N82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="O82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3</v>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>Cercle Brugge</t>
+        </is>
+      </c>
+      <c r="W82" t="n">
+        <v>1</v>
+      </c>
+      <c r="X82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G83" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="H83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I83" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O83" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>Vitesse</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="W83" t="n">
+        <v>1</v>
+      </c>
+      <c r="X83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="G84" t="n">
+        <v>9</v>
+      </c>
+      <c r="H84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I84" t="n">
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>Mallorca</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="W84" t="n">
+        <v>1</v>
+      </c>
+      <c r="X84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="G85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H85" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O85" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>Cadiz</t>
+        </is>
+      </c>
+      <c r="T85" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="W85" t="n">
+        <v>1</v>
+      </c>
+      <c r="X85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="G86" t="n">
+        <v>5</v>
+      </c>
+      <c r="H86" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>Odds_H_X</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="T86" t="inlineStr">
+        <is>
+          <t>Las Palmas</t>
+        </is>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>Real Betis</t>
+        </is>
+      </c>
+      <c r="W86" t="n">
+        <v>1</v>
+      </c>
+      <c r="X86" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -8667,10 +8667,8 @@
       <c r="N86" t="n">
         <v>1.72</v>
       </c>
-      <c r="O86" t="inlineStr">
-        <is>
-          <t>Odds_H_X</t>
-        </is>
+      <c r="O86" t="n">
+        <v>1.17</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X86"/>
+  <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8710,6 +8710,870 @@
         <v>1</v>
       </c>
     </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G87" t="n">
+        <v>8</v>
+      </c>
+      <c r="H87" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I87" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="T87" t="inlineStr">
+        <is>
+          <t>OH Leuven</t>
+        </is>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>Antwerp</t>
+        </is>
+      </c>
+      <c r="W87" t="n">
+        <v>1</v>
+      </c>
+      <c r="X87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G88" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="H88" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>3</v>
+      </c>
+      <c r="R88" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="T88" t="inlineStr">
+        <is>
+          <t>Wolverhampton Wanderers</t>
+        </is>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>Arsenal</t>
+        </is>
+      </c>
+      <c r="W88" t="n">
+        <v>1</v>
+      </c>
+      <c r="X88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G89" t="n">
+        <v>12</v>
+      </c>
+      <c r="H89" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I89" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="T89" t="inlineStr">
+        <is>
+          <t>Heidenheim</t>
+        </is>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="W89" t="n">
+        <v>1</v>
+      </c>
+      <c r="X89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="G90" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="H90" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="O90" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>3</v>
+      </c>
+      <c r="R90" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="T90" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>Lazio</t>
+        </is>
+      </c>
+      <c r="W90" t="n">
+        <v>1</v>
+      </c>
+      <c r="X90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G91" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H91" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I91" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="N91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O91" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>3</v>
+      </c>
+      <c r="R91" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="T91" t="inlineStr">
+        <is>
+          <t>Frosinone</t>
+        </is>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>Milan</t>
+        </is>
+      </c>
+      <c r="W91" t="n">
+        <v>1</v>
+      </c>
+      <c r="X91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H92" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="I92" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="N92" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O92" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
+          <t>2023-12-02</t>
+        </is>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>Famalicao</t>
+        </is>
+      </c>
+      <c r="T92" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="W92" t="n">
+        <v>1</v>
+      </c>
+      <c r="X92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="G93" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="H93" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="I93" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N93" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="O93" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="T93" t="inlineStr">
+        <is>
+          <t>Metz</t>
+        </is>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>Lille</t>
+        </is>
+      </c>
+      <c r="W93" t="n">
+        <v>1</v>
+      </c>
+      <c r="X93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G94" t="n">
+        <v>8</v>
+      </c>
+      <c r="H94" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="I94" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="N94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>3</v>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="T94" t="inlineStr">
+        <is>
+          <t>Estoril</t>
+        </is>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="W94" t="n">
+        <v>1</v>
+      </c>
+      <c r="X94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>6</v>
+      </c>
+      <c r="G95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H95" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>2023-12-03</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Moreirense</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="W95" t="n">
+        <v>0</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X95"/>
+  <dimension ref="A1:X104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7953,24 +7953,24 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="F79" t="n">
-        <v>4.7</v>
+        <v>1.58</v>
       </c>
       <c r="G79" t="n">
-        <v>1.58</v>
+        <v>5.9</v>
       </c>
       <c r="H79" t="n">
         <v>1.17</v>
@@ -7979,18 +7979,18 @@
         <v>1.17</v>
       </c>
       <c r="J79" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="K79" t="n">
-        <v>0.67</v>
+        <v>0.2</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>0.67</v>
+        <v>0.8</v>
       </c>
       <c r="N79" t="n">
         <v>1.58</v>
@@ -8013,12 +8013,12 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>RKC Waalwijk</t>
+          <t>Manchester United</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="U79" t="inlineStr">
@@ -8028,14 +8028,14 @@
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="W79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -8044,22 +8044,22 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="F80" t="n">
@@ -8075,18 +8075,18 @@
         <v>1.17</v>
       </c>
       <c r="J80" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="K80" t="n">
-        <v>0.2</v>
+        <v>0.12</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="N80" t="n">
         <v>1.58</v>
@@ -8104,34 +8104,34 @@
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>2023-09-30</t>
+          <t>2023-11-05</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>Manchester United</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Lecce</t>
         </is>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Roma</t>
         </is>
       </c>
       <c r="W80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X80" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -8140,55 +8140,55 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-11-25</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="G81" t="n">
-        <v>5.9</v>
+        <v>7</v>
       </c>
       <c r="H81" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="I81" t="n">
-        <v>1.17</v>
+        <v>3</v>
       </c>
       <c r="J81" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="K81" t="n">
-        <v>0.12</v>
+        <v>0.16</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>0.88</v>
+        <v>0.84</v>
       </c>
       <c r="N81" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="O81" t="n">
-        <v>1.58</v>
+        <v>1.4</v>
       </c>
       <c r="P81" t="inlineStr">
         <is>
@@ -8200,17 +8200,17 @@
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>2023-11-05</t>
+          <t>2023-11-25</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>Lecce</t>
+          <t>Eupen</t>
         </is>
       </c>
       <c r="U81" t="inlineStr">
@@ -8220,7 +8220,7 @@
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>Roma</t>
+          <t>Cercle Brugge</t>
         </is>
       </c>
       <c r="W81" t="n">
@@ -8241,50 +8241,50 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">EREDIVISIE </t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="G82" t="n">
-        <v>7</v>
+        <v>8.9</v>
       </c>
       <c r="H82" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="I82" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="J82" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="K82" t="n">
-        <v>0.16</v>
+        <v>0.18</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="N82" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="O82" t="n">
-        <v>1.4</v>
+        <v>1.32</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
@@ -8301,12 +8301,12 @@
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>Eupen</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="U82" t="inlineStr">
@@ -8316,7 +8316,7 @@
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>Cercle Brugge</t>
+          <t>Ajax</t>
         </is>
       </c>
       <c r="W82" t="n">
@@ -8337,50 +8337,50 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">EREDIVISIE </t>
+          <t xml:space="preserve">LALIGA </t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="F83" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="G83" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="H83" t="n">
         <v>1.05</v>
       </c>
       <c r="I83" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="J83" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="K83" t="n">
-        <v>0.18</v>
+        <v>0.17</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="N83" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="O83" t="n">
-        <v>1.32</v>
+        <v>1.38</v>
       </c>
       <c r="P83" t="inlineStr">
         <is>
@@ -8397,12 +8397,12 @@
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Mallorca</t>
         </is>
       </c>
       <c r="U83" t="inlineStr">
@@ -8412,7 +8412,7 @@
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>Ajax</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="W83" t="n">
@@ -8428,7 +8428,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2023-11-25</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -8438,45 +8438,45 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="F84" t="n">
-        <v>1.38</v>
+        <v>6.5</v>
       </c>
       <c r="G84" t="n">
-        <v>9</v>
+        <v>1.5</v>
       </c>
       <c r="H84" t="n">
-        <v>1.05</v>
+        <v>2.7</v>
       </c>
       <c r="I84" t="n">
-        <v>3</v>
+        <v>1.11</v>
       </c>
       <c r="J84" t="n">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="K84" t="n">
-        <v>0.17</v>
+        <v>0.67</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="N84" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="O84" t="n">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="P84" t="inlineStr">
         <is>
@@ -8488,27 +8488,27 @@
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>2023-11-25</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>Mallorca</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Real Madrid</t>
         </is>
       </c>
       <c r="W84" t="n">
@@ -8534,45 +8534,45 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="F85" t="n">
-        <v>6.5</v>
+        <v>1.72</v>
       </c>
       <c r="G85" t="n">
-        <v>1.5</v>
+        <v>5</v>
       </c>
       <c r="H85" t="n">
-        <v>2.7</v>
+        <v>1.17</v>
       </c>
       <c r="I85" t="n">
-        <v>1.11</v>
+        <v>2.2</v>
       </c>
       <c r="J85" t="n">
-        <v>0.33</v>
+        <v>0.82</v>
       </c>
       <c r="K85" t="n">
-        <v>0.67</v>
+        <v>0.18</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="N85" t="n">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="O85" t="n">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
@@ -8589,22 +8589,22 @@
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>Real Madrid</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="W85" t="n">
@@ -8620,35 +8620,35 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">LALIGA </t>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="F86" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H86" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="I86" t="n">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="J86" t="n">
         <v>0.82</v>
@@ -8658,17 +8658,17 @@
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="M86" t="n">
         <v>0.82</v>
       </c>
       <c r="N86" t="n">
-        <v>1.72</v>
+        <v>1.36</v>
       </c>
       <c r="O86" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P86" t="inlineStr">
         <is>
@@ -8680,17 +8680,17 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>2023-12-02</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>OH Leuven</t>
         </is>
       </c>
       <c r="U86" t="inlineStr">
@@ -8700,7 +8700,7 @@
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Antwerp</t>
         </is>
       </c>
       <c r="W86" t="n">
@@ -8721,50 +8721,50 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="F87" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="G87" t="n">
-        <v>8</v>
+        <v>11.5</v>
       </c>
       <c r="H87" t="n">
-        <v>1.08</v>
+        <v>1.04</v>
       </c>
       <c r="I87" t="n">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="J87" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="K87" t="n">
-        <v>0.18</v>
+        <v>0.11</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="N87" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="O87" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
@@ -8781,12 +8781,12 @@
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>OH Leuven</t>
+          <t>Wolverhampton Wanderers</t>
         </is>
       </c>
       <c r="U87" t="inlineStr">
@@ -8796,7 +8796,7 @@
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>Antwerp</t>
+          <t>Arsenal</t>
         </is>
       </c>
       <c r="W87" t="n">
@@ -8817,30 +8817,30 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">PREMIER LEAGUE </t>
+          <t xml:space="preserve">BUNDESLIGA </t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="F88" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="G88" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="H88" t="n">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="I88" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="J88" t="n">
         <v>0.89</v>
@@ -8850,17 +8850,17 @@
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="M88" t="n">
         <v>0.89</v>
       </c>
       <c r="N88" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="O88" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P88" t="inlineStr">
         <is>
@@ -8877,12 +8877,12 @@
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>Wolverhampton Wanderers</t>
+          <t>Heidenheim</t>
         </is>
       </c>
       <c r="U88" t="inlineStr">
@@ -8892,7 +8892,7 @@
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>Arsenal</t>
+          <t>RB Leipzig</t>
         </is>
       </c>
       <c r="W88" t="n">
@@ -8913,50 +8913,50 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">BUNDESLIGA </t>
+          <t xml:space="preserve">SERIE A </t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="F89" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="G89" t="n">
-        <v>12</v>
+        <v>5.9</v>
       </c>
       <c r="H89" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="I89" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="J89" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="K89" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="N89" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="O89" t="n">
-        <v>1.25</v>
+        <v>1.58</v>
       </c>
       <c r="P89" t="inlineStr">
         <is>
@@ -8973,12 +8973,12 @@
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>Heidenheim</t>
+          <t>Cagliari</t>
         </is>
       </c>
       <c r="U89" t="inlineStr">
@@ -8988,7 +8988,7 @@
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>RB Leipzig</t>
+          <t>Lazio</t>
         </is>
       </c>
       <c r="W89" t="n">
@@ -9014,45 +9014,45 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="F90" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="G90" t="n">
-        <v>5.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H90" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="I90" t="n">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="J90" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="K90" t="n">
-        <v>0.1</v>
+        <v>0.14</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="N90" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="O90" t="n">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="P90" t="inlineStr">
         <is>
@@ -9069,12 +9069,12 @@
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>Cagliari</t>
+          <t>Frosinone</t>
         </is>
       </c>
       <c r="U90" t="inlineStr">
@@ -9084,7 +9084,7 @@
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>Lazio</t>
+          <t>Milan</t>
         </is>
       </c>
       <c r="W90" t="n">
@@ -9105,50 +9105,50 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">SERIE A </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="F91" t="n">
-        <v>1.36</v>
+        <v>5.5</v>
       </c>
       <c r="G91" t="n">
-        <v>8.699999999999999</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
-        <v>1.07</v>
+        <v>2.4</v>
       </c>
       <c r="I91" t="n">
-        <v>3.1</v>
+        <v>1.14</v>
       </c>
       <c r="J91" t="n">
-        <v>0.86</v>
+        <v>0.33</v>
       </c>
       <c r="K91" t="n">
-        <v>0.14</v>
+        <v>0.67</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>0.86</v>
+        <v>0.67</v>
       </c>
       <c r="N91" t="n">
-        <v>1.36</v>
+        <v>1.6</v>
       </c>
       <c r="O91" t="n">
-        <v>1.36</v>
+        <v>1.14</v>
       </c>
       <c r="P91" t="inlineStr">
         <is>
@@ -9165,22 +9165,22 @@
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Famalicao</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>Frosinone</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>L</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Porto</t>
         </is>
       </c>
       <c r="W91" t="n">
@@ -9196,55 +9196,55 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-03</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGA PORTUGAL </t>
+          <t xml:space="preserve">LIGUE 1 </t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="F92" t="n">
-        <v>5.5</v>
+        <v>1.37</v>
       </c>
       <c r="G92" t="n">
-        <v>1.6</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="H92" t="n">
-        <v>2.4</v>
+        <v>1.07</v>
       </c>
       <c r="I92" t="n">
-        <v>1.14</v>
+        <v>3.1</v>
       </c>
       <c r="J92" t="n">
-        <v>0.33</v>
+        <v>0.85</v>
       </c>
       <c r="K92" t="n">
-        <v>0.67</v>
+        <v>0.15</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>0.67</v>
+        <v>0.85</v>
       </c>
       <c r="N92" t="n">
-        <v>1.6</v>
+        <v>1.37</v>
       </c>
       <c r="O92" t="n">
-        <v>1.14</v>
+        <v>1.37</v>
       </c>
       <c r="P92" t="inlineStr">
         <is>
@@ -9256,27 +9256,27 @@
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>2023-12-02</t>
+          <t>2023-12-03</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>Famalicao</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Metz</t>
         </is>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>L</t>
+          <t>W</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>Porto</t>
+          <t>Lille</t>
         </is>
       </c>
       <c r="W92" t="n">
@@ -9297,50 +9297,50 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">LIGUE 1 </t>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="F93" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="G93" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="H93" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="I93" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J93" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="K93" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="N93" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="O93" t="n">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="P93" t="inlineStr">
         <is>
@@ -9357,12 +9357,12 @@
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>Metz</t>
+          <t>Estoril</t>
         </is>
       </c>
       <c r="U93" t="inlineStr">
@@ -9372,7 +9372,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>Lille</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="W93" t="n">
@@ -9398,45 +9398,45 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F94" t="n">
-        <v>1.33</v>
+        <v>6</v>
       </c>
       <c r="G94" t="n">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="H94" t="n">
-        <v>1.06</v>
+        <v>2.65</v>
       </c>
       <c r="I94" t="n">
-        <v>3.3</v>
+        <v>1.12</v>
       </c>
       <c r="J94" t="n">
-        <v>0.92</v>
+        <v>0.31</v>
       </c>
       <c r="K94" t="n">
-        <v>0.08</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>0.92</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="N94" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="O94" t="n">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
@@ -9453,26 +9453,26 @@
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Moreirense</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>Estoril</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>D</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Draw</t>
         </is>
       </c>
       <c r="W94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X94" t="n">
         <v>1</v>
@@ -9484,94 +9484,958 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2023-12-03</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="G95" t="n">
+        <v>12</v>
+      </c>
+      <c r="H95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="I95" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3</v>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="T95" t="inlineStr">
+        <is>
+          <t>Excelsior</t>
+        </is>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>Twente</t>
+        </is>
+      </c>
+      <c r="W95" t="n">
+        <v>1</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t xml:space="preserve">LIGA PORTUGAL </t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>Moreirense</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="F95" t="n">
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>5</v>
+      </c>
+      <c r="G96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H96" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="N96" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>3</v>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
+          <t>2023-12-08</t>
+        </is>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>Vizela</t>
+        </is>
+      </c>
+      <c r="T96" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="W96" t="n">
+        <v>1</v>
+      </c>
+      <c r="X96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Brighton and Hove Albion</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G97" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="H97" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="I97" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Brighton and Hove Albion</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>3</v>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>Brighton and Hove Albion</t>
+        </is>
+      </c>
+      <c r="T97" t="inlineStr">
+        <is>
+          <t>Burnley</t>
+        </is>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="W97" t="n">
+        <v>0</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PREMIER LEAGUE </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="G98" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="H98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="I98" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>3</v>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>Manchester United</t>
+        </is>
+      </c>
+      <c r="T98" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>Bournemouth</t>
+        </is>
+      </c>
+      <c r="W98" t="n">
+        <v>0</v>
+      </c>
+      <c r="X98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>8</v>
+      </c>
+      <c r="G99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="H99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>3</v>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="T99" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>Eintracht Frankfurt</t>
+        </is>
+      </c>
+      <c r="W99" t="n">
+        <v>0</v>
+      </c>
+      <c r="X99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGA PORTUGAL </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="G100" t="n">
+        <v>13</v>
+      </c>
+      <c r="H100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="N100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>3</v>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
+          <t>2023-12-09</t>
+        </is>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="T100" t="inlineStr">
+        <is>
+          <t>Casa Pia</t>
+        </is>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>Porto</t>
+        </is>
+      </c>
+      <c r="W100" t="n">
+        <v>1</v>
+      </c>
+      <c r="X100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="G101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="N101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>3</v>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="T101" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="W101" t="n">
+        <v>1</v>
+      </c>
+      <c r="X101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>5</v>
+      </c>
+      <c r="G102" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="H102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="N102" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>3</v>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>Charleroi</t>
+        </is>
+      </c>
+      <c r="T102" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="W102" t="n">
+        <v>1</v>
+      </c>
+      <c r="X102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G103" t="n">
+        <v>13</v>
+      </c>
+      <c r="H103" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="N103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="T103" t="inlineStr">
+        <is>
+          <t>Almeria</t>
+        </is>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="W103" t="n">
+        <v>1</v>
+      </c>
+      <c r="X103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LALIGA </t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="G104" t="n">
         <v>6</v>
       </c>
-      <c r="G95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="H95" t="n">
+      <c r="H104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="I104" t="n">
         <v>2.65</v>
       </c>
-      <c r="I95" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="N95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="O95" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P95" t="inlineStr">
+      <c r="J104" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="N104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="P104" t="inlineStr">
         <is>
           <t>safest_bet</t>
         </is>
       </c>
-      <c r="Q95" t="n">
-        <v>3</v>
-      </c>
-      <c r="R95" t="inlineStr">
-        <is>
-          <t>2023-12-03</t>
-        </is>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>Moreirense</t>
-        </is>
-      </c>
-      <c r="T95" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>D</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>Draw</t>
-        </is>
-      </c>
-      <c r="W95" t="n">
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
+          <t>2023-12-10</t>
+        </is>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="T104" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>Girona</t>
+        </is>
+      </c>
+      <c r="W104" t="n">
         <v>0</v>
       </c>
-      <c r="X95" t="n">
-        <v>1</v>
+      <c r="X104" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/tips_original_result.xlsx
+++ b/tips_original_result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X104"/>
+  <dimension ref="A1:X114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10438,6 +10438,966 @@
         <v>0</v>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G105" t="n">
+        <v>4</v>
+      </c>
+      <c r="H105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N105" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>3</v>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
+          <t>2023-12-15</t>
+        </is>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="T105" t="inlineStr">
+        <is>
+          <t>Eupen</t>
+        </is>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>Westerlo</t>
+        </is>
+      </c>
+      <c r="W105" t="n">
+        <v>1</v>
+      </c>
+      <c r="X105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">LIGUE 1 </t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="G106" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H106" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="O106" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>3</v>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="T106" t="inlineStr">
+        <is>
+          <t>Reims</t>
+        </is>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>Lens</t>
+        </is>
+      </c>
+      <c r="W106" t="n">
+        <v>1</v>
+      </c>
+      <c r="X106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G107" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="H107" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I107" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O107" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3</v>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="T107" t="inlineStr">
+        <is>
+          <t>Hoffenheim</t>
+        </is>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>RB Leipzig</t>
+        </is>
+      </c>
+      <c r="W107" t="n">
+        <v>1</v>
+      </c>
+      <c r="X107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="G108" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="N108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>3</v>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
+          <t>2023-12-16</t>
+        </is>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="T108" t="inlineStr">
+        <is>
+          <t>Cagliari</t>
+        </is>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>Napoli</t>
+        </is>
+      </c>
+      <c r="W108" t="n">
+        <v>1</v>
+      </c>
+      <c r="X108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G109" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="I109" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="O109" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>3</v>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="T109" t="inlineStr">
+        <is>
+          <t>Mechelen</t>
+        </is>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>Union SG</t>
+        </is>
+      </c>
+      <c r="W109" t="n">
+        <v>1</v>
+      </c>
+      <c r="X109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JUPILER PRO LEAGUE </t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G110" t="n">
+        <v>12</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="I110" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="N110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="O110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>3</v>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="T110" t="inlineStr">
+        <is>
+          <t>Kortrijk</t>
+        </is>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>Genk</t>
+        </is>
+      </c>
+      <c r="W110" t="n">
+        <v>1</v>
+      </c>
+      <c r="X110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BUNDESLIGA </t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="G111" t="n">
+        <v>7</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="N111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="O111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>Stuttgart</t>
+        </is>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>Bayern Munich</t>
+        </is>
+      </c>
+      <c r="W111" t="n">
+        <v>1</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SERIE A </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="N112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>3</v>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>Hellas Verona</t>
+        </is>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>Fiorentina</t>
+        </is>
+      </c>
+      <c r="W112" t="n">
+        <v>1</v>
+      </c>
+      <c r="X112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="G113" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="H113" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="N113" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>3</v>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>Heracles Almelo</t>
+        </is>
+      </c>
+      <c r="T113" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>Feyenoord</t>
+        </is>
+      </c>
+      <c r="W113" t="n">
+        <v>1</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">EREDIVISIE </t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="G114" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="N114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>safest_bet</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>2023-12-17</t>
+        </is>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>Ajax</t>
+        </is>
+      </c>
+      <c r="T114" t="inlineStr">
+        <is>
+          <t>Zwolle</t>
+        </is>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>Draw</t>
+        </is>
+      </c>
+      <c r="W114" t="n">
+        <v>0</v>
+      </c>
+      <c r="X114" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
